--- a/data/post2002DB-v2.xlsx
+++ b/data/post2002DB-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hildad/Documents/GitHub/lyingpendatabases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4679B837-E8DA-2749-A0E5-9CA79A201AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDB28C8-9217-B848-B4CD-1CF4D8EED686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25720" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Database of Post-2002 Fragments" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="620">
   <si>
     <t>No.</t>
   </si>
@@ -221,32 +221,6 @@
   </si>
   <si>
     <t>Alleged Provenance</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Listed by Emanuel Tov in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Aleo"/>
-      </rPr>
-      <t>Revised Lists of the Text from the Judaean Desert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aleo"/>
-      </rPr>
-      <t xml:space="preserve"> (2010)</t>
-    </r>
-  </si>
-  <si>
-    <t>Listed in Accordance</t>
-  </si>
-  <si>
-    <t>Collector(s)/Collection(s)</t>
   </si>
   <si>
     <t>Asking price</t>
@@ -268,30 +242,6 @@
     <t>Lines</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aleo"/>
-      </rPr>
-      <t xml:space="preserve">Measurements </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Aleo"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>in cm</t>
-    </r>
-  </si>
-  <si>
     <t>Edition</t>
   </si>
   <si>
@@ -440,28 +390,6 @@
   </si>
   <si>
     <t>“These fragments [Gen 13:1–3; Words from Genesis 22; Isa 24:16–17; Isa 26:19–27:1; 1 En. 8:4–9:1] that came to Europe in the beginning of the sixties were in Lebanon with Mr. Moussa Al-Tawil for safekeeping” [Statement signed by William Kando, quoted by Tigchelaar 2017, 176].</t>
-  </si>
-  <si>
-    <r>
-      <t>4Q226 (psJub</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>) frg. 6a 1–4 by Eshel and Eshel 2005</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1087,46 +1015,6 @@
   <si>
     <t>1. The Temple, Jerusalem (ca. 170-100 BC); 2. Community of the Essenes, Qumran (ca. 100 BC-68 AD); 3. Qumran Cave 4 (68-1952); 4. Khalil Iskander Shahin ("Kando"), Bethlehem (1952-1965), Lebanon (1965-1969), Zürich (1969-1993); 5. The Kando Family collection, Zürich (1993-2010), acquired May 2010 [The Schøyen Collection,  https://www.schoyencollection.com/dead-sea-scrolls-collection/biblical/ms-5439-1]
 “The remaining fragments [Gen 36:7–16; Gen 37:8; Num 16:2–5; Deut 32:5–9; 1 Sam 5:10–11; 1 Kgs 16:23–26; Jer 3:15–19] published in this volume came from a distinguished family collection, which was based in Lebanon c. 1965–69. It was moved to Europe in 1969 and kept in Zurich from 1993. Nearly all these fragments were purchased from the Bedouin between 1952 and 1956 and were also believed to come from Cave 4. I know the identity of the owners of this family collection, but the family asked me to be so kind as not to reveal it, which I hereby honour” [Schøyen 2016, 30].</t>
-  </si>
-  <si>
-    <r>
-      <t>4Q1 (Gn-Ex</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>) frg. 7a by Puech 2011
-4QRP</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t xml:space="preserve"> (4Q364) frg. 8a by Elgvin 2016</t>
-    </r>
   </si>
   <si>
     <t>William Kando ➤ Schøyen Collection (May 2010)</t>
@@ -1483,28 +1371,6 @@
     <t>1. Community of the Essenes, Qumran (ca. 30 BC/20 AD–68 AD); 2. Qumran Cave 4 (68–1952); 3. Khalil Iskander Shahin (“Kando”), Bethlehem (1952–65), Lebanon (1965–69), Zürich (1969–93); 4. Private collection, Switzerland (1993–2001) [Schøyen not dated]</t>
   </si>
   <si>
-    <r>
-      <t>4Q14 (Exod</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>) frg. 1b 1–5 by Eshel and Eshel 2007</t>
-    </r>
-  </si>
-  <si>
     <t>4Q14 f1b:1–5 in DSSB-C and DSSB-M</t>
   </si>
   <si>
@@ -2473,9 +2339,6 @@
     <t>6 x 5.5</t>
   </si>
   <si>
-    <t>"Cluster of miniscule fragments" [Eshel et al. 2006, 57]</t>
-  </si>
-  <si>
     <t>ArugLev frg. d</t>
   </si>
   <si>
@@ -2564,10 +2427,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">34Seiyal Numeri by Hanan Eshel 2010
-</t>
-  </si>
-  <si>
     <t>2.1 x 3.3</t>
   </si>
   <si>
@@ -2924,28 +2783,6 @@
   </si>
   <si>
     <t>dss03</t>
-  </si>
-  <si>
-    <r>
-      <t>4Q33 (Deut</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>) frg. 12a 1–3 by Eshel and Eshel 2007</t>
-    </r>
   </si>
   <si>
     <r>
@@ -4269,9 +4106,6 @@
 “. . . was purchased from the private collection of a European Roman Catholic priest” [Johnson 2007].</t>
   </si>
   <si>
-    <t>11Q7 (Psc) frg. 3b by Eshel and Eshel 2007, 276–77</t>
-  </si>
-  <si>
     <r>
       <t>11Q7 (Ps</t>
     </r>
@@ -4458,28 +4292,6 @@
   </si>
   <si>
     <t>dss04</t>
-  </si>
-  <si>
-    <r>
-      <t>4Q56 (Isa</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>) frg. 16a 1–2 by Eshel and Eshel 2005</t>
-    </r>
   </si>
   <si>
     <r>
@@ -4634,28 +4446,6 @@
     <t>“These fragments [Gen 13:1–3; Words from Genesis 22; Isa 24:16–17; Isa 26:19–27:1; 1 En. 8:4–9:1] that came to Europe in the beginning of the sixties were in Lebanon with Mr. Moussa Al-Tawil for safekeeping” (statement signed by William Kando, quoted by Tigchelaar 2017, 176).</t>
   </si>
   <si>
-    <r>
-      <t>4Q56 (Isa</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>) frg. 20a 1–5 by Eshel and Eshel 2005</t>
-    </r>
-  </si>
-  <si>
     <t>4Q56 f20a:1–5 in DSSB-C and DSSB-M</t>
   </si>
   <si>
@@ -4915,28 +4705,6 @@
   <si>
     <t>“... [William] Noah acquired two fragments in Ferrini's possession that belonged to the Kandos: a tiny portion of the Book of Jeremiah, and a small fragment of rabbinic commentary about the Book of Genesis. “'Dead Sea cornflakes' we used to call them, they were so small,” Noah says. 
 Noah attempted to return the fragments to the Kando family, but the Kandos instead agreed to sell the fragments at a discount to Noah and Sharpe” [Greshko 2020, revised version of article].</t>
-  </si>
-  <si>
-    <r>
-      <t>4Q72 (Jer</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>) frg. 21a 1–3 by Eshel and Eshel 2007</t>
-    </r>
   </si>
   <si>
     <r>
@@ -5309,9 +5077,6 @@
     <t>Amos 3:4–5</t>
   </si>
   <si>
-    <t>Identified by Hanan and Esther Eshel in 2005</t>
-  </si>
-  <si>
     <t>“This fragment was found in Cave 4 in 1952 by a bedouin family, who sold it to a Bethlehem antiquities dealer known as Kando. It remained in the hands of the Kando family in Switzerland until 2002. From 2002 to 2004 it was held by a private collector in the United States. It was bought by another collector – the present owner – in 2004.”</t>
   </si>
   <si>
@@ -5502,29 +5267,6 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t xml:space="preserve"> ar) frg. 18a by Hallermayer and Elgvin 2006
-4Q196a by Elgvin 2012</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4Q196 (papTobit</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
         <rFont val="Aleo"/>
       </rPr>
       <t>a</t>
@@ -5555,28 +5297,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>4Q204 (Enoch</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t xml:space="preserve"> ar) by Esther Eshel 2009</t>
-    </r>
-  </si>
-  <si>
     <t>Tov  says it’s possibly a frg. of 4Q203 (4QEnGiantsa ar), but also labels it XQEnocha (p. 37) and X27 (XEnb ar) at p. 110</t>
   </si>
   <si>
@@ -5887,28 +5607,6 @@
   <si>
     <t xml:space="preserve">MOTB.SCR.000123
 </t>
-  </si>
-  <si>
-    <r>
-      <t>4Q416 (Instruction</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>) frg. 23 by Esther and Hanan Eshel 2007</t>
-    </r>
   </si>
   <si>
     <r>
@@ -6237,9 +5935,6 @@
       </rPr>
       <t>&lt;/i&gt;. Forth Worth, TX: Innovo. See p. 36.</t>
     </r>
-  </si>
-  <si>
-    <t>Unidentified (“remains of 7 lines in Greek and remains of semitic letters of the cursive Aramaic type in a perpendicular direction”)</t>
   </si>
   <si>
     <t>W 17</t>
@@ -6759,6 +6454,9 @@
     <t>Content group</t>
   </si>
   <si>
+    <t>Others</t>
+  </si>
+  <si>
     <t>Genesis, 1</t>
   </si>
   <si>
@@ -6826,6 +6524,319 @@
   </si>
   <si>
     <t>Unidentified, 23</t>
+  </si>
+  <si>
+    <t>Cluster of miniscule pieces</t>
+  </si>
+  <si>
+    <t>“Remains of 7 lines in Greek and remains of semitic letters of the cursive Aramaic type in a perpendicular direction”</t>
+  </si>
+  <si>
+    <r>
+      <t>4Q226 (psJub</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>) frg. 6a 1–4 by Eshel and Eshel [2005]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4Q1 (Gn-Ex</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>) frg. 7a by Puech [2011]
+4QRP</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t xml:space="preserve"> (4Q364) frg. 8a by Elgvin [2016]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4Q14 (Exod</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>) frg. 1b 1–5 by Eshel and Eshel [2007]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">34Seiyal Numeri by Hanan Eshel [2010]
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Siglum (Name) in Tov, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Aleo"/>
+      </rPr>
+      <t xml:space="preserve">Revised Lists </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aleo"/>
+      </rPr>
+      <t>(2010)</t>
+    </r>
+  </si>
+  <si>
+    <t>Siglum and Fragment Number in Accordance</t>
+  </si>
+  <si>
+    <t>Sales (➤) and Donations (➢)</t>
+  </si>
+  <si>
+    <t>William Kando ➢ Dorothy Patterson ➢ Southwestern Baptist Theological Seminary (3 Sep 2010)</t>
+  </si>
+  <si>
+    <r>
+      <t>4Q33 (Deut</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>) frg. 12a 1–3 by Eshel and Eshel [2007]</t>
+    </r>
+  </si>
+  <si>
+    <t>11Q7 (Psc) frg. 3b [Eshel and Eshel 2007, 276–77]</t>
+  </si>
+  <si>
+    <r>
+      <t>4Q56 (Isa</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>) frg. 16a 1–2 by Eshel and Eshel [2005]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4Q56 (Isa</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>) frg. 20a 1–5 by Eshel and Eshel [2005]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4Q72 (Jer</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>) frg. 21a 1–3 by Eshel and Eshel [2007]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4Q196 (papTobit</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t xml:space="preserve"> ar) frg. 18a by Hallermayer and Elgvin [2006];
+4Q196a by Elgvin [2012]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4Q204 (Enoch</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t xml:space="preserve"> ar) by Esther Eshel [2009]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4Q416 (Instruction</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>) frg. 23 by Esther and Hanan Eshel [2007]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Measurements
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>(in cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aleo"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Canonical group</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Prophets</t>
+  </si>
+  <si>
+    <t>Writings</t>
   </si>
 </sst>
 </file>
@@ -7110,7 +7121,92 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Aleo"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Aleo Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7596,10 +7692,14 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="1"/>
         <name val="Aleo Light"/>
@@ -7643,39 +7743,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -7687,31 +7754,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Aleo"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7800,35 +7842,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CEA2365-8B2D-5143-803D-6D4FB4E86B2D}" name="Post_2002_Fragments" displayName="Post_2002_Fragments" ref="A1:U102" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:U102" xr:uid="{714D2FCE-A08D-C943-80D3-6D216A6BD6AA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CEA2365-8B2D-5143-803D-6D4FB4E86B2D}" name="Post_2002_Fragments" displayName="Post_2002_Fragments" ref="A1:V102" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:V102" xr:uid="{714D2FCE-A08D-C943-80D3-6D216A6BD6AA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T102">
     <sortCondition ref="A1:A102"/>
   </sortState>
-  <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{4EFD41BC-5BFD-4E46-A5F1-7E906C6102C5}" name="No." dataDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{3F6A1818-BCAA-E546-8AEF-E56F1DC80312}" name="Name" dataDxfId="19">
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{4EFD41BC-5BFD-4E46-A5F1-7E906C6102C5}" name="No." dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{F93B8E3F-E2A9-9C46-8798-E2857A037AA3}" name="Content" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{4DDC7D22-B286-AD43-9DF0-FC7A4BACEAA9}" name="DSS F. No." dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{46E1AC7F-0FC2-3041-B3E2-F0809B37FB08}" name="DSS F. Name" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{AE8ADACF-00B6-7649-B9A0-10958EB147C4}" name="Name" dataDxfId="1">
       <calculatedColumnFormula>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4DDC7D22-B286-AD43-9DF0-FC7A4BACEAA9}" name="DSS F. No." dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{46E1AC7F-0FC2-3041-B3E2-F0809B37FB08}" name="DSS F. Name" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{9999E96B-F64A-474C-9A0D-7497B4A84243}" name="Content" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{142CBA6D-F3C5-874F-9A10-B4D0D370D4AD}" name="Collection No." dataDxfId="15"/>
-    <tableColumn id="32" xr3:uid="{9E02593A-E84E-124C-84CB-F3EC28D64481}" name="Name or Description" dataDxfId="14"/>
-    <tableColumn id="35" xr3:uid="{C459176B-7CFF-7741-81F6-696F6DDA7AC2}" name="Alleged Provenance" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{11BD8FB7-E8BA-EE49-B0FE-64041D98EB57}" name="False Identifications" dataDxfId="12"/>
-    <tableColumn id="28" xr3:uid="{7CFA9B31-34B3-1249-944A-FE370EC2B25E}" name="Listed by Emanuel Tov in Revised Lists of the Text from the Judaean Desert (2010)" dataDxfId="11"/>
-    <tableColumn id="29" xr3:uid="{F6F3730C-3E78-9640-BD99-2AABB1F5151F}" name="Listed in Accordance" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{E85C9271-D71B-2347-AC6C-CB969F40EC18}" name="Collector(s)/Collection(s)" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{B3E9F172-B29F-F14F-9417-580D64DFAF47}" name="Asking price" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{91E1017E-7A63-B64C-B629-BFE8CFEC540C}" name="Purchase Price_x000a_Dealer/Seller ➤ Collector/Buyer" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{652C307D-EFC9-A44D-B6B7-7E5415A0E08F}" name="Lines" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{0B1022CB-F629-D54B-ACE5-24014EED6254}" name="Measurements _x000a_in cm" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{4665D607-2EED-974F-8F27-60FF09978FC3}" name="Edition" dataDxfId="4"/>
-    <tableColumn id="30" xr3:uid="{AA398F82-26DF-A14A-BFA3-776AC4A147A7}" name="Edition 2" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{147BF4CF-F264-6B48-AC69-D7AEB150B2A1}" name="Frg. Part of a Ms Edition" dataDxfId="2"/>
-    <tableColumn id="34" xr3:uid="{516E9851-23BA-4E51-9FAE-45E15B80C08C}" name="Sources" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{BA6B59E9-7DD8-3F41-B53D-D836BA825549}" name="Content group" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{142CBA6D-F3C5-874F-9A10-B4D0D370D4AD}" name="Collection No." dataDxfId="18"/>
+    <tableColumn id="32" xr3:uid="{9E02593A-E84E-124C-84CB-F3EC28D64481}" name="Name or Description" dataDxfId="17"/>
+    <tableColumn id="35" xr3:uid="{C459176B-7CFF-7741-81F6-696F6DDA7AC2}" name="Alleged Provenance" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{11BD8FB7-E8BA-EE49-B0FE-64041D98EB57}" name="False Identifications" dataDxfId="15"/>
+    <tableColumn id="28" xr3:uid="{7CFA9B31-34B3-1249-944A-FE370EC2B25E}" name="Siglum (Name) in Tov, Revised Lists (2010)" dataDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{F6F3730C-3E78-9640-BD99-2AABB1F5151F}" name="Siglum and Fragment Number in Accordance" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{E85C9271-D71B-2347-AC6C-CB969F40EC18}" name="Sales (➤) and Donations (➢)" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{B3E9F172-B29F-F14F-9417-580D64DFAF47}" name="Asking price" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{91E1017E-7A63-B64C-B629-BFE8CFEC540C}" name="Purchase Price_x000a_Dealer/Seller ➤ Collector/Buyer" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{652C307D-EFC9-A44D-B6B7-7E5415A0E08F}" name="Lines" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{0B1022CB-F629-D54B-ACE5-24014EED6254}" name="Measurements_x000a_(in cm)" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{4665D607-2EED-974F-8F27-60FF09978FC3}" name="Edition" dataDxfId="7"/>
+    <tableColumn id="30" xr3:uid="{AA398F82-26DF-A14A-BFA3-776AC4A147A7}" name="Edition 2" dataDxfId="6"/>
+    <tableColumn id="33" xr3:uid="{147BF4CF-F264-6B48-AC69-D7AEB150B2A1}" name="Frg. Part of a Ms Edition" dataDxfId="5"/>
+    <tableColumn id="34" xr3:uid="{516E9851-23BA-4E51-9FAE-45E15B80C08C}" name="Sources" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{BA6B59E9-7DD8-3F41-B53D-D836BA825549}" name="Content group" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{9B268625-BF17-7245-969F-CCAF877DBC86}" name="Canonical group" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8193,17 +8236,17 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:U102"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.19921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" customWidth="1"/>
@@ -8238,12 +8281,12 @@
     <col min="34" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -8252,7 +8295,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -8264,188 +8307,197 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>591</v>
+        <v>572</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>616</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="168" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="str">
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Gen 13:1–3</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>592</v>
+        <v>574</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="150" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="150" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Words from Genesis 22</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="K3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="L3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="M3" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="O3" s="15" t="s">
+      <c r="T3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="U3" s="1" t="s">
-        <v>592</v>
+        <v>574</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="14">
+        <v>191</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.191 Gen2</v>
       </c>
-      <c r="C4" s="14">
-        <v>191</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="25" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="7"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -8453,236 +8505,251 @@
         <v>8</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>592</v>
+        <v>574</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="83" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="83" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Gen 33:19–34:2</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="24" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>592</v>
+        <v>574</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C6" s="14">
+        <v>101</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.101 Gen1</v>
       </c>
-      <c r="C6" s="14">
-        <v>101</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>589</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="7"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="S6" s="15"/>
       <c r="T6" s="21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>592</v>
+        <v>574</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="14">
+        <v>102</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.102 RP1</v>
       </c>
-      <c r="C7" s="14">
-        <v>102</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>72</v>
+        <v>600</v>
       </c>
       <c r="J7" s="23"/>
       <c r="K7" s="17"/>
       <c r="L7" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>592</v>
+        <v>574</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Gen 37:26–38</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
-        <v>79</v>
-      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>592</v>
+        <v>574</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Gen 47:4–5</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -8691,7 +8758,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
@@ -8701,132 +8768,141 @@
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>592</v>
+        <v>574</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="14">
+        <v>103</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.103 Exod3</v>
       </c>
-      <c r="C10" s="14">
-        <v>103</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>593</v>
+        <v>575</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="14">
+        <v>104</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.104 Exod4</v>
       </c>
-      <c r="C11" s="14">
-        <v>104</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>103</v>
+        <v>601</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>593</v>
+        <v>575</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="str">
+      <c r="B12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Exod 6:11–12, 26–29</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -8835,7 +8911,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
@@ -8845,64 +8921,70 @@
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>593</v>
+        <v>575</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Exod 12:3–5</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="7"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P13" s="15"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>593</v>
+        <v>575</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="str">
+      <c r="B14" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Exod 12:25–27</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -8911,7 +8993,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
@@ -8921,237 +9003,252 @@
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
       <c r="T14" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>593</v>
+        <v>575</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="90" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="14">
+        <v>105</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.105 Exod5</v>
       </c>
-      <c r="C15" s="14">
-        <v>105</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>115</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="15" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
       <c r="T15" s="21" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>593</v>
+        <v>575</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="14">
+        <v>192</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.192 Exod6</v>
       </c>
-      <c r="C16" s="14">
-        <v>192</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>123</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="21" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>593</v>
+        <v>575</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="14">
+        <v>151</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.151 (Unid) [earlier: DDS F.Exod1]</v>
       </c>
-      <c r="C17" s="14">
-        <v>151</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>130</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="21" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>614</v>
+        <v>596</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="str">
+      <c r="B18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="14">
+        <v>161</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.161 Exod2</v>
       </c>
-      <c r="C18" s="14">
-        <v>161</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>140</v>
-      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>593</v>
+        <v>575</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Lev 1:2–5</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
-        <v>147</v>
-      </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="15" t="s">
-        <v>148</v>
-      </c>
+      <c r="G19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="7"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
@@ -9162,69 +9259,75 @@
       <c r="S19" s="15"/>
       <c r="T19" s="21"/>
       <c r="U19" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="14">
+        <v>152</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.152 Lev1</v>
       </c>
-      <c r="C20" s="14">
-        <v>152</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>150</v>
-      </c>
       <c r="F20" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P20" s="15"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
       <c r="T20" s="21" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Lev 16:16–20</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -9233,7 +9336,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
@@ -9243,135 +9346,144 @@
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
       <c r="T21" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="str">
+      <c r="B22" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="14">
+        <v>162</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.162 Lev2</v>
       </c>
-      <c r="C22" s="14">
-        <v>162</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>158</v>
-      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="21" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="75" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="14">
+        <v>193</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.193 Lev5</v>
       </c>
-      <c r="C23" s="14">
-        <v>193</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>166</v>
-      </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="21" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="str">
+      <c r="B24" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="14">
+        <v>203</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.203 Lev6</v>
       </c>
-      <c r="C24" s="14">
-        <v>203</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>173</v>
-      </c>
       <c r="F24" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="15"/>
@@ -9379,190 +9491,202 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="21"/>
       <c r="U24" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="str">
+      <c r="B25" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Lev 23:38–39</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>177</v>
-      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
       <c r="T25" s="21" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="60" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="str">
+      <c r="B26" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Lev 23:40–44, 24:16–19</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
-        <v>188</v>
-      </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="N26" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O26" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="O26" s="15" t="s">
-        <v>191</v>
-      </c>
       <c r="P26" s="15" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
       <c r="T26" s="21" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="str">
-        <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
-        <v>"Cluster of miniscule fragments" [Eshel et al. 2006, 57]</v>
+      <c r="B27" s="15" t="s">
+        <v>597</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
-        <v>193</v>
+      <c r="E27" s="10" t="str">
+        <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
+        <v>Cluster of miniscule pieces</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="7"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="O27" s="15"/>
       <c r="P27" s="15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
       <c r="T27" s="21" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>613</v>
+        <v>595</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="str">
+      <c r="B28" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Num 1:15–16</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -9571,7 +9695,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
@@ -9581,24 +9705,27 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
       <c r="T28" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>595</v>
+        <v>577</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="str">
+      <c r="B29" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Num 8:2–3</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -9607,7 +9734,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
@@ -9617,31 +9744,34 @@
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
       <c r="T29" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>595</v>
+        <v>577</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="str">
+      <c r="B30" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="14">
+        <v>194</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.194 Num2</v>
       </c>
-      <c r="C30" s="14">
-        <v>194</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>199</v>
-      </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="15"/>
@@ -9649,38 +9779,41 @@
       <c r="J30" s="7"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
       <c r="O30" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
       <c r="T30" s="21" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>595</v>
+        <v>577</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="str">
+      <c r="B31" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Num 8:15–17</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15" t="s">
-        <v>204</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -9689,7 +9822,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
@@ -9699,78 +9832,84 @@
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
       <c r="T31" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>595</v>
+        <v>577</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="str">
+      <c r="B32" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="14">
+        <v>107</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.107 Num1</v>
       </c>
-      <c r="C32" s="14">
-        <v>107</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>206</v>
-      </c>
       <c r="F32" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>210</v>
+        <v>602</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
       <c r="O32" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
       <c r="T32" s="21" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>595</v>
+        <v>577</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="str">
+      <c r="B33" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Deut 4:47–5:5</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -9779,7 +9918,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
@@ -9789,99 +9928,105 @@
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
       <c r="T33" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>596</v>
+        <v>578</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="str">
+      <c r="B34" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="14">
+        <v>108</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.108 Deut5</v>
       </c>
-      <c r="C34" s="14">
-        <v>108</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>215</v>
-      </c>
       <c r="F34" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="15" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
       <c r="T34" s="21" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>596</v>
+        <v>578</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="str">
+      <c r="B35" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="14">
+        <v>153</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.153 Deut1</v>
       </c>
-      <c r="C35" s="14">
-        <v>153</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="F35" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="M35" s="15"/>
       <c r="N35" s="15" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="O35" s="14">
         <v>7</v>
@@ -9891,124 +10036,133 @@
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
       <c r="T35" s="21" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>596</v>
+        <v>578</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="str">
+      <c r="B36" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="14">
+        <v>163</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.163 Deut3</v>
-      </c>
-      <c r="C36" s="14">
-        <v>163</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>230</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="K36" s="17"/>
       <c r="L36" s="15" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="M36" s="15"/>
       <c r="N36" s="15"/>
       <c r="O36" s="15" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
       <c r="T36" s="21" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>596</v>
+        <v>578</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="str">
+      <c r="B37" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="14">
+        <v>164</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.164 Deut4</v>
       </c>
-      <c r="C37" s="14">
-        <v>164</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>237</v>
-      </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="15" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="P37" s="15" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
       <c r="T37" s="21" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>596</v>
+        <v>578</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="str">
+      <c r="B38" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Deut 16:1–3</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -10017,7 +10171,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
@@ -10027,131 +10181,140 @@
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
       <c r="T38" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>596</v>
+        <v>578</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="str">
+      <c r="B39" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Deut 19:13–15 [Eshel and Eshel 2007]
 Deut 23:3–4 [Puech?; Charlesworth?]</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15" t="s">
-        <v>245</v>
-      </c>
       <c r="F39" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15" t="s">
-        <v>247</v>
+        <v>607</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P39" s="15"/>
       <c r="Q39" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
       <c r="T39" s="21" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>596</v>
+        <v>578</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="388.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="388.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="str">
+      <c r="B40" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="14">
+        <v>154</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.154 Deut2</v>
       </c>
-      <c r="C40" s="14">
-        <v>154</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>253</v>
-      </c>
       <c r="F40" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P40" s="15"/>
       <c r="Q40" s="8" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
       <c r="T40" s="21" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>596</v>
+        <v>578</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="str">
+      <c r="B41" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Deut 31:12–13</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -10160,7 +10323,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
@@ -10170,172 +10333,184 @@
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
       <c r="T41" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>596</v>
+        <v>578</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="str">
+      <c r="B42" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C42" s="14">
+        <v>109</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.109 Deut6</v>
       </c>
-      <c r="C42" s="14">
-        <v>109</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="F42" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="7"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
       <c r="O42" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
       <c r="T42" s="21" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>596</v>
+        <v>578</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="50" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="50" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="str">
+      <c r="B43" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Judg 1:10–12</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="15"/>
       <c r="I43" s="15" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
       <c r="O43" s="15" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
       <c r="T43" s="21" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="U43" s="15" t="s">
-        <v>597</v>
+        <v>579</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="str">
+      <c r="B44" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Judg 4:6–8</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15" t="s">
-        <v>278</v>
-      </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
       <c r="O44" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P44" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
       <c r="T44" s="21" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="U44" s="15" t="s">
-        <v>597</v>
+        <v>579</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="str">
+      <c r="B45" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Judg 8:3–6</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15" t="s">
-        <v>286</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -10344,7 +10519,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
@@ -10354,121 +10529,130 @@
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
       <c r="T45" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U45" s="15" t="s">
-        <v>597</v>
+        <v>579</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="str">
+      <c r="B46" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Judg 19:10–13, 23–28</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15" t="s">
-        <v>287</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="15" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
       <c r="O46" s="15" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="Q46" s="7"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
       <c r="T46" s="21"/>
       <c r="U46" s="15" t="s">
-        <v>597</v>
+        <v>579</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="str">
+      <c r="B47" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" s="14">
+        <v>120</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E47" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.120 Ruth1</v>
       </c>
-      <c r="C47" s="14">
-        <v>120</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>293</v>
-      </c>
       <c r="F47" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="7"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
       <c r="O47" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P47" s="15" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
       <c r="T47" s="21" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="U47" s="15" t="s">
-        <v>598</v>
+        <v>580</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="str">
+      <c r="B48" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C48" s="14">
+        <v>112</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.112 Sam1</v>
       </c>
-      <c r="C48" s="14">
-        <v>112</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>300</v>
-      </c>
       <c r="F48" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="15"/>
@@ -10476,92 +10660,98 @@
       <c r="J48" s="7"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
       <c r="O48" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P48" s="15" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
       <c r="T48" s="21" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="U48" s="15" t="s">
-        <v>599</v>
+        <v>581</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="10" t="str">
+      <c r="B49" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C49" s="14">
+        <v>113</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E49" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.113 Sam2</v>
       </c>
-      <c r="C49" s="14">
-        <v>113</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>307</v>
-      </c>
       <c r="F49" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="7"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
       <c r="O49" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="P49" s="15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
       <c r="T49" s="21" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="U49" s="15" t="s">
-        <v>599</v>
+        <v>581</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="str">
+      <c r="B50" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>2(?)Sam 5:10–12</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15" t="s">
-        <v>311</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -10570,7 +10760,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
@@ -10580,82 +10770,88 @@
       <c r="R50" s="15"/>
       <c r="S50" s="15"/>
       <c r="T50" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U50" s="15" t="s">
-        <v>599</v>
+        <v>581</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="10" t="str">
+      <c r="B51" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C51" s="14">
+        <v>114</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E51" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.114 Sam3</v>
       </c>
-      <c r="C51" s="14">
-        <v>114</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>313</v>
-      </c>
       <c r="F51" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K51" s="15"/>
       <c r="L51" s="15" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
       <c r="O51" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R51" s="15"/>
       <c r="S51" s="15"/>
       <c r="T51" s="21" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="U51" s="15" t="s">
-        <v>599</v>
+        <v>581</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="str">
+      <c r="B52" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C52" s="14">
+        <v>170</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E52" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.170 Kings</v>
-      </c>
-      <c r="C52" s="14">
-        <v>170</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -10664,88 +10860,94 @@
       <c r="J52" s="7"/>
       <c r="K52" s="15"/>
       <c r="L52" s="15" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
       <c r="O52" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="Q52" s="7"/>
       <c r="R52" s="15"/>
       <c r="S52" s="15"/>
       <c r="T52" s="21" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="U52" s="15" t="s">
-        <v>600</v>
+        <v>582</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="str">
+      <c r="B53" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C53" s="14">
+        <v>115</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E53" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.115 Kgs1</v>
       </c>
-      <c r="C53" s="14">
-        <v>115</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>326</v>
-      </c>
       <c r="F53" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="7"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
       <c r="O53" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="R53" s="15"/>
       <c r="S53" s="15"/>
       <c r="T53" s="21" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="U53" s="15" t="s">
-        <v>600</v>
+        <v>582</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="str">
+      <c r="B54" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>1(?) Kgs 18:8–10</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15" t="s">
-        <v>332</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -10754,7 +10956,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
@@ -10764,24 +10966,27 @@
       <c r="R54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U54" s="15" t="s">
-        <v>600</v>
+        <v>582</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="str">
+      <c r="B55" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>2(?) Kgs 11:17–18</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15" t="s">
-        <v>333</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -10790,7 +10995,7 @@
       <c r="J55" s="7"/>
       <c r="K55" s="15"/>
       <c r="L55" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
@@ -10800,31 +11005,34 @@
       <c r="R55" s="15"/>
       <c r="S55" s="15"/>
       <c r="T55" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U55" s="15" t="s">
-        <v>600</v>
+        <v>582</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="60" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="str">
+      <c r="B56" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C56" s="14">
+        <v>201</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E56" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.201 Neh2</v>
       </c>
-      <c r="C56" s="14">
-        <v>201</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>335</v>
-      </c>
       <c r="F56" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="15"/>
@@ -10832,300 +11040,318 @@
       <c r="J56" s="7"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
       <c r="O56" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P56" s="15" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="Q56" s="7"/>
       <c r="R56" s="15"/>
       <c r="S56" s="15"/>
       <c r="T56" s="21" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="U56" s="15" t="s">
-        <v>601</v>
+        <v>583</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="str">
+      <c r="B57" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57" s="14">
+        <v>122</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E57" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.122 Neh1</v>
       </c>
-      <c r="C57" s="14">
-        <v>122</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>340</v>
-      </c>
       <c r="F57" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="25" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K57" s="15"/>
       <c r="L57" s="15" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="N57" s="15"/>
       <c r="O57" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P57" s="15" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="R57" s="19"/>
       <c r="S57" s="19"/>
       <c r="T57" s="21" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="U57" s="15" t="s">
-        <v>601</v>
+        <v>583</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="str">
+      <c r="B58" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C58" s="14">
+        <v>118</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E58" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.118 Ps2</v>
       </c>
-      <c r="C58" s="14">
-        <v>118</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>348</v>
-      </c>
       <c r="F58" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="15" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="K58" s="15"/>
       <c r="L58" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="15"/>
       <c r="O58" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P58" s="15" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R58" s="15"/>
       <c r="S58" s="15"/>
       <c r="T58" s="21" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="U58" s="15" t="s">
-        <v>602</v>
+        <v>584</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="str">
+      <c r="B59" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C59" s="14">
+        <v>199</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="E59" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.199 Ps3</v>
       </c>
-      <c r="C59" s="14">
-        <v>199</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>356</v>
-      </c>
       <c r="F59" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="19" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
       <c r="O59" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P59" s="15" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="R59" s="15" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="S59" s="15"/>
       <c r="T59" s="21" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="U59" s="15" t="s">
-        <v>602</v>
+        <v>584</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="str">
+      <c r="B60" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Ps 11:1–3</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15" t="s">
-        <v>367</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="15" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>369</v>
+        <v>608</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="M60" s="15"/>
       <c r="N60" s="15"/>
       <c r="O60" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P60" s="15"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
       <c r="T60" s="21" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="U60" s="15" t="s">
-        <v>602</v>
+        <v>584</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="10" t="str">
+      <c r="B61" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C61" s="14">
+        <v>165</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="E61" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.165 Ps1</v>
       </c>
-      <c r="C61" s="14">
-        <v>165</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>375</v>
-      </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15" t="s">
-        <v>232</v>
+        <v>606</v>
       </c>
       <c r="M61" s="15"/>
       <c r="N61" s="15" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="O61" s="15" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="P61" s="15" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="Q61" s="7"/>
       <c r="R61" s="15"/>
       <c r="S61" s="15"/>
       <c r="T61" s="21" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="U61" s="15" t="s">
-        <v>602</v>
+        <v>584</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="str">
+      <c r="B62" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Ps 119:17, 28</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15" t="s">
-        <v>381</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
@@ -11134,7 +11360,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="15"/>
       <c r="L62" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
@@ -11144,35 +11370,38 @@
       <c r="R62" s="15"/>
       <c r="S62" s="15"/>
       <c r="T62" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U62" s="15" t="s">
-        <v>602</v>
+        <v>584</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="10" t="str">
+      <c r="B63" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Ps 119:40–44</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15" t="s">
-        <v>382</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="15" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="7"/>
       <c r="K63" s="15"/>
       <c r="L63" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
@@ -11182,24 +11411,27 @@
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
       <c r="T63" s="21" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="U63" s="15" t="s">
-        <v>602</v>
+        <v>584</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="10" t="str">
+      <c r="B64" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Ps 119:61–64</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15" t="s">
-        <v>385</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -11208,7 +11440,7 @@
       <c r="J64" s="7"/>
       <c r="K64" s="15"/>
       <c r="L64" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
@@ -11218,289 +11450,307 @@
       <c r="R64" s="15"/>
       <c r="S64" s="15"/>
       <c r="T64" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U64" s="15" t="s">
-        <v>602</v>
+        <v>584</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="10" t="str">
+      <c r="B65" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C65" s="14">
+        <v>119</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="E65" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.119 Prov1</v>
       </c>
-      <c r="C65" s="14">
-        <v>119</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>387</v>
-      </c>
       <c r="F65" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="7"/>
       <c r="K65" s="15"/>
       <c r="L65" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
       <c r="O65" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P65" s="15" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="Q65" s="7"/>
       <c r="R65" s="15"/>
       <c r="S65" s="15"/>
       <c r="T65" s="21" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="U65" s="15" t="s">
-        <v>603</v>
+        <v>585</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="str">
+      <c r="B66" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Isa 24:16–17</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15" t="s">
-        <v>392</v>
-      </c>
       <c r="F66" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>394</v>
+        <v>609</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M66" s="15" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="N66" s="15" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="O66" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="P66" s="15" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="R66" s="15"/>
       <c r="S66" s="15"/>
       <c r="T66" s="21" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="U66" s="15" t="s">
-        <v>604</v>
+        <v>586</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="153" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="153" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="10" t="str">
+      <c r="B67" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Isa 26:19–27:1</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15" t="s">
-        <v>400</v>
-      </c>
       <c r="F67" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="16" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="I67" s="15" t="s">
-        <v>403</v>
+        <v>610</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M67" s="15" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="N67" s="15" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="O67" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P67" s="15" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="R67" s="15"/>
       <c r="S67" s="15"/>
       <c r="T67" s="24" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="U67" s="15" t="s">
-        <v>604</v>
+        <v>586</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="90" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" ht="90" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="str">
+      <c r="B68" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Isa 28:23–29</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15" t="s">
-        <v>406</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="15" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="7"/>
       <c r="K68" s="15"/>
       <c r="L68" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
       <c r="O68" s="15" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="P68" s="15" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="Q68" s="7"/>
       <c r="R68" s="15"/>
       <c r="S68" s="15"/>
       <c r="T68" s="21" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="U68" s="15" t="s">
-        <v>604</v>
+        <v>586</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="165" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" ht="165" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="10" t="str">
+      <c r="B69" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="C69" s="14">
+        <v>116</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="E69" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.116 Jer1</v>
       </c>
-      <c r="C69" s="14">
-        <v>116</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>412</v>
-      </c>
       <c r="F69" s="7" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="K69" s="17"/>
       <c r="L69" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M69" s="15"/>
       <c r="N69" s="15"/>
       <c r="O69" s="15" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="P69" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="R69" s="19"/>
       <c r="S69" s="19"/>
       <c r="T69" s="21" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="U69" s="15" t="s">
-        <v>605</v>
+        <v>587</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="80" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" ht="80" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="str">
+      <c r="B70" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="C70" s="14">
+        <v>195</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E70" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.195 Jer2</v>
       </c>
-      <c r="C70" s="14">
-        <v>195</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>420</v>
-      </c>
       <c r="F70" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="15"/>
@@ -11508,101 +11758,107 @@
       <c r="J70" s="7"/>
       <c r="K70" s="15"/>
       <c r="L70" s="15" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M70" s="15" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="N70" s="15"/>
       <c r="O70" s="15" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="P70" s="15"/>
       <c r="Q70" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="R70" s="19"/>
       <c r="S70" s="19"/>
       <c r="T70" s="21" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="U70" s="15" t="s">
-        <v>605</v>
+        <v>587</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="10" t="str">
+      <c r="B71" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C71" s="14">
+        <v>156</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="E71" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.156 Jer3</v>
-      </c>
-      <c r="C71" s="14">
-        <v>156</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>427</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="15" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>429</v>
+        <v>611</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
       <c r="O71" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P71" s="15" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="R71" s="15"/>
       <c r="S71" s="15"/>
       <c r="T71" s="21" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="U71" s="15" t="s">
-        <v>605</v>
+        <v>587</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="10" t="str">
+      <c r="B72" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="C72" s="14">
+        <v>196</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E72" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.196 Ezek1</v>
       </c>
-      <c r="C72" s="14">
-        <v>196</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>436</v>
-      </c>
       <c r="F72" s="7" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="15"/>
@@ -11610,193 +11866,205 @@
       <c r="J72" s="7"/>
       <c r="K72" s="15"/>
       <c r="L72" s="15" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="M72" s="15"/>
       <c r="N72" s="15"/>
       <c r="O72" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="P72" s="15"/>
       <c r="Q72" s="7" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="R72" s="15"/>
       <c r="S72" s="15"/>
       <c r="T72" s="21" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="U72" s="15" t="s">
-        <v>606</v>
+        <v>588</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="10" t="str">
+      <c r="B73" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="C73" s="14">
+        <v>155</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="E73" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.155 Dan1</v>
       </c>
-      <c r="C73" s="14">
-        <v>155</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>442</v>
-      </c>
       <c r="F73" s="7" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="15" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="I73" s="15"/>
       <c r="J73" s="7" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="K73" s="15"/>
       <c r="L73" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="M73" s="15" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="O73" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P73" s="15"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="15"/>
       <c r="S73" s="15"/>
       <c r="T73" s="21" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="U73" s="15" t="s">
-        <v>607</v>
+        <v>589</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="10" t="str">
+      <c r="B74" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="C74" s="14">
+        <v>166</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="E74" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.166 Dan2</v>
-      </c>
-      <c r="C74" s="14">
-        <v>166</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>450</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="K74" s="15"/>
       <c r="L74" s="15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M74" s="15"/>
       <c r="N74" s="15"/>
       <c r="O74" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P74" s="15" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="Q74" s="7"/>
       <c r="R74" s="15"/>
       <c r="S74" s="15"/>
       <c r="T74" s="21" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="U74" s="15" t="s">
-        <v>607</v>
+        <v>589</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="10" t="str">
+      <c r="B75" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C75" s="14">
+        <v>167</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="E75" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.167 Dan3</v>
-      </c>
-      <c r="C75" s="14">
-        <v>167</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>456</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="7"/>
       <c r="K75" s="15"/>
       <c r="L75" s="15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M75" s="15"/>
       <c r="N75" s="15"/>
       <c r="O75" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P75" s="15" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="Q75" s="7"/>
       <c r="R75" s="15"/>
       <c r="S75" s="15"/>
       <c r="T75" s="21" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="U75" s="15" t="s">
-        <v>607</v>
+        <v>589</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="10" t="str">
+      <c r="B76" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C76" s="14">
+        <v>200</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="E76" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.200 Dan6</v>
       </c>
-      <c r="C76" s="14">
-        <v>200</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>460</v>
-      </c>
       <c r="F76" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="15"/>
@@ -11804,38 +12072,41 @@
       <c r="J76" s="7"/>
       <c r="K76" s="15"/>
       <c r="L76" s="15" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="M76" s="15"/>
       <c r="N76" s="15"/>
       <c r="O76" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P76" s="15"/>
       <c r="Q76" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="R76" s="15"/>
       <c r="S76" s="15"/>
       <c r="T76" s="21" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="U76" s="15" t="s">
-        <v>607</v>
+        <v>589</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="10" t="str">
+      <c r="B77" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Joel 2:23–26</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15" t="s">
-        <v>464</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -11844,7 +12115,7 @@
       <c r="J77" s="7"/>
       <c r="K77" s="15"/>
       <c r="L77" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
@@ -11854,24 +12125,27 @@
       <c r="R77" s="15"/>
       <c r="S77" s="15"/>
       <c r="T77" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U77" s="15" t="s">
-        <v>608</v>
+        <v>590</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="50" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" ht="50" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="10" t="str">
+      <c r="B78" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Joel 4:9–10</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15" t="s">
-        <v>465</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -11880,128 +12154,135 @@
       <c r="J78" s="7"/>
       <c r="K78" s="15"/>
       <c r="L78" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
       <c r="O78" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P78" s="15" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="Q78" s="8"/>
       <c r="R78" s="15"/>
       <c r="S78" s="15"/>
       <c r="T78" s="21" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="U78" s="15" t="s">
-        <v>608</v>
+        <v>590</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="10" t="str">
+      <c r="B79" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Amos 3:4–5</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15" t="s">
-        <v>468</v>
-      </c>
       <c r="F79" s="7"/>
-      <c r="G79" s="7" t="s">
-        <v>469</v>
-      </c>
+      <c r="G79" s="7"/>
       <c r="H79" s="15" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="8"/>
       <c r="K79" s="19"/>
       <c r="L79" s="19" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="M79" s="19"/>
       <c r="N79" s="19"/>
       <c r="O79" s="19" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="P79" s="19"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
       <c r="T79" s="21" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="U79" s="15" t="s">
-        <v>609</v>
+        <v>591</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="10" t="str">
+      <c r="B80" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C80" s="14">
+        <v>181</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="E80" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.181 Amos1</v>
       </c>
-      <c r="C80" s="14">
-        <v>181</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>474</v>
-      </c>
       <c r="F80" s="7"/>
       <c r="G80" s="8" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="8"/>
       <c r="K80" s="19"/>
       <c r="L80" s="15" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="15"/>
       <c r="O80" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P80" s="15" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="R80" s="15"/>
       <c r="S80" s="15"/>
       <c r="T80" s="21" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="U80" s="15" t="s">
-        <v>609</v>
+        <v>591</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="10" t="str">
+      <c r="B81" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Obadiah 2:15, 16–18</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15" t="s">
-        <v>480</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="8"/>
@@ -12010,7 +12291,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="19"/>
       <c r="L81" s="15" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="15"/>
@@ -12020,31 +12301,34 @@
       <c r="R81" s="15"/>
       <c r="S81" s="15"/>
       <c r="T81" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="U81" s="15" t="s">
-        <v>610</v>
+        <v>592</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="10" t="str">
+      <c r="B82" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C82" s="14">
+        <v>197</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="E82" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.197 Jon1</v>
       </c>
-      <c r="C82" s="14">
-        <v>197</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>483</v>
-      </c>
       <c r="F82" s="7" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="15"/>
@@ -12052,45 +12336,48 @@
       <c r="J82" s="7"/>
       <c r="K82" s="15"/>
       <c r="L82" s="15" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="15"/>
       <c r="O82" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="7" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="R82" s="15"/>
       <c r="S82" s="15"/>
       <c r="T82" s="21" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="U82" s="15" t="s">
-        <v>611</v>
+        <v>593</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="10" t="str">
+      <c r="B83" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C83" s="14">
+        <v>198</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E83" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.198 Mic1</v>
       </c>
-      <c r="C83" s="14">
-        <v>198</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>488</v>
-      </c>
       <c r="F83" s="7" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="15"/>
@@ -12098,49 +12385,52 @@
       <c r="J83" s="7"/>
       <c r="K83" s="15"/>
       <c r="L83" s="15" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="15"/>
       <c r="O83" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="7" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="R83" s="15"/>
       <c r="S83" s="15"/>
       <c r="T83" s="21" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="U83" s="15" t="s">
-        <v>612</v>
+        <v>594</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="10" t="str">
+      <c r="B84" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Tob 7:1–3</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15" t="s">
-        <v>492</v>
-      </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
       <c r="J84" s="7"/>
       <c r="K84" s="15"/>
       <c r="L84" s="15" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="15"/>
@@ -12153,286 +12443,304 @@
       <c r="S84" s="15"/>
       <c r="T84" s="21"/>
       <c r="U84" s="15" t="s">
-        <v>613</v>
+        <v>595</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="10" t="str">
+      <c r="B85" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C85" s="14">
+        <v>123</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="E85" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.123 Tob1</v>
       </c>
-      <c r="C85" s="14">
-        <v>123</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>496</v>
-      </c>
       <c r="F85" s="7" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="15"/>
       <c r="I85" s="15" t="s">
-        <v>498</v>
+        <v>612</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="K85" s="19"/>
       <c r="L85" s="15" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
       <c r="O85" s="15" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="P85" s="15" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="R85" s="15"/>
       <c r="S85" s="15"/>
       <c r="T85" s="24" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="U85" s="15" t="s">
-        <v>613</v>
+        <v>595</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="80" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" ht="80" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="10" t="str">
+      <c r="B86" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="C86" s="14">
+        <v>124</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="E86" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.124 En1</v>
       </c>
-      <c r="C86" s="14">
-        <v>124</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>503</v>
-      </c>
       <c r="F86" s="7" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="15"/>
       <c r="I86" s="15" t="s">
-        <v>505</v>
+        <v>613</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="K86" s="15"/>
       <c r="L86" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P86" s="15" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="Q86" s="7"/>
       <c r="R86" s="15"/>
       <c r="S86" s="15"/>
       <c r="T86" s="21" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="U86" s="15" t="s">
-        <v>613</v>
+        <v>595</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="10" t="str">
+      <c r="B87" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="C87" s="14">
+        <v>125</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E87" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.125 En2</v>
       </c>
-      <c r="C87" s="14">
-        <v>125</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>510</v>
-      </c>
       <c r="F87" s="7" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I87" s="15"/>
       <c r="J87" s="9" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P87" s="15" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="Q87" s="7"/>
       <c r="R87" s="15"/>
       <c r="S87" s="15"/>
       <c r="T87" s="21" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="U87" s="15" t="s">
-        <v>613</v>
+        <v>595</v>
+      </c>
+      <c r="V87" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="10" t="str">
+      <c r="B88" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="C88" s="14">
+        <v>126</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="E88" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.126 En3</v>
       </c>
-      <c r="C88" s="14">
-        <v>126</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>519</v>
-      </c>
       <c r="F88" s="7" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="9" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="K88" s="15"/>
       <c r="L88" s="15" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="15" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="O88" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P88" s="15" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="Q88" s="8"/>
       <c r="R88" s="19"/>
       <c r="S88" s="19"/>
       <c r="T88" s="21" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="U88" s="15" t="s">
-        <v>613</v>
+        <v>595</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="200" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" ht="200" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="10" t="str">
+      <c r="B89" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="C89" s="14">
+        <v>202</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="E89" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.202 Instr1</v>
       </c>
-      <c r="C89" s="14">
-        <v>202</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>527</v>
-      </c>
       <c r="F89" s="7" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="15"/>
       <c r="I89" s="15" t="s">
-        <v>529</v>
+        <v>614</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="K89" s="15"/>
       <c r="L89" s="15" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="R89" s="15" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="S89" s="15" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="T89" s="21" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="U89" s="15" t="s">
-        <v>613</v>
+        <v>595</v>
+      </c>
+      <c r="V89" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="10" t="str">
+      <c r="B90" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>“4Q418”</v>
       </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15" t="s">
-        <v>536</v>
-      </c>
       <c r="F90" s="7" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="15"/>
@@ -12440,7 +12748,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="15"/>
       <c r="L90" s="15" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
@@ -12450,35 +12758,38 @@
       <c r="R90" s="15"/>
       <c r="S90" s="15"/>
       <c r="T90" s="21" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="U90" s="15" t="s">
-        <v>613</v>
+        <v>595</v>
+      </c>
+      <c r="V90" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="42" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="10" t="str">
+      <c r="B91" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Fragment with text from the Temple Scroll</v>
-      </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15" t="s">
-        <v>540</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="15"/>
       <c r="I91" s="15" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="15"/>
       <c r="L91" s="15" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
@@ -12489,110 +12800,119 @@
       <c r="S91" s="15"/>
       <c r="T91" s="21"/>
       <c r="U91" s="15" t="s">
-        <v>613</v>
+        <v>595</v>
+      </c>
+      <c r="V91" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="42" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="10" t="str">
+      <c r="B92" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C92" s="14"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Fragment with text from the Temple Scroll</v>
-      </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15" t="s">
-        <v>540</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="15"/>
       <c r="I92" s="15" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="15"/>
       <c r="L92" s="15" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
       <c r="P92" s="15" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="Q92" s="7"/>
       <c r="R92" s="15"/>
       <c r="S92" s="15"/>
       <c r="T92" s="21"/>
       <c r="U92" s="15" t="s">
-        <v>613</v>
+        <v>595</v>
+      </c>
+      <c r="V92" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="10" t="str">
+      <c r="B93" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C93" s="14">
+        <v>130</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="E93" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.130 CommGen</v>
       </c>
-      <c r="C93" s="14">
-        <v>130</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>546</v>
-      </c>
       <c r="F93" s="7" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="15"/>
       <c r="I93" s="15" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="15"/>
       <c r="L93" s="15" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="P93" s="15" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="Q93" s="7"/>
       <c r="R93" s="15"/>
       <c r="S93" s="15"/>
       <c r="T93" s="21"/>
       <c r="U93" s="15" t="s">
-        <v>613</v>
+        <v>595</v>
+      </c>
+      <c r="V93" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="10" t="str">
+      <c r="B94" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C94" s="14">
+        <v>132</v>
+      </c>
+      <c r="D94" s="15"/>
+      <c r="E94" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v xml:space="preserve">DSS F.132 </v>
       </c>
-      <c r="C94" s="14">
-        <v>132</v>
-      </c>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15" t="s">
-        <v>550</v>
-      </c>
       <c r="F94" s="7" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="15"/>
@@ -12600,135 +12920,146 @@
       <c r="J94" s="7"/>
       <c r="K94" s="15"/>
       <c r="L94" s="15" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="Q94" s="7"/>
       <c r="R94" s="15"/>
       <c r="S94" s="15"/>
       <c r="T94" s="21"/>
       <c r="U94" s="15" t="s">
-        <v>614</v>
+        <v>596</v>
+      </c>
+      <c r="V94" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="10" t="str">
+      <c r="B95" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C95" s="14">
+        <v>168</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="E95" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.168 Text1</v>
       </c>
-      <c r="C95" s="14">
-        <v>168</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>550</v>
-      </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="7"/>
       <c r="K95" s="15"/>
       <c r="L95" s="15" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P95" s="15" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="Q95" s="7"/>
       <c r="R95" s="15"/>
       <c r="S95" s="15"/>
       <c r="T95" s="21" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="U95" s="15" t="s">
-        <v>614</v>
+        <v>596</v>
+      </c>
+      <c r="V95" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" ht="56" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="10" t="str">
+      <c r="B96" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C96" s="14"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Unidentified</v>
       </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15" t="s">
-        <v>558</v>
-      </c>
       <c r="F96" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="G96" s="7"/>
+        <v>540</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>598</v>
+      </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="7"/>
       <c r="K96" s="15"/>
       <c r="L96" s="15" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="Q96" s="7"/>
       <c r="R96" s="15"/>
       <c r="S96" s="15"/>
       <c r="T96" s="21"/>
       <c r="U96" s="15" t="s">
-        <v>614</v>
+        <v>596</v>
+      </c>
+      <c r="V96" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="126" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" ht="126" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="10" t="str">
+      <c r="B97" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Unidentified</v>
       </c>
-      <c r="C97" s="14"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15" t="s">
-        <v>550</v>
-      </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="J97" s="7"/>
       <c r="K97" s="15"/>
       <c r="L97" s="15" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
@@ -12739,32 +13070,35 @@
       <c r="S97" s="15"/>
       <c r="T97" s="21"/>
       <c r="U97" s="15" t="s">
-        <v>614</v>
+        <v>596</v>
+      </c>
+      <c r="V97" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="126" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" ht="126" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="10" t="str">
+      <c r="B98" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Unidentified</v>
       </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15" t="s">
-        <v>550</v>
-      </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="7"/>
       <c r="K98" s="15"/>
       <c r="L98" s="15" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
@@ -12775,24 +13109,27 @@
       <c r="S98" s="15"/>
       <c r="T98" s="21"/>
       <c r="U98" s="15" t="s">
-        <v>614</v>
+        <v>596</v>
+      </c>
+      <c r="V98" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="10" t="str">
+      <c r="B99" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Unidentified</v>
       </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15" t="s">
-        <v>550</v>
-      </c>
       <c r="F99" s="7" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="15"/>
@@ -12800,7 +13137,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="15"/>
       <c r="L99" s="15" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
@@ -12811,24 +13148,27 @@
       <c r="S99" s="15"/>
       <c r="T99" s="21"/>
       <c r="U99" s="15" t="s">
-        <v>614</v>
+        <v>596</v>
+      </c>
+      <c r="V99" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="10" t="str">
+      <c r="B100" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Unidentified</v>
       </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15" t="s">
-        <v>550</v>
-      </c>
       <c r="F100" s="7" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="15"/>
@@ -12836,7 +13176,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="15"/>
       <c r="L100" s="15" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
@@ -12847,24 +13187,27 @@
       <c r="S100" s="15"/>
       <c r="T100" s="21"/>
       <c r="U100" s="15" t="s">
-        <v>614</v>
+        <v>596</v>
+      </c>
+      <c r="V100" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="10" t="str">
+      <c r="B101" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Unidentified</v>
       </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15" t="s">
+      <c r="F101" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="15"/>
@@ -12872,7 +13215,7 @@
       <c r="J101" s="7"/>
       <c r="K101" s="15"/>
       <c r="L101" s="15" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
@@ -12883,35 +13226,38 @@
       <c r="S101" s="15"/>
       <c r="T101" s="21"/>
       <c r="U101" s="15" t="s">
-        <v>614</v>
+        <v>596</v>
+      </c>
+      <c r="V101" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B102" s="10" t="str">
+        <v>552</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Scraps</v>
       </c>
-      <c r="C102" s="14"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15" t="s">
-        <v>572</v>
-      </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
       <c r="J102" s="7"/>
       <c r="K102" s="15"/>
       <c r="L102" s="15" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="M102" s="15" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
@@ -12921,7 +13267,10 @@
       <c r="S102" s="15"/>
       <c r="T102" s="21"/>
       <c r="U102" s="15" t="s">
-        <v>614</v>
+        <v>596</v>
+      </c>
+      <c r="V102" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/data/post2002DB-v2.xlsx
+++ b/data/post2002DB-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hildad/Documents/GitHub/lyingpendatabases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDB28C8-9217-B848-B4CD-1CF4D8EED686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6DFC4-0A56-1F42-ACAA-8DEA50007AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Database of Post-2002 Fragments" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="626">
   <si>
     <t>No.</t>
   </si>
@@ -5602,9 +5602,6 @@
     <t>Instr1</t>
   </si>
   <si>
-    <t>4Q418 ii 4–5</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOTB.SCR.000123
 </t>
   </si>
@@ -5770,9 +5767,6 @@
       </rPr>
       <t>. Volume 2. Jerusalem, 174.</t>
     </r>
-  </si>
-  <si>
-    <t>“4Q418”</t>
   </si>
   <si>
     <t>W 16</t>
@@ -6454,9 +6448,6 @@
     <t>Content group</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>Genesis, 1</t>
   </si>
   <si>
@@ -6518,12 +6509,6 @@
   </si>
   <si>
     <t>Micah, 21</t>
-  </si>
-  <si>
-    <t>Others, 22</t>
-  </si>
-  <si>
-    <t>Unidentified, 23</t>
   </si>
   <si>
     <t>Cluster of miniscule pieces</t>
@@ -6837,6 +6822,39 @@
   </si>
   <si>
     <t>Writings</t>
+  </si>
+  <si>
+    <t>Instruction (4Q418 ii 4–5)</t>
+  </si>
+  <si>
+    <t>Instruction (“4Q418”)</t>
+  </si>
+  <si>
+    <t>Tobit, 22</t>
+  </si>
+  <si>
+    <t>Apocrypha</t>
+  </si>
+  <si>
+    <t>1Enoch, 23</t>
+  </si>
+  <si>
+    <t>Pseudepigrapha</t>
+  </si>
+  <si>
+    <t>Instruction, 24</t>
+  </si>
+  <si>
+    <t>Qumran texts</t>
+  </si>
+  <si>
+    <t>Temple Scroll, 25</t>
+  </si>
+  <si>
+    <t>Commentary on Genesis, 26</t>
+  </si>
+  <si>
+    <t>Unidentified, 27</t>
   </si>
 </sst>
 </file>
@@ -7843,7 +7861,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CEA2365-8B2D-5143-803D-6D4FB4E86B2D}" name="Post_2002_Fragments" displayName="Post_2002_Fragments" ref="A1:V102" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:V102" xr:uid="{714D2FCE-A08D-C943-80D3-6D216A6BD6AA}"/>
+  <autoFilter ref="A1:V102" xr:uid="{714D2FCE-A08D-C943-80D3-6D216A6BD6AA}">
+    <filterColumn colId="20">
+      <filters>
+        <filter val="Unidentified, 23"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T102">
     <sortCondition ref="A1:A102"/>
   </sortState>
@@ -8238,9 +8262,9 @@
   </sheetPr>
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V98" sqref="V98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8307,16 +8331,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>8</v>
@@ -8328,7 +8352,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>11</v>
@@ -8343,13 +8367,13 @@
         <v>14</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="168" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8398,13 +8422,13 @@
         <v>25</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="150" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="150" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -8427,7 +8451,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>30</v>
@@ -8439,10 +8463,10 @@
         <v>32</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>33</v>
@@ -8463,13 +8487,13 @@
         <v>38</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="408" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -8491,7 +8515,7 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="25" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="7"/>
@@ -8516,13 +8540,13 @@
         <v>45</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="83" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="83" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -8564,21 +8588,21 @@
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="24" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C6" s="14">
         <v>101</v>
@@ -8624,13 +8648,13 @@
         <v>62</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="221.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -8655,7 +8679,7 @@
         <v>66</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="J7" s="23"/>
       <c r="K7" s="17"/>
@@ -8681,13 +8705,13 @@
         <v>72</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -8732,13 +8756,13 @@
         <v>80</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -8771,13 +8795,13 @@
         <v>82</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -8828,13 +8852,13 @@
         <v>92</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="156.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -8859,7 +8883,7 @@
         <v>96</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>88</v>
@@ -8885,13 +8909,13 @@
         <v>100</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -8924,13 +8948,13 @@
         <v>82</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -8967,13 +8991,13 @@
         <v>105</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -9006,13 +9030,13 @@
         <v>82</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="90" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -9061,13 +9085,13 @@
         <v>114</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -9112,10 +9136,10 @@
         <v>121</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9167,13 +9191,13 @@
         <v>131</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="83.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -9220,13 +9244,13 @@
         <v>139</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -9259,13 +9283,13 @@
       <c r="S19" s="15"/>
       <c r="T19" s="21"/>
       <c r="U19" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -9310,13 +9334,13 @@
         <v>148</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -9349,13 +9373,13 @@
         <v>82</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -9408,13 +9432,13 @@
         <v>157</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -9459,13 +9483,13 @@
         <v>164</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -9506,13 +9530,13 @@
       <c r="S24" s="15"/>
       <c r="T24" s="21"/>
       <c r="U24" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -9563,13 +9587,13 @@
         <v>180</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -9620,18 +9644,18 @@
         <v>180</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
@@ -9669,13 +9693,13 @@
         <v>180</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>573</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -9708,13 +9732,13 @@
         <v>82</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -9747,13 +9771,13 @@
         <v>82</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -9796,13 +9820,13 @@
         <v>195</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -9835,13 +9859,13 @@
         <v>82</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -9868,7 +9892,7 @@
         <v>201</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="15"/>
@@ -9892,13 +9916,13 @@
         <v>203</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -9931,13 +9955,13 @@
         <v>82</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -9988,13 +10012,13 @@
         <v>213</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -10039,13 +10063,13 @@
         <v>148</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="83.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -10068,7 +10092,7 @@
         <v>135</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>222</v>
@@ -10092,13 +10116,13 @@
         <v>226</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -10145,13 +10169,13 @@
         <v>234</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -10184,13 +10208,13 @@
         <v>82</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -10210,7 +10234,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>238</v>
@@ -10222,10 +10246,10 @@
         <v>32</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="O39" s="15" t="s">
         <v>22</v>
@@ -10240,13 +10264,13 @@
         <v>241</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="388.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="388.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -10282,7 +10306,7 @@
         <v>248</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="O40" s="15" t="s">
         <v>33</v>
@@ -10297,13 +10321,13 @@
         <v>250</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -10336,13 +10360,13 @@
         <v>82</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -10391,13 +10415,13 @@
         <v>258</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="50" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -10442,13 +10466,13 @@
         <v>267</v>
       </c>
       <c r="U43" s="15" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -10493,13 +10517,13 @@
         <v>275</v>
       </c>
       <c r="U44" s="15" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -10532,13 +10556,13 @@
         <v>82</v>
       </c>
       <c r="U45" s="15" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -10575,13 +10599,13 @@
       <c r="S46" s="15"/>
       <c r="T46" s="21"/>
       <c r="U46" s="15" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -10628,13 +10652,13 @@
         <v>288</v>
       </c>
       <c r="U47" s="15" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -10679,13 +10703,13 @@
         <v>295</v>
       </c>
       <c r="U48" s="15" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -10734,13 +10758,13 @@
         <v>300</v>
       </c>
       <c r="U49" s="15" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -10773,13 +10797,13 @@
         <v>82</v>
       </c>
       <c r="U50" s="15" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -10830,13 +10854,13 @@
         <v>309</v>
       </c>
       <c r="U51" s="15" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -10877,13 +10901,13 @@
         <v>314</v>
       </c>
       <c r="U52" s="15" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -10930,13 +10954,13 @@
         <v>321</v>
       </c>
       <c r="U53" s="15" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -10969,13 +10993,13 @@
         <v>82</v>
       </c>
       <c r="U54" s="15" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -11008,13 +11032,13 @@
         <v>82</v>
       </c>
       <c r="U55" s="15" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -11057,13 +11081,13 @@
         <v>328</v>
       </c>
       <c r="U56" s="15" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="167.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -11085,7 +11109,7 @@
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="25" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="7" t="s">
@@ -11114,13 +11138,13 @@
         <v>336</v>
       </c>
       <c r="U57" s="15" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -11169,13 +11193,13 @@
         <v>344</v>
       </c>
       <c r="U58" s="15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="169.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -11230,13 +11254,13 @@
         <v>356</v>
       </c>
       <c r="U59" s="15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -11255,7 +11279,7 @@
         <v>358</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>359</v>
@@ -11279,13 +11303,13 @@
         <v>362</v>
       </c>
       <c r="U60" s="15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -11315,7 +11339,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="M61" s="15"/>
       <c r="N61" s="15" t="s">
@@ -11334,13 +11358,13 @@
         <v>369</v>
       </c>
       <c r="U61" s="15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -11373,13 +11397,13 @@
         <v>82</v>
       </c>
       <c r="U62" s="15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -11414,13 +11438,13 @@
         <v>373</v>
       </c>
       <c r="U63" s="15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -11453,13 +11477,13 @@
         <v>82</v>
       </c>
       <c r="U64" s="15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -11504,13 +11528,13 @@
         <v>380</v>
       </c>
       <c r="U65" s="15" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="136.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -11531,7 +11555,7 @@
         <v>29</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>383</v>
@@ -11543,10 +11567,10 @@
         <v>32</v>
       </c>
       <c r="M66" s="15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="N66" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="O66" s="15" t="s">
         <v>112</v>
@@ -11563,13 +11587,13 @@
         <v>387</v>
       </c>
       <c r="U66" s="15" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="153" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -11590,7 +11614,7 @@
         <v>390</v>
       </c>
       <c r="I67" s="15" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>383</v>
@@ -11602,10 +11626,10 @@
         <v>32</v>
       </c>
       <c r="M67" s="15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="N67" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="O67" s="15" t="s">
         <v>98</v>
@@ -11619,16 +11643,16 @@
       <c r="R67" s="15"/>
       <c r="S67" s="15"/>
       <c r="T67" s="24" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="U67" s="15" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="90" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -11667,13 +11691,13 @@
         <v>397</v>
       </c>
       <c r="U68" s="15" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="165" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" ht="165" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -11726,13 +11750,13 @@
         <v>405</v>
       </c>
       <c r="U69" s="15" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="80" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -11777,13 +11801,13 @@
         <v>412</v>
       </c>
       <c r="U70" s="15" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -11806,7 +11830,7 @@
         <v>415</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>416</v>
@@ -11834,13 +11858,13 @@
         <v>420</v>
       </c>
       <c r="U71" s="15" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -11883,13 +11907,13 @@
         <v>426</v>
       </c>
       <c r="U72" s="15" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -11938,13 +11962,13 @@
         <v>434</v>
       </c>
       <c r="U73" s="15" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -11991,13 +12015,13 @@
         <v>440</v>
       </c>
       <c r="U74" s="15" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" ht="85.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -12040,13 +12064,13 @@
         <v>444</v>
       </c>
       <c r="U75" s="15" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -12089,13 +12113,13 @@
         <v>449</v>
       </c>
       <c r="U76" s="15" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -12128,13 +12152,13 @@
         <v>82</v>
       </c>
       <c r="U77" s="15" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="50" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" ht="50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -12171,13 +12195,13 @@
         <v>453</v>
       </c>
       <c r="U78" s="15" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -12214,13 +12238,13 @@
         <v>457</v>
       </c>
       <c r="U79" s="15" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -12265,13 +12289,13 @@
         <v>464</v>
       </c>
       <c r="U80" s="15" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -12304,13 +12328,13 @@
         <v>82</v>
       </c>
       <c r="U81" s="15" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -12353,13 +12377,13 @@
         <v>471</v>
       </c>
       <c r="U82" s="15" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -12402,13 +12426,13 @@
         <v>476</v>
       </c>
       <c r="U83" s="15" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -12443,13 +12467,13 @@
       <c r="S84" s="15"/>
       <c r="T84" s="21"/>
       <c r="U84" s="15" t="s">
-        <v>595</v>
+        <v>617</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>573</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -12472,7 +12496,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="15"/>
       <c r="I85" s="15" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>483</v>
@@ -12495,16 +12519,16 @@
       <c r="R85" s="15"/>
       <c r="S85" s="15"/>
       <c r="T85" s="24" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="U85" s="15" t="s">
-        <v>595</v>
+        <v>617</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>573</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="80" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -12527,7 +12551,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="15"/>
       <c r="I86" s="15" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>489</v>
@@ -12551,13 +12575,13 @@
         <v>491</v>
       </c>
       <c r="U86" s="15" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>573</v>
+        <v>620</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" ht="159" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -12608,13 +12632,13 @@
         <v>500</v>
       </c>
       <c r="U87" s="15" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>573</v>
+        <v>620</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -12661,18 +12685,18 @@
         <v>508</v>
       </c>
       <c r="U88" s="15" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>573</v>
+        <v>620</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="200" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" ht="200" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>88</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>510</v>
+        <v>615</v>
       </c>
       <c r="C89" s="14">
         <v>202</v>
@@ -12685,19 +12709,19 @@
         <v>DSS F.202 Instr1</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="15"/>
       <c r="I89" s="15" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K89" s="15"/>
       <c r="L89" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
@@ -12705,42 +12729,42 @@
         <v>112</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q89" s="7" t="s">
         <v>240</v>
       </c>
       <c r="R89" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="S89" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="S89" s="15" t="s">
+      <c r="T89" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="T89" s="21" t="s">
-        <v>517</v>
-      </c>
       <c r="U89" s="15" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" ht="55" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>518</v>
+        <v>616</v>
       </c>
       <c r="C90" s="14"/>
       <c r="D90" s="15"/>
       <c r="E90" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
-        <v>“4Q418”</v>
+        <v>Instruction (“4Q418”)</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="15"/>
@@ -12748,7 +12772,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="15"/>
       <c r="L90" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
@@ -12758,21 +12782,21 @@
       <c r="R90" s="15"/>
       <c r="S90" s="15"/>
       <c r="T90" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="U90" s="15" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="15"/>
@@ -12784,12 +12808,12 @@
       <c r="G91" s="7"/>
       <c r="H91" s="15"/>
       <c r="I91" s="15" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="15"/>
       <c r="L91" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
@@ -12800,18 +12824,18 @@
       <c r="S91" s="15"/>
       <c r="T91" s="21"/>
       <c r="U91" s="15" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>91</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C92" s="14"/>
       <c r="D92" s="15"/>
@@ -12823,54 +12847,54 @@
       <c r="G92" s="7"/>
       <c r="H92" s="15"/>
       <c r="I92" s="15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="15"/>
       <c r="L92" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
       <c r="P92" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Q92" s="7"/>
       <c r="R92" s="15"/>
       <c r="S92" s="15"/>
       <c r="T92" s="21"/>
       <c r="U92" s="15" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>92</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C93" s="14">
         <v>130</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E93" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.130 CommGen</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="15"/>
       <c r="I93" s="15" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="15"/>
@@ -12883,17 +12907,17 @@
         <v>112</v>
       </c>
       <c r="P93" s="15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q93" s="7"/>
       <c r="R93" s="15"/>
       <c r="S93" s="15"/>
       <c r="T93" s="21"/>
       <c r="U93" s="15" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
     </row>
     <row r="94" spans="1:22" ht="30" x14ac:dyDescent="0.2">
@@ -12901,7 +12925,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C94" s="14">
         <v>132</v>
@@ -12912,7 +12936,7 @@
         <v xml:space="preserve">DSS F.132 </v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="15"/>
@@ -12920,7 +12944,7 @@
       <c r="J94" s="7"/>
       <c r="K94" s="15"/>
       <c r="L94" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
@@ -12928,17 +12952,17 @@
         <v>33</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Q94" s="7"/>
       <c r="R94" s="15"/>
       <c r="S94" s="15"/>
       <c r="T94" s="21"/>
       <c r="U94" s="15" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12946,13 +12970,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C95" s="14">
         <v>168</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E95" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -12960,7 +12984,7 @@
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H95" s="15" t="s">
         <v>135</v>
@@ -12977,19 +13001,19 @@
         <v>98</v>
       </c>
       <c r="P95" s="15" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Q95" s="7"/>
       <c r="R95" s="15"/>
       <c r="S95" s="15"/>
       <c r="T95" s="21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="U95" s="15" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="56" x14ac:dyDescent="0.2">
@@ -12997,7 +13021,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="15"/>
@@ -13006,35 +13030,35 @@
         <v>Unidentified</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="7"/>
       <c r="K96" s="15"/>
       <c r="L96" s="15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Q96" s="7"/>
       <c r="R96" s="15"/>
       <c r="S96" s="15"/>
       <c r="T96" s="21"/>
       <c r="U96" s="15" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="126" x14ac:dyDescent="0.2">
@@ -13042,7 +13066,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C97" s="14"/>
       <c r="D97" s="15"/>
@@ -13052,14 +13076,14 @@
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="J97" s="7"/>
       <c r="K97" s="15"/>
       <c r="L97" s="15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
@@ -13070,10 +13094,10 @@
       <c r="S97" s="15"/>
       <c r="T97" s="21"/>
       <c r="U97" s="15" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="126" x14ac:dyDescent="0.2">
@@ -13081,7 +13105,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="15"/>
@@ -13091,14 +13115,14 @@
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="7"/>
       <c r="K98" s="15"/>
       <c r="L98" s="15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
@@ -13109,10 +13133,10 @@
       <c r="S98" s="15"/>
       <c r="T98" s="21"/>
       <c r="U98" s="15" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="99" spans="1:22" ht="45" x14ac:dyDescent="0.2">
@@ -13120,7 +13144,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="15"/>
@@ -13129,7 +13153,7 @@
         <v>Unidentified</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="15"/>
@@ -13137,7 +13161,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="15"/>
       <c r="L99" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
@@ -13148,10 +13172,10 @@
       <c r="S99" s="15"/>
       <c r="T99" s="21"/>
       <c r="U99" s="15" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="45" x14ac:dyDescent="0.2">
@@ -13159,7 +13183,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="15"/>
@@ -13168,7 +13192,7 @@
         <v>Unidentified</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="15"/>
@@ -13176,7 +13200,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="15"/>
       <c r="L100" s="15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
@@ -13187,10 +13211,10 @@
       <c r="S100" s="15"/>
       <c r="T100" s="21"/>
       <c r="U100" s="15" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="45" x14ac:dyDescent="0.2">
@@ -13198,7 +13222,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C101" s="14"/>
       <c r="D101" s="15"/>
@@ -13207,7 +13231,7 @@
         <v>Unidentified</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="15"/>
@@ -13215,7 +13239,7 @@
       <c r="J101" s="7"/>
       <c r="K101" s="15"/>
       <c r="L101" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
@@ -13226,18 +13250,18 @@
       <c r="S101" s="15"/>
       <c r="T101" s="21"/>
       <c r="U101" s="15" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C102" s="14"/>
       <c r="D102" s="15"/>
@@ -13247,17 +13271,17 @@
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
       <c r="J102" s="7"/>
       <c r="K102" s="15"/>
       <c r="L102" s="15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M102" s="15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
@@ -13267,10 +13291,10 @@
       <c r="S102" s="15"/>
       <c r="T102" s="21"/>
       <c r="U102" s="15" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/data/post2002DB-v2.xlsx
+++ b/data/post2002DB-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hildad/Documents/GitHub/lyingpendatabases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6DFC4-0A56-1F42-ACAA-8DEA50007AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B93827-E8BB-D249-8334-F9BAC4179818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Database of Post-2002 Fragments" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="627">
   <si>
     <t>No.</t>
   </si>
@@ -679,10 +679,6 @@
   <si>
     <t xml:space="preserve">MOTB.SCR.000124
  </t>
-  </si>
-  <si>
-    <t>Acquired by James Charlesworth 25 Oct 2006(?)
-Michael Sharpe ➤ Steve Green (Feb 2010) → Museum of the Bible</t>
   </si>
   <si>
     <t>(2 cols)
@@ -1758,9 +1754,6 @@
     </r>
   </si>
   <si>
-    <t>William Kando ➤ Craig (&amp; Joel) Lampe (2003–4) ➤ Steve Green (Nov 2009) → Museum of the Bible</t>
-  </si>
-  <si>
     <t>3.27 x 3.05</t>
   </si>
   <si>
@@ -1902,9 +1895,6 @@
     </r>
   </si>
   <si>
-    <t>Michael R. Thompson — Lee Biondi ➤ Azusa Pacific University (Aug 2009)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Feb 2009: $145,000  (Michael R. Thompson, Booksellers) [Davila 2009]</t>
   </si>
   <si>
@@ -2227,9 +2217,6 @@
     </r>
   </si>
   <si>
-    <t>William Kando ➤ Craig (&amp; Joel) Lampe (2003–4) (→ James Charlesworth) ➤ Steve Green (Nov 2009) → Museum of the Bible</t>
-  </si>
-  <si>
     <t>2.5 x 2.0</t>
   </si>
   <si>
@@ -2265,9 +2252,6 @@
 	</t>
   </si>
   <si>
-    <t>Andrew Stimer ➤ National Christian Foundation or Steve Green (Oct 2014-June 2015)→ Museum of the Bible</t>
-  </si>
-  <si>
     <t>2.05 x 2.48</t>
   </si>
   <si>
@@ -2359,9 +2343,6 @@
   <si>
     <t xml:space="preserve">MOTB.SCR.003173
 </t>
-  </si>
-  <si>
-    <t>William Kando ➤ Steve Green (May 2010) → Museum of the Bible</t>
   </si>
   <si>
     <t>2.5 x 4.4</t>
@@ -3958,9 +3939,6 @@
     <t>11Q7 f3a in DSSB-C and DSSB-M</t>
   </si>
   <si>
-    <t>William Kando ➤ Craig (&amp; Joel) Lampe (2002?) ➤ Green Collection (Nov 2009) → Museum of the Bible</t>
-  </si>
-  <si>
     <t>2.3 x 1.4</t>
   </si>
   <si>
@@ -4627,9 +4605,6 @@
   </si>
   <si>
     <t xml:space="preserve">MOTB.SCR.003172 </t>
-  </si>
-  <si>
-    <t>William Kando ➤ Steve Green → Museum of the Bible (May 2010)</t>
   </si>
   <si>
     <t>Feb 2008: $285,000 (Michael Sharpe Rare &amp; Antiquarian Books)</t>
@@ -4756,28 +4731,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>William Kando ➤ Steve Green </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t xml:space="preserve"> Museum of the Bible (May 2010)</t>
-    </r>
-  </si>
-  <si>
     <t>Mudliar 2016</t>
   </si>
   <si>
@@ -5628,9 +5581,6 @@
     </r>
   </si>
   <si>
-    <t>William Kando ➤ Craig (&amp; Joel) Lampe (2003–4) ➤ Green Collection (Nov 2009) → Museum of the Bible</t>
-  </si>
-  <si>
     <t>1.56 x 4.65</t>
   </si>
   <si>
@@ -5953,19 +5903,10 @@
     <t>SIG.SCR.004741</t>
   </si>
   <si>
-    <t>Andrew Stimer ➤  Steve Green (Oct 2014-June 2015)→ Museum of the Bible</t>
-  </si>
-  <si>
     <t>SIG.00SCR.4768</t>
   </si>
   <si>
-    <t>Andrew Stimer ➤ Steve Green (Oct 2014-June 2015)→ Museum of the Bible</t>
-  </si>
-  <si>
     <t>SIG.SCR.004769</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Andrew Stimer ➤ Steve Green (Oct 2014-June 2015)→ Museum of the Bible</t>
   </si>
   <si>
     <t>Scraps</t>
@@ -6628,9 +6569,6 @@
     <t>Siglum and Fragment Number in Accordance</t>
   </si>
   <si>
-    <t>Sales (➤) and Donations (➢)</t>
-  </si>
-  <si>
     <t>William Kando ➢ Dorothy Patterson ➢ Southwestern Baptist Theological Seminary (3 Sep 2010)</t>
   </si>
   <si>
@@ -6855,6 +6793,70 @@
   </si>
   <si>
     <t>Unidentified, 27</t>
+  </si>
+  <si>
+    <t>Sale (➤), Donation (➢), and Collaboration (→)</t>
+  </si>
+  <si>
+    <t>Acquired by James Charlesworth 25 Oct 2006(?) → Michael Sharpe ➤ Steve Green (Feb 2010) ➢ Museum of the Bible</t>
+  </si>
+  <si>
+    <t>William Kando ➤ Craig (&amp; Joel) Lampe (2003–4) ➤ Steve Green (Nov 2009) ➢ Museum of the Bible</t>
+  </si>
+  <si>
+    <t>Michael R. Thompson → Lee Biondi ➤ Azusa Pacific University (Aug 2009)</t>
+  </si>
+  <si>
+    <t>Michael R. Thompson → Lee Biondi ➤ Azusa Pacific University  (Aug 2009)</t>
+  </si>
+  <si>
+    <t>William Kando ➤ Craig (&amp; Joel) Lampe (2003–4) (→ James Charlesworth) ➤ Steve Green (Nov 2009) ➢ Museum of the Bible</t>
+  </si>
+  <si>
+    <t>Andrew Stimer ➤ National Christian Foundation or Steve Green (Oct 2014-June 2015) ➢ Museum of the Bible</t>
+  </si>
+  <si>
+    <t>William Kando ➤ Steve Green (May 2010) ➢ Museum of the Bible</t>
+  </si>
+  <si>
+    <t>William Kando ➤ Craig (&amp; Joel) Lampe (2002?) ➤ Green Collection (Nov 2009) ➢ Museum of the Bible</t>
+  </si>
+  <si>
+    <t>William Kando ➤ Steve Green ➢ Museum of the Bible (May 2010)</t>
+  </si>
+  <si>
+    <r>
+      <t>William Kando ➤ Steve Green </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t>➢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aleo Light"/>
+      </rPr>
+      <t xml:space="preserve"> Museum of the Bible (May 2010)</t>
+    </r>
+  </si>
+  <si>
+    <t>William Kando ➤ Craig (&amp; Joel) Lampe (2003–4) ➤ Green Collection (Nov 2009) ➢ Museum of the Bible</t>
+  </si>
+  <si>
+    <t>Andrew Stimer ➤  Steve Green (Oct 2014-June 2015) ➢ Museum of the Bible</t>
+  </si>
+  <si>
+    <t>Andrew Stimer ➤ Steve Green (Oct 2014-June 2015) ➢ Museum of the Bible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrew Stimer ➤ Steve Green (Oct 2014-June 2015) ➢ Museum of the Bible</t>
   </si>
 </sst>
 </file>
@@ -7861,13 +7863,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CEA2365-8B2D-5143-803D-6D4FB4E86B2D}" name="Post_2002_Fragments" displayName="Post_2002_Fragments" ref="A1:V102" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:V102" xr:uid="{714D2FCE-A08D-C943-80D3-6D216A6BD6AA}">
-    <filterColumn colId="20">
-      <filters>
-        <filter val="Unidentified, 23"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V102" xr:uid="{714D2FCE-A08D-C943-80D3-6D216A6BD6AA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T102">
     <sortCondition ref="A1:A102"/>
   </sortState>
@@ -7885,7 +7881,7 @@
     <tableColumn id="3" xr3:uid="{11BD8FB7-E8BA-EE49-B0FE-64041D98EB57}" name="False Identifications" dataDxfId="15"/>
     <tableColumn id="28" xr3:uid="{7CFA9B31-34B3-1249-944A-FE370EC2B25E}" name="Siglum (Name) in Tov, Revised Lists (2010)" dataDxfId="14"/>
     <tableColumn id="29" xr3:uid="{F6F3730C-3E78-9640-BD99-2AABB1F5151F}" name="Siglum and Fragment Number in Accordance" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{E85C9271-D71B-2347-AC6C-CB969F40EC18}" name="Sales (➤) and Donations (➢)" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{E85C9271-D71B-2347-AC6C-CB969F40EC18}" name="Sale (➤), Donation (➢), and Collaboration (→)" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{B3E9F172-B29F-F14F-9417-580D64DFAF47}" name="Asking price" dataDxfId="11"/>
     <tableColumn id="8" xr3:uid="{91E1017E-7A63-B64C-B629-BFE8CFEC540C}" name="Purchase Price_x000a_Dealer/Seller ➤ Collector/Buyer" dataDxfId="10"/>
     <tableColumn id="9" xr3:uid="{652C307D-EFC9-A44D-B6B7-7E5415A0E08F}" name="Lines" dataDxfId="9"/>
@@ -8262,9 +8258,9 @@
   </sheetPr>
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V98" sqref="V98"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="193" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L103" sqref="L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8280,7 +8276,7 @@
     <col min="9" max="9" width="43.796875" style="1" customWidth="1"/>
     <col min="10" max="10" width="37.19921875" style="1" customWidth="1"/>
     <col min="11" max="11" width="31.796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.3984375" style="1" customWidth="1"/>
     <col min="13" max="13" width="36.19921875" style="1" customWidth="1"/>
     <col min="14" max="14" width="45.796875" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -8331,16 +8327,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>8</v>
@@ -8352,7 +8348,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>11</v>
@@ -8367,13 +8363,13 @@
         <v>14</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="168" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="168" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8422,13 +8418,13 @@
         <v>25</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="150" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="150" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -8451,7 +8447,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>30</v>
@@ -8463,10 +8459,10 @@
         <v>32</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>33</v>
@@ -8487,13 +8483,13 @@
         <v>38</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="408" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -8515,13 +8511,13 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="25" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="7"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>42</v>
+        <v>613</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -8529,29 +8525,29 @@
         <v>8</v>
       </c>
       <c r="P4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="83" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="83" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
@@ -8563,16 +8559,16 @@
       <c r="G5" s="7"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -8580,143 +8576,143 @@
         <v>22</v>
       </c>
       <c r="P5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="24" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C6" s="14">
         <v>101</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.101 Gen1</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="7"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="Q6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="R6" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="S6" s="15"/>
       <c r="T6" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="221.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="14">
         <v>102</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.102 RP1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="J7" s="23"/>
       <c r="K7" s="17"/>
       <c r="L7" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="Q7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="R7" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -8726,48 +8722,48 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -8782,7 +8778,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
@@ -8792,50 +8788,50 @@
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="14">
         <v>103</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.103 Exod3</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="L10" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
@@ -8843,84 +8839,84 @@
         <v>33</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="156.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="14">
         <v>104</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.104 Exod4</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="L11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -8935,7 +8931,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
@@ -8945,21 +8941,21 @@
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
@@ -8970,39 +8966,39 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="7"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P13" s="15"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -9017,7 +9013,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
@@ -9027,119 +9023,119 @@
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
       <c r="T14" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="90" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="14">
         <v>105</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.105 Exod5</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>111</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
       <c r="T15" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="14">
         <v>192</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.192 Exod6</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15" t="s">
-        <v>119</v>
+        <v>614</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9147,68 +9143,68 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C17" s="14">
         <v>151</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E17" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.151 (Unid) [earlier: DDS F.Exod1]</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O17" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="83.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C18" s="14">
         <v>161</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E18" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -9216,18 +9212,18 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -9235,27 +9231,27 @@
         <v>22</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
@@ -9265,14 +9261,14 @@
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="7"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
@@ -9283,69 +9279,69 @@
       <c r="S19" s="15"/>
       <c r="T19" s="21"/>
       <c r="U19" s="1" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C20" s="14">
         <v>152</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E20" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.152 Lev1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15" t="s">
-        <v>146</v>
+        <v>616</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P20" s="15"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
       <c r="T20" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
@@ -9360,7 +9356,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
@@ -9370,27 +9366,27 @@
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
       <c r="T21" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C22" s="14">
         <v>162</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E22" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -9398,75 +9394,75 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O22" s="15" t="s">
         <v>33</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C23" s="14">
         <v>193</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E23" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.193 Lev5</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15" t="s">
-        <v>162</v>
+        <v>617</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
@@ -9474,40 +9470,40 @@
         <v>33</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C24" s="14">
         <v>203</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E24" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.203 Lev6</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="15"/>
@@ -9515,7 +9511,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15" t="s">
-        <v>168</v>
+        <v>618</v>
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
@@ -9523,25 +9519,25 @@
         <v>33</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="21"/>
       <c r="U24" s="1" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
@@ -9551,54 +9547,54 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>33</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
       <c r="T25" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
@@ -9608,54 +9604,54 @@
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
       <c r="T26" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
@@ -9665,46 +9661,46 @@
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="7"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="O27" s="15"/>
       <c r="P27" s="15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
       <c r="T27" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
@@ -9719,7 +9715,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
@@ -9729,21 +9725,21 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
       <c r="T28" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
@@ -9758,7 +9754,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
@@ -9768,34 +9764,34 @@
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
       <c r="T29" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C30" s="14">
         <v>194</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E30" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.194 Num2</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="15"/>
@@ -9803,7 +9799,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15" t="s">
-        <v>193</v>
+        <v>619</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
@@ -9811,27 +9807,27 @@
         <v>33</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
       <c r="T30" s="21" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
@@ -9846,7 +9842,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
@@ -9856,48 +9852,48 @@
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
       <c r="T31" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C32" s="14">
         <v>107</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E32" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.107 Num1</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
@@ -9905,29 +9901,29 @@
         <v>33</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
       <c r="T32" s="21" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
@@ -9942,7 +9938,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
@@ -9952,48 +9948,48 @@
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
       <c r="T33" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C34" s="14">
         <v>108</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E34" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.108 Deut5</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="15" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
@@ -10001,56 +9997,56 @@
         <v>22</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
       <c r="T34" s="21" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C35" s="14">
         <v>153</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E35" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.153 Deut1</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M35" s="15"/>
       <c r="N35" s="15" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="O35" s="14">
         <v>7</v>
@@ -10060,27 +10056,27 @@
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
       <c r="T35" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="83.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C36" s="14">
         <v>163</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E36" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -10089,51 +10085,51 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K36" s="17"/>
       <c r="L36" s="15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M36" s="15"/>
       <c r="N36" s="15"/>
       <c r="O36" s="15" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
       <c r="T36" s="21" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C37" s="14">
         <v>164</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E37" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -10141,46 +10137,46 @@
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P37" s="15" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
       <c r="T37" s="21" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
@@ -10195,7 +10191,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
@@ -10205,21 +10201,21 @@
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
       <c r="T38" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
@@ -10229,110 +10225,110 @@
 Deut 23:3–4 [Puech?; Charlesworth?]</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L39" s="15" t="s">
         <v>32</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O39" s="15" t="s">
         <v>22</v>
       </c>
       <c r="P39" s="15"/>
       <c r="Q39" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
       <c r="T39" s="21" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="388.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="388.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C40" s="14">
         <v>154</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E40" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.154 Deut2</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="O40" s="15" t="s">
         <v>33</v>
       </c>
       <c r="P40" s="15"/>
       <c r="Q40" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
       <c r="T40" s="21" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
@@ -10347,7 +10343,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
@@ -10357,76 +10353,76 @@
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
       <c r="T41" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C42" s="14">
         <v>109</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E42" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.109 Deut6</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="7"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
       <c r="O42" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
       <c r="T42" s="21" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="50" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
@@ -10438,46 +10434,46 @@
       <c r="G43" s="7"/>
       <c r="H43" s="15"/>
       <c r="I43" s="15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
       <c r="O43" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
       <c r="T43" s="21" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="U43" s="15" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="15"/>
@@ -10487,48 +10483,48 @@
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
       <c r="O44" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
       <c r="T44" s="21" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="U44" s="15" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="15"/>
@@ -10543,7 +10539,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
@@ -10553,21 +10549,21 @@
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
       <c r="T45" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U45" s="15" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
@@ -10580,60 +10576,60 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="15" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
       <c r="O46" s="15" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q46" s="7"/>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
       <c r="T46" s="21"/>
       <c r="U46" s="15" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C47" s="14">
         <v>120</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E47" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.120 Ruth1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="7"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
@@ -10641,42 +10637,42 @@
         <v>22</v>
       </c>
       <c r="P47" s="15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
       <c r="T47" s="21" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="U47" s="15" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="40" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C48" s="14">
         <v>112</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E48" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.112 Sam1</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="15"/>
@@ -10684,7 +10680,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
@@ -10692,84 +10688,84 @@
         <v>33</v>
       </c>
       <c r="P48" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
       <c r="T48" s="21" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="U48" s="15" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C49" s="14">
         <v>113</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E49" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.113 Sam2</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="7"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
       <c r="O49" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P49" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="P49" s="15" t="s">
-        <v>113</v>
-      </c>
       <c r="Q49" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
       <c r="T49" s="21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="U49" s="15" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="15"/>
@@ -10784,7 +10780,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
@@ -10794,48 +10790,48 @@
       <c r="R50" s="15"/>
       <c r="S50" s="15"/>
       <c r="T50" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U50" s="15" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C51" s="14">
         <v>114</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E51" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.114 Sam3</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K51" s="15"/>
       <c r="L51" s="15" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
@@ -10843,35 +10839,35 @@
         <v>22</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R51" s="15"/>
       <c r="S51" s="15"/>
       <c r="T51" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="U51" s="15" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C52" s="14">
         <v>170</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E52" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -10884,7 +10880,7 @@
       <c r="J52" s="7"/>
       <c r="K52" s="15"/>
       <c r="L52" s="15" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
@@ -10892,52 +10888,52 @@
         <v>22</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q52" s="7"/>
       <c r="R52" s="15"/>
       <c r="S52" s="15"/>
       <c r="T52" s="21" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="U52" s="15" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C53" s="14">
         <v>115</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E53" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.115 Kgs1</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="7"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
@@ -10945,27 +10941,27 @@
         <v>33</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="R53" s="15"/>
       <c r="S53" s="15"/>
       <c r="T53" s="21" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="U53" s="15" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="15"/>
@@ -10980,7 +10976,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
@@ -10990,21 +10986,21 @@
       <c r="R54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U54" s="15" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="15"/>
@@ -11019,7 +11015,7 @@
       <c r="J55" s="7"/>
       <c r="K55" s="15"/>
       <c r="L55" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
@@ -11029,34 +11025,34 @@
       <c r="R55" s="15"/>
       <c r="S55" s="15"/>
       <c r="T55" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U55" s="15" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C56" s="14">
         <v>201</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E56" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.201 Neh2</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="15"/>
@@ -11064,7 +11060,7 @@
       <c r="J56" s="7"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15" t="s">
-        <v>193</v>
+        <v>619</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
@@ -11072,109 +11068,109 @@
         <v>33</v>
       </c>
       <c r="P56" s="15" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q56" s="7"/>
       <c r="R56" s="15"/>
       <c r="S56" s="15"/>
       <c r="T56" s="21" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="U56" s="15" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="167.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C57" s="14">
         <v>122</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E57" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.122 Neh1</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="25" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K57" s="15"/>
       <c r="L57" s="15" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N57" s="15"/>
       <c r="O57" s="15" t="s">
         <v>33</v>
       </c>
       <c r="P57" s="15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="R57" s="19"/>
       <c r="S57" s="19"/>
       <c r="T57" s="21" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="U57" s="15" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C58" s="14">
         <v>118</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E58" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.118 Ps2</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="15" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K58" s="15"/>
       <c r="L58" s="15" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="15"/>
@@ -11182,58 +11178,58 @@
         <v>22</v>
       </c>
       <c r="P58" s="15" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R58" s="15"/>
       <c r="S58" s="15"/>
       <c r="T58" s="21" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="U58" s="15" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="169.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C59" s="14">
         <v>199</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E59" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.199 Ps3</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="19" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>352</v>
+        <v>620</v>
       </c>
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
@@ -11241,31 +11237,31 @@
         <v>33</v>
       </c>
       <c r="P59" s="15" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="R59" s="15" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="S59" s="15"/>
       <c r="T59" s="21" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="U59" s="15" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="15"/>
@@ -11276,19 +11272,19 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="15" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M60" s="15"/>
       <c r="N60" s="15"/>
@@ -11300,27 +11296,27 @@
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
       <c r="T60" s="21" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="U60" s="15" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C61" s="14">
         <v>165</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E61" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -11328,48 +11324,48 @@
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="M61" s="15"/>
       <c r="N61" s="15" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="O61" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P61" s="15" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="Q61" s="7"/>
       <c r="R61" s="15"/>
       <c r="S61" s="15"/>
       <c r="T61" s="21" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="U61" s="15" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="15"/>
@@ -11384,7 +11380,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="15"/>
       <c r="L62" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
@@ -11394,21 +11390,21 @@
       <c r="R62" s="15"/>
       <c r="S62" s="15"/>
       <c r="T62" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U62" s="15" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="15"/>
@@ -11419,13 +11415,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="15" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="7"/>
       <c r="K63" s="15"/>
       <c r="L63" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
@@ -11435,21 +11431,21 @@
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
       <c r="T63" s="21" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="U63" s="15" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="15"/>
@@ -11464,7 +11460,7 @@
       <c r="J64" s="7"/>
       <c r="K64" s="15"/>
       <c r="L64" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
@@ -11474,44 +11470,44 @@
       <c r="R64" s="15"/>
       <c r="S64" s="15"/>
       <c r="T64" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U64" s="15" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C65" s="14">
         <v>119</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E65" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.119 Prov1</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="7"/>
       <c r="K65" s="15"/>
       <c r="L65" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
@@ -11519,27 +11515,27 @@
         <v>33</v>
       </c>
       <c r="P65" s="15" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="Q65" s="7"/>
       <c r="R65" s="15"/>
       <c r="S65" s="15"/>
       <c r="T65" s="21" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="U65" s="15" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="136.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="15"/>
@@ -11548,57 +11544,57 @@
         <v>Isa 24:16–17</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="16" t="s">
         <v>29</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L66" s="15" t="s">
         <v>32</v>
       </c>
       <c r="M66" s="15" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="N66" s="15" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O66" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P66" s="15" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="R66" s="15"/>
       <c r="S66" s="15"/>
       <c r="T66" s="21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="U66" s="15" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="153" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="15"/>
@@ -11607,57 +11603,57 @@
         <v>Isa 26:19–27:1</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="16" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I67" s="15" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L67" s="15" t="s">
         <v>32</v>
       </c>
       <c r="M67" s="15" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="N67" s="15" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O67" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P67" s="15" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="R67" s="15"/>
       <c r="S67" s="15"/>
       <c r="T67" s="24" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="U67" s="15" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" ht="90" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="15"/>
@@ -11668,113 +11664,113 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="15" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="7"/>
       <c r="K68" s="15"/>
       <c r="L68" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
       <c r="O68" s="15" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="P68" s="15" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Q68" s="7"/>
       <c r="R68" s="15"/>
       <c r="S68" s="15"/>
       <c r="T68" s="21" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="U68" s="15" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" ht="165" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C69" s="14">
         <v>116</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E69" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.116 Jer1</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K69" s="17"/>
       <c r="L69" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M69" s="15"/>
       <c r="N69" s="15"/>
       <c r="O69" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P69" s="15" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R69" s="19"/>
       <c r="S69" s="19"/>
       <c r="T69" s="21" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="U69" s="15" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" ht="80" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C70" s="14">
         <v>195</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E70" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.195 Jer2</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="15"/>
@@ -11782,43 +11778,43 @@
       <c r="J70" s="7"/>
       <c r="K70" s="15"/>
       <c r="L70" s="15" t="s">
-        <v>409</v>
+        <v>621</v>
       </c>
       <c r="M70" s="15" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="N70" s="15"/>
       <c r="O70" s="15" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P70" s="15"/>
       <c r="Q70" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="R70" s="19"/>
       <c r="S70" s="19"/>
       <c r="T70" s="21" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="U70" s="15" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C71" s="14">
         <v>156</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E71" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -11827,19 +11823,19 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="15" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
@@ -11847,42 +11843,42 @@
         <v>22</v>
       </c>
       <c r="P71" s="15" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="R71" s="15"/>
       <c r="S71" s="15"/>
       <c r="T71" s="21" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="U71" s="15" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C72" s="14">
         <v>196</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E72" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.196 Ezek1</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="15"/>
@@ -11890,96 +11886,96 @@
       <c r="J72" s="7"/>
       <c r="K72" s="15"/>
       <c r="L72" s="15" t="s">
-        <v>424</v>
+        <v>622</v>
       </c>
       <c r="M72" s="15"/>
       <c r="N72" s="15"/>
       <c r="O72" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P72" s="15"/>
       <c r="Q72" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="R72" s="15"/>
       <c r="S72" s="15"/>
       <c r="T72" s="21" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="U72" s="15" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C73" s="14">
         <v>155</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E73" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.155 Dan1</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="15" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="I73" s="15"/>
       <c r="J73" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="K73" s="15"/>
       <c r="L73" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M73" s="15" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="O73" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P73" s="15"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="15"/>
       <c r="S73" s="15"/>
       <c r="T73" s="21" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="U73" s="15" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C74" s="14">
         <v>166</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E74" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -11988,17 +11984,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="K74" s="15"/>
       <c r="L74" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M74" s="15"/>
       <c r="N74" s="15"/>
@@ -12006,33 +12002,33 @@
         <v>33</v>
       </c>
       <c r="P74" s="15" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="Q74" s="7"/>
       <c r="R74" s="15"/>
       <c r="S74" s="15"/>
       <c r="T74" s="21" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="U74" s="15" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="85.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C75" s="14">
         <v>167</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E75" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -12041,13 +12037,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="7"/>
       <c r="K75" s="15"/>
       <c r="L75" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M75" s="15"/>
       <c r="N75" s="15"/>
@@ -12055,40 +12051,40 @@
         <v>22</v>
       </c>
       <c r="P75" s="15" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="Q75" s="7"/>
       <c r="R75" s="15"/>
       <c r="S75" s="15"/>
       <c r="T75" s="21" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="U75" s="15" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C76" s="14">
         <v>200</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E76" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.200 Dan6</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="15"/>
@@ -12096,7 +12092,7 @@
       <c r="J76" s="7"/>
       <c r="K76" s="15"/>
       <c r="L76" s="15" t="s">
-        <v>424</v>
+        <v>622</v>
       </c>
       <c r="M76" s="15"/>
       <c r="N76" s="15"/>
@@ -12105,26 +12101,26 @@
       </c>
       <c r="P76" s="15"/>
       <c r="Q76" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="R76" s="15"/>
       <c r="S76" s="15"/>
       <c r="T76" s="21" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="U76" s="15" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="15"/>
@@ -12139,7 +12135,7 @@
       <c r="J77" s="7"/>
       <c r="K77" s="15"/>
       <c r="L77" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
@@ -12149,21 +12145,21 @@
       <c r="R77" s="15"/>
       <c r="S77" s="15"/>
       <c r="T77" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U77" s="15" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" ht="50" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="15"/>
@@ -12178,7 +12174,7 @@
       <c r="J78" s="7"/>
       <c r="K78" s="15"/>
       <c r="L78" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
@@ -12186,27 +12182,27 @@
         <v>33</v>
       </c>
       <c r="P78" s="15" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="Q78" s="8"/>
       <c r="R78" s="15"/>
       <c r="S78" s="15"/>
       <c r="T78" s="21" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="U78" s="15" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C79" s="14"/>
       <c r="D79" s="15"/>
@@ -12217,45 +12213,45 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="15" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="8"/>
       <c r="K79" s="19"/>
       <c r="L79" s="19" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M79" s="19"/>
       <c r="N79" s="19"/>
       <c r="O79" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P79" s="19"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
       <c r="T79" s="21" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="U79" s="15" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C80" s="14">
         <v>181</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E80" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -12263,14 +12259,14 @@
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="8" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="8"/>
       <c r="K80" s="19"/>
       <c r="L80" s="15" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="15"/>
@@ -12278,29 +12274,29 @@
         <v>22</v>
       </c>
       <c r="P80" s="15" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="R80" s="15"/>
       <c r="S80" s="15"/>
       <c r="T80" s="21" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="U80" s="15" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="15"/>
@@ -12315,7 +12311,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="19"/>
       <c r="L81" s="15" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="15"/>
@@ -12325,34 +12321,34 @@
       <c r="R81" s="15"/>
       <c r="S81" s="15"/>
       <c r="T81" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U81" s="15" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C82" s="14">
         <v>197</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E82" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.197 Jon1</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="15"/>
@@ -12360,7 +12356,7 @@
       <c r="J82" s="7"/>
       <c r="K82" s="15"/>
       <c r="L82" s="15" t="s">
-        <v>424</v>
+        <v>622</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="15"/>
@@ -12369,39 +12365,39 @@
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="R82" s="15"/>
       <c r="S82" s="15"/>
       <c r="T82" s="21" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="U82" s="15" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C83" s="14">
         <v>198</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E83" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.198 Mic1</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="15"/>
@@ -12409,7 +12405,7 @@
       <c r="J83" s="7"/>
       <c r="K83" s="15"/>
       <c r="L83" s="15" t="s">
-        <v>424</v>
+        <v>622</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="15"/>
@@ -12418,26 +12414,26 @@
       </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="R83" s="15"/>
       <c r="S83" s="15"/>
       <c r="T83" s="21" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="U83" s="15" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="15"/>
@@ -12447,14 +12443,14 @@
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
       <c r="J84" s="7"/>
       <c r="K84" s="15"/>
       <c r="L84" s="15" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="15"/>
@@ -12467,295 +12463,295 @@
       <c r="S84" s="15"/>
       <c r="T84" s="21"/>
       <c r="U84" s="15" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C85" s="14">
         <v>123</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E85" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.123 Tob1</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="15"/>
       <c r="I85" s="15" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="K85" s="19"/>
       <c r="L85" s="15" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
       <c r="O85" s="15" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P85" s="15" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="R85" s="15"/>
       <c r="S85" s="15"/>
       <c r="T85" s="24" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="U85" s="15" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" ht="80" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C86" s="14">
         <v>124</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E86" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.124 En1</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="15"/>
       <c r="I86" s="15" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="K86" s="15"/>
       <c r="L86" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P86" s="15" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="Q86" s="7"/>
       <c r="R86" s="15"/>
       <c r="S86" s="15"/>
       <c r="T86" s="21" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="U86" s="15" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="159" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>86</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C87" s="14">
         <v>125</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="E87" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.125 En2</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="H87" s="16" t="s">
         <v>29</v>
       </c>
       <c r="I87" s="15"/>
       <c r="J87" s="9" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P87" s="15" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="Q87" s="7"/>
       <c r="R87" s="15"/>
       <c r="S87" s="15"/>
       <c r="T87" s="21" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="U87" s="15" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>87</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C88" s="14">
         <v>126</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E88" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.126 En3</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="9" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="K88" s="15"/>
       <c r="L88" s="15" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="15" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="O88" s="15" t="s">
         <v>22</v>
       </c>
       <c r="P88" s="15" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="Q88" s="8"/>
       <c r="R88" s="19"/>
       <c r="S88" s="19"/>
       <c r="T88" s="21" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="U88" s="15" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="200" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" ht="200" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>88</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="C89" s="14">
         <v>202</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="E89" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.202 Instr1</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="15"/>
       <c r="I89" s="15" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="K89" s="15"/>
       <c r="L89" s="15" t="s">
-        <v>512</v>
+        <v>623</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="R89" s="15" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="S89" s="15" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="T89" s="21" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="U89" s="15" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="55" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="C90" s="14"/>
       <c r="D90" s="15"/>
@@ -12764,7 +12760,7 @@
         <v>Instruction (“4Q418”)</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="15"/>
@@ -12772,7 +12768,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="15"/>
       <c r="L90" s="15" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
@@ -12782,21 +12778,21 @@
       <c r="R90" s="15"/>
       <c r="S90" s="15"/>
       <c r="T90" s="21" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="U90" s="15" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="15"/>
@@ -12808,12 +12804,12 @@
       <c r="G91" s="7"/>
       <c r="H91" s="15"/>
       <c r="I91" s="15" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="15"/>
       <c r="L91" s="15" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
@@ -12824,18 +12820,18 @@
       <c r="S91" s="15"/>
       <c r="T91" s="21"/>
       <c r="U91" s="15" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>91</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C92" s="14"/>
       <c r="D92" s="15"/>
@@ -12847,77 +12843,77 @@
       <c r="G92" s="7"/>
       <c r="H92" s="15"/>
       <c r="I92" s="15" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="15"/>
       <c r="L92" s="15" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
       <c r="P92" s="15" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="Q92" s="7"/>
       <c r="R92" s="15"/>
       <c r="S92" s="15"/>
       <c r="T92" s="21"/>
       <c r="U92" s="15" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>92</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C93" s="14">
         <v>130</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="E93" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.130 CommGen</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="15"/>
       <c r="I93" s="15" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="15"/>
       <c r="L93" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
       <c r="O93" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P93" s="15" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="Q93" s="7"/>
       <c r="R93" s="15"/>
       <c r="S93" s="15"/>
       <c r="T93" s="21"/>
       <c r="U93" s="15" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="94" spans="1:22" ht="30" x14ac:dyDescent="0.2">
@@ -12925,7 +12921,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C94" s="14">
         <v>132</v>
@@ -12936,7 +12932,7 @@
         <v xml:space="preserve">DSS F.132 </v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="15"/>
@@ -12944,7 +12940,7 @@
       <c r="J94" s="7"/>
       <c r="K94" s="15"/>
       <c r="L94" s="15" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
@@ -12952,17 +12948,17 @@
         <v>33</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="Q94" s="7"/>
       <c r="R94" s="15"/>
       <c r="S94" s="15"/>
       <c r="T94" s="21"/>
       <c r="U94" s="15" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12970,13 +12966,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C95" s="14">
         <v>168</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="E95" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -12984,36 +12980,36 @@
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="7"/>
       <c r="K95" s="15"/>
       <c r="L95" s="15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P95" s="15" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="Q95" s="7"/>
       <c r="R95" s="15"/>
       <c r="S95" s="15"/>
       <c r="T95" s="21" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="U95" s="15" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="56" x14ac:dyDescent="0.2">
@@ -13021,7 +13017,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="15"/>
@@ -13030,35 +13026,35 @@
         <v>Unidentified</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="7"/>
       <c r="K96" s="15"/>
       <c r="L96" s="15" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="Q96" s="7"/>
       <c r="R96" s="15"/>
       <c r="S96" s="15"/>
       <c r="T96" s="21"/>
       <c r="U96" s="15" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="126" x14ac:dyDescent="0.2">
@@ -13066,7 +13062,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C97" s="14"/>
       <c r="D97" s="15"/>
@@ -13076,14 +13072,14 @@
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="J97" s="7"/>
       <c r="K97" s="15"/>
       <c r="L97" s="15" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
@@ -13094,10 +13090,10 @@
       <c r="S97" s="15"/>
       <c r="T97" s="21"/>
       <c r="U97" s="15" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="126" x14ac:dyDescent="0.2">
@@ -13105,7 +13101,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="15"/>
@@ -13115,14 +13111,14 @@
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="7"/>
       <c r="K98" s="15"/>
       <c r="L98" s="15" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
@@ -13133,18 +13129,18 @@
       <c r="S98" s="15"/>
       <c r="T98" s="21"/>
       <c r="U98" s="15" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>98</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="15"/>
@@ -13153,7 +13149,7 @@
         <v>Unidentified</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="15"/>
@@ -13161,7 +13157,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="15"/>
       <c r="L99" s="15" t="s">
-        <v>545</v>
+        <v>624</v>
       </c>
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
@@ -13172,18 +13168,18 @@
       <c r="S99" s="15"/>
       <c r="T99" s="21"/>
       <c r="U99" s="15" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>99</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="15"/>
@@ -13192,7 +13188,7 @@
         <v>Unidentified</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="15"/>
@@ -13200,7 +13196,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="15"/>
       <c r="L100" s="15" t="s">
-        <v>547</v>
+        <v>625</v>
       </c>
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
@@ -13211,18 +13207,18 @@
       <c r="S100" s="15"/>
       <c r="T100" s="21"/>
       <c r="U100" s="15" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>100</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C101" s="14"/>
       <c r="D101" s="15"/>
@@ -13231,7 +13227,7 @@
         <v>Unidentified</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="15"/>
@@ -13239,7 +13235,7 @@
       <c r="J101" s="7"/>
       <c r="K101" s="15"/>
       <c r="L101" s="15" t="s">
-        <v>549</v>
+        <v>626</v>
       </c>
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
@@ -13250,18 +13246,18 @@
       <c r="S101" s="15"/>
       <c r="T101" s="21"/>
       <c r="U101" s="15" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="C102" s="14"/>
       <c r="D102" s="15"/>
@@ -13271,17 +13267,17 @@
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
       <c r="J102" s="7"/>
       <c r="K102" s="15"/>
       <c r="L102" s="15" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="M102" s="15" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="N102" s="15"/>
       <c r="O102" s="15"/>
@@ -13291,10 +13287,10 @@
       <c r="S102" s="15"/>
       <c r="T102" s="21"/>
       <c r="U102" s="15" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/data/post2002DB-v2.xlsx
+++ b/data/post2002DB-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hildad/Documents/GitHub/lyingpendatabases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B93827-E8BB-D249-8334-F9BAC4179818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3513BAE4-9CAA-5542-9489-18C37414B4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <author>tc={F55427C9-A137-474F-BE0B-CB9064F94C63}</author>
   </authors>
   <commentList>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{06243E47-131C-F143-8CFF-F7191E2C1352}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{06243E47-131C-F143-8CFF-F7191E2C1352}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -68,7 +68,7 @@
     Hmm. Nei, jeg vet ikke.</t>
       </text>
     </comment>
-    <comment ref="R3" authorId="1" shapeId="0" xr:uid="{3B89B68A-D12C-3349-8A00-CCE679251E43}">
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{3B89B68A-D12C-3349-8A00-CCE679251E43}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -76,7 +76,7 @@
     Sjekk om dette virkelig er en edition</t>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{526C4B04-4AF2-6D48-8FA5-F0C567578556}">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{526C4B04-4AF2-6D48-8FA5-F0C567578556}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -84,7 +84,7 @@
     Sjekk også Parry &amp; Tov 2014</t>
       </text>
     </comment>
-    <comment ref="T4" authorId="3" shapeId="0" xr:uid="{32913907-D534-014C-A2B7-E0958F6ED919}">
+    <comment ref="U4" authorId="3" shapeId="0" xr:uid="{32913907-D534-014C-A2B7-E0958F6ED919}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -112,7 +112,7 @@
     Dette tror jeg at jeg har fra et privat dokument fra Fields til Schøyen. Bør nok ut før vi publiserer. </t>
       </text>
     </comment>
-    <comment ref="M8" authorId="6" shapeId="0" xr:uid="{B44D4F9E-62F4-CD4B-9A98-270C94C38314}">
+    <comment ref="N8" authorId="6" shapeId="0" xr:uid="{B44D4F9E-62F4-CD4B-9A98-270C94C38314}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -120,7 +120,7 @@
     Her trenger vi få finne en fiffig måte å angi kilder på </t>
       </text>
     </comment>
-    <comment ref="P8" authorId="7" shapeId="0" xr:uid="{6E557DC4-AD42-5247-8DD6-3E02255DDE54}">
+    <comment ref="Q8" authorId="7" shapeId="0" xr:uid="{6E557DC4-AD42-5247-8DD6-3E02255DDE54}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -136,7 +136,7 @@
     Sjekk lange</t>
       </text>
     </comment>
-    <comment ref="T10" authorId="9" shapeId="0" xr:uid="{821C7E93-B4E4-1847-850F-757E6089B046}">
+    <comment ref="U10" authorId="9" shapeId="0" xr:uid="{821C7E93-B4E4-1847-850F-757E6089B046}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -144,7 +144,7 @@
     Sjekk hva Lange faktisk sier</t>
       </text>
     </comment>
-    <comment ref="T11" authorId="10" shapeId="0" xr:uid="{658E453A-54E2-9443-A73B-6E3C92EFBCC9}">
+    <comment ref="U11" authorId="10" shapeId="0" xr:uid="{658E453A-54E2-9443-A73B-6E3C92EFBCC9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +152,7 @@
     Kanskje Lange bør ut</t>
       </text>
     </comment>
-    <comment ref="Q30" authorId="11" shapeId="0" xr:uid="{DEBD5F07-A896-2C43-9A4B-A87FB3900A16}">
+    <comment ref="R30" authorId="11" shapeId="0" xr:uid="{DEBD5F07-A896-2C43-9A4B-A87FB3900A16}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -160,7 +160,7 @@
     Må legge inn artikkel fra Brill-bindet</t>
       </text>
     </comment>
-    <comment ref="T78" authorId="12" shapeId="0" xr:uid="{F37999FA-2FA5-1648-A58C-71FF2FEE16A1}">
+    <comment ref="U78" authorId="12" shapeId="0" xr:uid="{F37999FA-2FA5-1648-A58C-71FF2FEE16A1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -176,7 +176,7 @@
     Legg inn quotes fra Tovs artikkel</t>
       </text>
     </comment>
-    <comment ref="T90" authorId="14" shapeId="0" xr:uid="{F55427C9-A137-474F-BE0B-CB9064F94C63}">
+    <comment ref="U90" authorId="14" shapeId="0" xr:uid="{F55427C9-A137-474F-BE0B-CB9064F94C63}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="620">
   <si>
     <t>No.</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>Alleged Provenance</t>
-  </si>
-  <si>
-    <t>Asking price</t>
   </si>
   <si>
     <r>
@@ -242,16 +239,10 @@
     <t>Lines</t>
   </si>
   <si>
-    <t>Edition</t>
-  </si>
-  <si>
     <t>Edition 2</t>
   </si>
   <si>
     <t>Frg. Part of a Ms Edition</t>
-  </si>
-  <si>
-    <t>Sources</t>
   </si>
   <si>
     <t>Gen 13:1–3</t>
@@ -415,10 +406,6 @@
   </si>
   <si>
     <t>4Q226 f6:1–4 in QUMENG and QUMRAN</t>
-  </si>
-  <si>
-    <t>William Kando →
-Lee Biondi &amp; Bruce Ferrini † ➤ William Noah (June 2004) ➤ Aristophil Collection (after 2012) ➤ Anonymous Collector (Nov 2022)</t>
   </si>
   <si>
     <t xml:space="preserve">4
@@ -1099,14 +1086,6 @@
     <t>4Q601=4QGen37–38 (K) by Fields</t>
   </si>
   <si>
-    <t>2008: $1.2 million  (William Kando; Ganor according to Estrin 2013)
-2011: €30 mill (James H. Charlesworth to Hershel Shanks 2011)
-2011: $42 mill
-(William Kando) [Fields 2011]
-2011 → : $35–70 million  (William Kando)
-2013: upwards of £26 million (Lee Biondi according to Parker 2013)</t>
-  </si>
-  <si>
     <t>3 cols 22 lines(?)</t>
   </si>
   <si>
@@ -1895,13 +1874,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Feb 2009: $145,000  (Michael R. Thompson, Booksellers) [Davila 2009]</t>
-  </si>
-  <si>
-    <t>2009: $1,38 million  (total price of fragments APU1–5) [Davis  2017, 237 n.22]
-William Kando — Lee Biondi ➤ Azusa Pacific University [Estrin 2013]</t>
-  </si>
-  <si>
     <t>3(?)</t>
   </si>
   <si>
@@ -2063,13 +2035,6 @@
     <t>Cf. pp. 109–10 and 126</t>
   </si>
   <si>
-    <t>Michael R. Thompson – Lee Biondi ➤ Azusa Pacific University  (Aug 2009)</t>
-  </si>
-  <si>
-    <t>2009: $1,38 millon  (total price of fragments APU1–5; Davis 2017, 237 n.22)
-William Kando ➤ Lee Biondi ➤ Azusa Pacific University [Estrin 2013]</t>
-  </si>
-  <si>
     <t>Davis, Kipp. 2017. “Cave of Dispute: Patterns of Correspondence and Suspicion in the Post-2002 ‘Dead Sea Scrolls’ Fragments.” &lt;i&gt;DSD&lt;/i&gt; 24.2: 229–70.
 Estrin, Daniel. 2013. "&lt;a href="https://www.timesofisrael.com/dead-sea-scroll-fragments-to-hit-the-auction-block/" target="_blank"&gt;Dead Sea Scroll Fragments to Hit the Auction Block&lt;/a&gt;." &lt;i&gt;The Times of Israel&lt;/i&gt; 25 May.</t>
   </si>
@@ -2101,12 +2066,6 @@
     </r>
   </si>
   <si>
-    <t>According to Bruce McCoy of the SWBTS, "that scroll fragment includes passages from chapters 18 and 20 concerning the laws of sexual morality, and carried a special price tag because of the text’s significance" [Estrin 2013].</t>
-  </si>
-  <si>
-    <t>"[a]  family said it donated $500,000 for the purchase" [Estrin 2013]</t>
-  </si>
-  <si>
     <t>2.5 x 6.5</t>
   </si>
   <si>
@@ -2270,12 +2229,6 @@
     <t>ArugLev fA:1–4 in DSSB-C and DSSB-M</t>
   </si>
   <si>
-    <t>Bedouins from the Rashaidah tribe ➤ Hanan Eshel (Feb 2005) → Israel Antiquities Authority</t>
-  </si>
-  <si>
-    <t>$20,000  for ArugLev frg. a–d</t>
-  </si>
-  <si>
     <t>2005: $3000  for ArugLev frgs a-d
 Bedouin from the Rashaidah tribe ➤ Hanan Eshel</t>
   </si>
@@ -2592,10 +2545,6 @@
     <t>Lee Biondi ➤ Azusa Pacific University (Aug 2009)</t>
   </si>
   <si>
-    <t>2009: $1,38 million  (total price of fragments APU1–5) [Davis 2017, 237 n.22]
-William Kando ➤ Lee Biondi ➤Azusa Pacific University (Aug 2009) [Estrin 2013]</t>
-  </si>
-  <si>
     <t>Deut3</t>
   </si>
   <si>
@@ -2849,13 +2798,6 @@
       </rPr>
       <t>) at pp. 110 and 127</t>
     </r>
-  </si>
-  <si>
-    <t>William Kando(?) ➤ Legacy Ministries International ➤
-Azusa Pacific University (5 Aug 2009)</t>
-  </si>
-  <si>
-    <t>“insured for more than $900,000″ [Stanton 2007, 32]*</t>
   </si>
   <si>
     <t>Charlesworth 2008</t>
@@ -3151,10 +3093,6 @@
     <t>4Q(?)Deut2 [Elgvin 2016]</t>
   </si>
   <si>
-    <t>William Kando ➤
-Schøyen Collection (2009)</t>
-  </si>
-  <si>
     <t>3.8 x 3.8</t>
   </si>
   <si>
@@ -3283,9 +3221,6 @@
     <t>Xjudges f1 in DSSB-C and DSSB-M</t>
   </si>
   <si>
-    <t>William Kando (→ Émile Puech)</t>
-  </si>
-  <si>
     <t xml:space="preserve">6
 </t>
   </si>
@@ -3351,9 +3286,6 @@
     <t>Xjudges f7 in DSSB-C and DSSB-M</t>
   </si>
   <si>
-    <t>(→ Esther &amp; Hanan Eshel)</t>
-  </si>
-  <si>
     <t>4.5 x 2.9</t>
   </si>
   <si>
@@ -3408,9 +3340,6 @@
       </rPr>
       <t>) (pp. 110 and 128)</t>
     </r>
-  </si>
-  <si>
-    <t>William Kando  (2008)</t>
   </si>
   <si>
     <t xml:space="preserve">2 cols
@@ -4165,9 +4094,6 @@
   <si>
     <t>4Q SWBTS Psalms by Weston W. Fields 2011
 XQPs B by Peter Flint [2014]</t>
-  </si>
-  <si>
-    <t>A gift from William Kando</t>
   </si>
   <si>
     <t>2.9 x 2.6</t>
@@ -4607,9 +4533,6 @@
     <t xml:space="preserve">MOTB.SCR.003172 </t>
   </si>
   <si>
-    <t>Feb 2008: $285,000 (Michael Sharpe Rare &amp; Antiquarian Books)</t>
-  </si>
-  <si>
     <t>Kutz et al. 2016</t>
   </si>
   <si>
@@ -4705,10 +4628,6 @@
   </si>
   <si>
     <t>4Q72 f21a:1–3 in DSSB-C and DSSB-M</t>
-  </si>
-  <si>
-    <t>William Kando → Lee Biondi &amp; Bruce Ferrini † ➤ William Noah (June 2004)
-Michael Sharpe →  Foundation on Judaism and Christian Origins</t>
   </si>
   <si>
     <t>2.0 x 1.7</t>
@@ -4772,13 +4691,6 @@
     <t>X23 (XDan) pp. 110, 129</t>
   </si>
   <si>
-    <t>Feb 2009: $275,000  (Michael R. Thompson, Booksellers) [PaleoJudaica.com]</t>
-  </si>
-  <si>
-    <t>2009: $1,38 million  (total price of fragments APU1–5) [Davis 2017, 237 n.22]
-William Kando ➤ Lee Biondi ➤ Azusa Pacific University [Estrin 2013]</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Davila, James R. 2009. “Dead Sea Scrolls Fragments for Sale.” </t>
     </r>
@@ -5101,9 +5013,6 @@
     <t>Obadiah 2:15, 16–18</t>
   </si>
   <si>
-    <t>William Kando → Bruce H. Porter</t>
-  </si>
-  <si>
     <t>Jon1</t>
   </si>
   <si>
@@ -5180,28 +5089,6 @@
     <t>XpapTobit ar</t>
   </si>
   <si>
-    <r>
-      <t>William Kando (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aleo Light"/>
-      </rPr>
-      <t xml:space="preserve"> Devorah Dimant)</t>
-    </r>
-  </si>
-  <si>
     <t>Tob1</t>
   </si>
   <si>
@@ -5353,9 +5240,6 @@
     <t>XQ8 f1:1–5 in QUMRAN</t>
   </si>
   <si>
-    <t>William Kando (Bruce Ferrini → Esther and Hanan Eshel) ➤ Schøyen Collection (2009)</t>
-  </si>
-  <si>
     <t>5.8 x 4.3</t>
   </si>
   <si>
@@ -5523,10 +5407,6 @@
     <t>William Kando ➤ Schøyen Collection (April 2009)</t>
   </si>
   <si>
-    <t>2009: 700 000 NOK
-William Kando  ➤ Schøyen Collection</t>
-  </si>
-  <si>
     <t>2.9 x 8.3</t>
   </si>
   <si>
@@ -5722,9 +5602,6 @@
     <t>W 16</t>
   </si>
   <si>
-    <t>William Kando? (→ Lee Biondi &amp; Joel Lampe?)</t>
-  </si>
-  <si>
     <r>
       <t>Biondi, Lee. 2004. &lt;i&gt;</t>
     </r>
@@ -5787,9 +5664,6 @@
   <si>
     <t>4QTemple (K)a by Weston W. Fields
 Par 11Q19 LIV 21 – LV 06</t>
-  </si>
-  <si>
-    <t>William Kando (→ Lawrence Schiffman)</t>
   </si>
   <si>
     <t>4QTemple (K)b (Fields)
@@ -5824,10 +5698,6 @@
 </t>
   </si>
   <si>
-    <t>William Kando ➤
-Schøyen Collection</t>
-  </si>
-  <si>
     <t>2 x 1.7</t>
   </si>
   <si>
@@ -5897,9 +5767,6 @@
     <t>“Manuscript fragments in Hebrew on brown leather, beginning of a scroll with characters in a fine Herodian Hebrew Book Script. Qumran, Late 1st Century A.D. Identified by Professor Emil Puesch [sic], Ecole de Biblioteque, Jerusalem [sic]”</t>
   </si>
   <si>
-    <t xml:space="preserve">	Special Visit Ministry</t>
-  </si>
-  <si>
     <t>SIG.SCR.004741</t>
   </si>
   <si>
@@ -5919,20 +5786,11 @@
   </si>
   <si>
     <t>William Kando(?) → Bruce Ferrini(?) → Les Enluminures ➤ undisclosed U.S. institution</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2016: $1 million  (Les Enluminures)</t>
   </si>
   <si>
     <t>2003: $ 250,000 for 4 frgs: Gen 13:1–3; “Genesis 22”; Isa 24:16–17; Isa 26:19–27:1 (William Kando)
 2004: $ 680,000 (William Noah &amp; James Ferrell?)
 2022: € 50–60,000 for 4 frgs: “Genesis 22”; Deut 23:3–4; Isa 24:16–17; Isa 26:19–27:1 (Aguttes Auction House/Aristophil Collection)</t>
-  </si>
-  <si>
-    <t>2004: $ 250,000 for 4 frgs: Gen 13:1–3; “Genesis 22”; Isa 24:16–17; Isa 26:19–27:1 (William Kando)
-William Kando  ➤ William Noah &amp; James Ferrell
-2022: € 32,500 for 4 frgs: “Genesis 22”; Deut 23:3–4; Isa 24:16–17; Isa 26:19–27:1
-Aguttes Auction House/Aristophil Collection  ➤ Anonymous Collector</t>
   </si>
   <si>
     <t>“Today James Charlesworth presented an image of a fragment (in two parts) that he acquired on 25 October 2006. He said it had been in Zurich since the 50’s and reportedly came from Kando. … JC believes it was found in the caves of the Dead Sea region. He wants scholars to report that he has tried to prove that it is a fake and he has been unable to so he asserts that it is authentic. He also announced that he has acquired another 30 DSS fragments” [Brady 2007].
@@ -5952,10 +5810,6 @@
 Aguttes Auction House/Aristophil Collection  ➤ Anonymous Collector</t>
   </si>
   <si>
-    <t>2009: $ 1.38 million  (total price of fragments APU1–5) [Davis 2017, 237 n.22]
-William Kando (?) ➤ Legacy Ministries International ➤ Azusa Pacific University [Estrin 2013]</t>
-  </si>
-  <si>
     <t>2003: $250,000 for 4 frgs: Gen 13:1–3; “Genesis 22”; Isa 24:16–17; Isa 26:19–27:1 (William Kando)
 2004: $470,000 (William Noah and James Ferrell?)
 2022: € 50–60,000 for 4 frgs: “Genesis 22”; Deut 23:3–4; Isa 24:16–17; Isa 26:19–27:1 (Aguttes Auction House/Aristophil Collection)</t>
@@ -6807,9 +6661,6 @@
     <t>Michael R. Thompson → Lee Biondi ➤ Azusa Pacific University (Aug 2009)</t>
   </si>
   <si>
-    <t>Michael R. Thompson → Lee Biondi ➤ Azusa Pacific University  (Aug 2009)</t>
-  </si>
-  <si>
     <t>William Kando ➤ Craig (&amp; Joel) Lampe (2003–4) (→ James Charlesworth) ➤ Steve Green (Nov 2009) ➢ Museum of the Bible</t>
   </si>
   <si>
@@ -6856,7 +6707,111 @@
     <t>Andrew Stimer ➤ Steve Green (Oct 2014-June 2015) ➢ Museum of the Bible</t>
   </si>
   <si>
-    <t xml:space="preserve"> Andrew Stimer ➤ Steve Green (Oct 2014-June 2015) ➢ Museum of the Bible</t>
+    <t>Bedouins from the Rashaidah tribe ➤ Hanan Eshel (Feb 2005)</t>
+  </si>
+  <si>
+    <t>Israel Antiquities Authority</t>
+  </si>
+  <si>
+    <t>William Kando → Lee Biondi &amp; Bruce Ferrini † ➤ William Noah (June 2004) ➤ Aristophil Collection (after 2012) ➤ Anonymous Collector (Nov 2022)</t>
+  </si>
+  <si>
+    <t>William Kando(?) ➤ Legacy Ministries International ➤ Azusa Pacific University (5 Aug 2009)</t>
+  </si>
+  <si>
+    <t>Asking Price</t>
+  </si>
+  <si>
+    <t>Current Owner</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>William Kando → Lee Biondi &amp; Bruce Ferrini † ➤ William Noah (June 2004) →(?) Michael Sharpe → Foundation on Judaism and Christian Origins</t>
+  </si>
+  <si>
+    <t>William Kando → Bruce Ferrini ➤ Schøyen Collection (2009)</t>
+  </si>
+  <si>
+    <t>William Kando ➤ Schøyen Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Special Visit Ministry?</t>
+  </si>
+  <si>
+    <t>Special Visit Ministry?</t>
+  </si>
+  <si>
+    <t>Undisclosed U.S. institution</t>
+  </si>
+  <si>
+    <t>2008: $1.2 million  (William Kando; Ganor according to Estrin 2013)
+2011: €30 mill (James H. Charlesworth to Hershel Shanks 2011)
+2011: $42 mill
+(William Kando) [Fields 2011]
+2011– : $35–70 million  (William Kando)
+2013: upwards of £26 million (Lee Biondi according to Parker 2013)</t>
+  </si>
+  <si>
+    <t>Feb 2009: $145,000 (Michael R. Thompson) [Davila 2009]</t>
+  </si>
+  <si>
+    <t>According to Bruce McCoy of the SWBTS, "[the] fragment includes passages from chapters 18 and 20 concerning the laws of sexual morality, and carried a special price tag because of the text’s significance" [Estrin 2013].</t>
+  </si>
+  <si>
+    <t>2004: $20,000 for ArugLev frg. a–d</t>
+  </si>
+  <si>
+    <t>Feb 2008: $285,000 (Michael Sharpe)</t>
+  </si>
+  <si>
+    <t>Feb 2009: $275,000  (Michael R. Thompson) [PaleoJudaica.com]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016: $1 million (Les Enluminures)</t>
+  </si>
+  <si>
+    <t>William Kando → Lee Biondi &amp; Bruce Ferrini † ➤ William Noah &amp; James Ferrell (June 2004) ➤ Aristophil Collection (after 2012) ➤ Anonymous Collector (Nov 2022)</t>
+  </si>
+  <si>
+    <t>2004: $ 250,000 for 4 frgs: Gen 13:1–3; “Genesis 22”; Isa 24:16–17; Isa 26:19–27:1
+William Kando ➤ William Noah &amp; James Ferrell
+2022: € 32,500 for 4 frgs: “Genesis 22”; Deut 23:3–4; Isa 24:16–17; Isa 26:19–27:1
+Aguttes Auction House/Aristophil Collection ➤ Anonymous Collector</t>
+  </si>
+  <si>
+    <t>"[a] family said it donated $500,000 for the purchase" [Estrin 2013]</t>
+  </si>
+  <si>
+    <t>2009: $1,38 million  (total price of fragments APU1–5) [Davis  2017, 237 n.22]
+Michael R. Thompson → Lee Biondi ➤ Azusa Pacific University [Estrin 2013]</t>
+  </si>
+  <si>
+    <t>2009: $1,38 millon  (total price of fragments APU1–5; Davis 2017, 237 n.22)
+Michael R. Thompson → Lee Biondi ➤ Azusa Pacific University [Estrin 2013]</t>
+  </si>
+  <si>
+    <t>2009: $1,38 million  (total price of fragments APU1–5) [Davis 2017, 237 n.22]
+Lee Biondi ➤ Azusa Pacific University (Aug 2009) [Estrin 2013]</t>
+  </si>
+  <si>
+    <t>2009: $ 1.38 million (total price of fragments APU1–5) [Davis 2017, 237 n.22]
+William Kando(?) ➤ Legacy Ministries International ➤ Azusa Pacific University [Estrin 2013]</t>
+  </si>
+  <si>
+    <t>2009: $1,38 million  (total price of fragments APU1–5) [Davis 2017, 237 n.22]
+Michael R. Thompson → Lee Biondi ➤ Azusa Pacific University [Estrin 2013]</t>
+  </si>
+  <si>
+    <t>2009: 700 000 NOK
+William Kando ➤ Schøyen Collection</t>
+  </si>
+  <si>
+    <t>First Edition</t>
+  </si>
+  <si>
+    <t>Bibliography</t>
   </si>
 </sst>
 </file>
@@ -7141,7 +7096,43 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7862,36 +7853,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CEA2365-8B2D-5143-803D-6D4FB4E86B2D}" name="Post_2002_Fragments" displayName="Post_2002_Fragments" ref="A1:V102" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:V102" xr:uid="{714D2FCE-A08D-C943-80D3-6D216A6BD6AA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CEA2365-8B2D-5143-803D-6D4FB4E86B2D}" name="Post_2002_Fragments" displayName="Post_2002_Fragments" ref="A1:W102" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:W102" xr:uid="{714D2FCE-A08D-C943-80D3-6D216A6BD6AA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U102">
     <sortCondition ref="A1:A102"/>
   </sortState>
-  <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{4EFD41BC-5BFD-4E46-A5F1-7E906C6102C5}" name="No." dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{F93B8E3F-E2A9-9C46-8798-E2857A037AA3}" name="Content" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{4DDC7D22-B286-AD43-9DF0-FC7A4BACEAA9}" name="DSS F. No." dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{46E1AC7F-0FC2-3041-B3E2-F0809B37FB08}" name="DSS F. Name" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{AE8ADACF-00B6-7649-B9A0-10958EB147C4}" name="Name" dataDxfId="1">
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{4EFD41BC-5BFD-4E46-A5F1-7E906C6102C5}" name="No." dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{F93B8E3F-E2A9-9C46-8798-E2857A037AA3}" name="Content" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{4DDC7D22-B286-AD43-9DF0-FC7A4BACEAA9}" name="DSS F. No." dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{46E1AC7F-0FC2-3041-B3E2-F0809B37FB08}" name="DSS F. Name" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{AE8ADACF-00B6-7649-B9A0-10958EB147C4}" name="Name" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{142CBA6D-F3C5-874F-9A10-B4D0D370D4AD}" name="Collection No." dataDxfId="18"/>
-    <tableColumn id="32" xr3:uid="{9E02593A-E84E-124C-84CB-F3EC28D64481}" name="Name or Description" dataDxfId="17"/>
-    <tableColumn id="35" xr3:uid="{C459176B-7CFF-7741-81F6-696F6DDA7AC2}" name="Alleged Provenance" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{11BD8FB7-E8BA-EE49-B0FE-64041D98EB57}" name="False Identifications" dataDxfId="15"/>
-    <tableColumn id="28" xr3:uid="{7CFA9B31-34B3-1249-944A-FE370EC2B25E}" name="Siglum (Name) in Tov, Revised Lists (2010)" dataDxfId="14"/>
-    <tableColumn id="29" xr3:uid="{F6F3730C-3E78-9640-BD99-2AABB1F5151F}" name="Siglum and Fragment Number in Accordance" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{E85C9271-D71B-2347-AC6C-CB969F40EC18}" name="Sale (➤), Donation (➢), and Collaboration (→)" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{B3E9F172-B29F-F14F-9417-580D64DFAF47}" name="Asking price" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{91E1017E-7A63-B64C-B629-BFE8CFEC540C}" name="Purchase Price_x000a_Dealer/Seller ➤ Collector/Buyer" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{652C307D-EFC9-A44D-B6B7-7E5415A0E08F}" name="Lines" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{0B1022CB-F629-D54B-ACE5-24014EED6254}" name="Measurements_x000a_(in cm)" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{4665D607-2EED-974F-8F27-60FF09978FC3}" name="Edition" dataDxfId="7"/>
-    <tableColumn id="30" xr3:uid="{AA398F82-26DF-A14A-BFA3-776AC4A147A7}" name="Edition 2" dataDxfId="6"/>
-    <tableColumn id="33" xr3:uid="{147BF4CF-F264-6B48-AC69-D7AEB150B2A1}" name="Frg. Part of a Ms Edition" dataDxfId="5"/>
-    <tableColumn id="34" xr3:uid="{516E9851-23BA-4E51-9FAE-45E15B80C08C}" name="Sources" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{BA6B59E9-7DD8-3F41-B53D-D836BA825549}" name="Content group" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{9B268625-BF17-7245-969F-CCAF877DBC86}" name="Canonical group" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{142CBA6D-F3C5-874F-9A10-B4D0D370D4AD}" name="Collection No." dataDxfId="19"/>
+    <tableColumn id="32" xr3:uid="{9E02593A-E84E-124C-84CB-F3EC28D64481}" name="Name or Description" dataDxfId="18"/>
+    <tableColumn id="35" xr3:uid="{C459176B-7CFF-7741-81F6-696F6DDA7AC2}" name="Alleged Provenance" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{11BD8FB7-E8BA-EE49-B0FE-64041D98EB57}" name="False Identifications" dataDxfId="16"/>
+    <tableColumn id="28" xr3:uid="{7CFA9B31-34B3-1249-944A-FE370EC2B25E}" name="Siglum (Name) in Tov, Revised Lists (2010)" dataDxfId="15"/>
+    <tableColumn id="29" xr3:uid="{F6F3730C-3E78-9640-BD99-2AABB1F5151F}" name="Siglum and Fragment Number in Accordance" dataDxfId="14"/>
+    <tableColumn id="19" xr3:uid="{F6AC96E7-4BB0-A14A-9245-5E3480975FD9}" name="Current Owner" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{E85C9271-D71B-2347-AC6C-CB969F40EC18}" name="Sale (➤), Donation (➢), and Collaboration (→)" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{B3E9F172-B29F-F14F-9417-580D64DFAF47}" name="Asking Price" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{91E1017E-7A63-B64C-B629-BFE8CFEC540C}" name="Purchase Price_x000a_Dealer/Seller ➤ Collector/Buyer" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{652C307D-EFC9-A44D-B6B7-7E5415A0E08F}" name="Lines" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{0B1022CB-F629-D54B-ACE5-24014EED6254}" name="Measurements_x000a_(in cm)" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{4665D607-2EED-974F-8F27-60FF09978FC3}" name="First Edition" dataDxfId="8"/>
+    <tableColumn id="30" xr3:uid="{AA398F82-26DF-A14A-BFA3-776AC4A147A7}" name="Edition 2" dataDxfId="7"/>
+    <tableColumn id="33" xr3:uid="{147BF4CF-F264-6B48-AC69-D7AEB150B2A1}" name="Frg. Part of a Ms Edition" dataDxfId="6"/>
+    <tableColumn id="34" xr3:uid="{516E9851-23BA-4E51-9FAE-45E15B80C08C}" name="Bibliography" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{BA6B59E9-7DD8-3F41-B53D-D836BA825549}" name="Content group" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{9B268625-BF17-7245-969F-CCAF877DBC86}" name="Canonical group" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8194,22 +8186,22 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M2" dT="2021-02-21T08:41:36.19" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{06243E47-131C-F143-8CFF-F7191E2C1352}">
+  <threadedComment ref="N2" dT="2021-02-21T08:41:36.19" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{06243E47-131C-F143-8CFF-F7191E2C1352}">
     <text>Hva er egentlig kilden for dette?</text>
   </threadedComment>
-  <threadedComment ref="M2" dT="2021-02-23T10:25:28.34" personId="{796E7543-8504-405A-8D6B-3A3CDE0CC86F}" id="{9282A282-8A4A-4041-A528-3FAA2AB035C5}" parentId="{06243E47-131C-F143-8CFF-F7191E2C1352}">
+  <threadedComment ref="N2" dT="2021-02-23T10:25:28.34" personId="{796E7543-8504-405A-8D6B-3A3CDE0CC86F}" id="{9282A282-8A4A-4041-A528-3FAA2AB035C5}" parentId="{06243E47-131C-F143-8CFF-F7191E2C1352}">
     <text>Hmm. Nei, jeg vet ikke.</text>
   </threadedComment>
-  <threadedComment ref="R3" dT="2021-02-17T20:31:27.72" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{3B89B68A-D12C-3349-8A00-CCE679251E43}">
+  <threadedComment ref="S3" dT="2021-02-17T20:31:27.72" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{3B89B68A-D12C-3349-8A00-CCE679251E43}">
     <text>Sjekk om dette virkelig er en edition</text>
   </threadedComment>
-  <threadedComment ref="S3" dT="2021-03-01T12:40:42.42" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{526C4B04-4AF2-6D48-8FA5-F0C567578556}">
+  <threadedComment ref="T3" dT="2021-03-01T12:40:42.42" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{526C4B04-4AF2-6D48-8FA5-F0C567578556}">
     <text>Sjekk også Parry &amp; Tov 2014</text>
   </threadedComment>
-  <threadedComment ref="T4" dT="2021-03-02T09:43:26.30" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{32913907-D534-014C-A2B7-E0958F6ED919}">
+  <threadedComment ref="U4" dT="2021-03-02T09:43:26.30" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{32913907-D534-014C-A2B7-E0958F6ED919}">
     <text xml:space="preserve">Add page number to Carroll. </text>
   </threadedComment>
-  <threadedComment ref="T4" dT="2022-03-22T07:53:41.44" personId="{796E7543-8504-405A-8D6B-3A3CDE0CC86F}" id="{E2951F1D-27B5-461F-B0A9-FDE00BE0715F}" parentId="{32913907-D534-014C-A2B7-E0958F6ED919}">
+  <threadedComment ref="U4" dT="2022-03-22T07:53:41.44" personId="{796E7543-8504-405A-8D6B-3A3CDE0CC86F}" id="{E2951F1D-27B5-461F-B0A9-FDE00BE0715F}" parentId="{32913907-D534-014C-A2B7-E0958F6ED919}">
     <text>Har jeg eller du den?</text>
   </threadedComment>
   <threadedComment ref="H8" dT="2021-02-20T20:26:59.56" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{063009AE-1C47-5A44-9964-20755F5B4EFA}">
@@ -8221,31 +8213,31 @@
   <threadedComment ref="I8" dT="2021-03-02T20:18:22.58" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{6D446EEB-A84E-1D4E-9690-7BBD845E700E}">
     <text xml:space="preserve">Dette tror jeg at jeg har fra et privat dokument fra Fields til Schøyen. Bør nok ut før vi publiserer. </text>
   </threadedComment>
-  <threadedComment ref="M8" dT="2021-02-19T09:08:31.88" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{B44D4F9E-62F4-CD4B-9A98-270C94C38314}">
+  <threadedComment ref="N8" dT="2021-02-19T09:08:31.88" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{B44D4F9E-62F4-CD4B-9A98-270C94C38314}">
     <text xml:space="preserve">Her trenger vi få finne en fiffig måte å angi kilder på </text>
   </threadedComment>
-  <threadedComment ref="P8" dT="2021-02-19T09:10:29.32" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{6E557DC4-AD42-5247-8DD6-3E02255DDE54}">
+  <threadedComment ref="Q8" dT="2021-02-19T09:10:29.32" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{6E557DC4-AD42-5247-8DD6-3E02255DDE54}">
     <text xml:space="preserve">Kilde </text>
   </threadedComment>
   <threadedComment ref="I10" dT="2021-02-19T09:26:50.87" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{31C85DC9-8535-E64A-9D2C-8875E7AA0864}">
     <text>Sjekk lange</text>
   </threadedComment>
-  <threadedComment ref="T10" dT="2021-04-19T09:22:50.36" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{821C7E93-B4E4-1847-850F-757E6089B046}">
+  <threadedComment ref="U10" dT="2021-04-19T09:22:50.36" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{821C7E93-B4E4-1847-850F-757E6089B046}">
     <text>Sjekk hva Lange faktisk sier</text>
   </threadedComment>
-  <threadedComment ref="T11" dT="2021-03-22T09:13:41.38" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{658E453A-54E2-9443-A73B-6E3C92EFBCC9}">
+  <threadedComment ref="U11" dT="2021-03-22T09:13:41.38" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{658E453A-54E2-9443-A73B-6E3C92EFBCC9}">
     <text>Kanskje Lange bør ut</text>
   </threadedComment>
-  <threadedComment ref="Q30" dT="2021-03-03T18:30:49.12" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{DEBD5F07-A896-2C43-9A4B-A87FB3900A16}">
+  <threadedComment ref="R30" dT="2021-03-03T18:30:49.12" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{DEBD5F07-A896-2C43-9A4B-A87FB3900A16}">
     <text>Må legge inn artikkel fra Brill-bindet</text>
   </threadedComment>
-  <threadedComment ref="T78" dT="2022-03-22T07:03:48.73" personId="{8876FAA3-BF0D-9247-B3AB-636F8762BE46}" id="{F37999FA-2FA5-1648-A58C-71FF2FEE16A1}">
+  <threadedComment ref="U78" dT="2022-03-22T07:03:48.73" personId="{8876FAA3-BF0D-9247-B3AB-636F8762BE46}" id="{F37999FA-2FA5-1648-A58C-71FF2FEE16A1}">
     <text>Er NOVA-referansen riktig?</text>
   </threadedComment>
   <threadedComment ref="H80" dT="2022-03-22T16:47:12.52" personId="{8876FAA3-BF0D-9247-B3AB-636F8762BE46}" id="{2DF247D5-F5AB-0F43-BB23-04B9F21B7B37}">
     <text>Legg inn quotes fra Tovs artikkel</text>
   </threadedComment>
-  <threadedComment ref="T90" dT="2021-03-02T11:52:46.61" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{F55427C9-A137-474F-BE0B-CB9064F94C63}">
+  <threadedComment ref="U90" dT="2021-03-02T11:52:46.61" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{F55427C9-A137-474F-BE0B-CB9064F94C63}">
     <text>add pagenumbers</text>
   </threadedComment>
 </ThreadedComments>
@@ -8256,11 +8248,11 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="193" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L103" sqref="L103"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="220" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8275,33 +8267,33 @@
     <col min="8" max="8" width="52.3984375" style="1" customWidth="1"/>
     <col min="9" max="9" width="43.796875" style="1" customWidth="1"/>
     <col min="10" max="10" width="37.19921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="64.3984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="36.19921875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="45.796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.19921875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="41.3984375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="30.3984375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="65.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="94" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="65.59765625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="35.59765625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="38.796875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="30" style="1" customWidth="1"/>
-    <col min="26" max="26" width="32.3984375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="31.3984375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="31.19921875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="28" style="1" customWidth="1"/>
-    <col min="30" max="30" width="37" style="1" customWidth="1"/>
-    <col min="31" max="31" width="40" style="1" customWidth="1"/>
-    <col min="32" max="32" width="30.3984375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="40.19921875" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="11" style="1"/>
+    <col min="11" max="12" width="31.796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="65.3984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.3984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="54.59765625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.19921875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25" style="1" customWidth="1"/>
+    <col min="19" max="19" width="30.3984375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="65.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="94" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="65.59765625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.59765625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="38.796875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="30" style="1" customWidth="1"/>
+    <col min="27" max="27" width="32.3984375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="31.3984375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="31.19921875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="28" style="1" customWidth="1"/>
+    <col min="31" max="31" width="37" style="1" customWidth="1"/>
+    <col min="32" max="32" width="40" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.3984375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="40.19921875" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8327,54 +8319,57 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>597</v>
+        <v>521</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
@@ -8385,51 +8380,52 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="N2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="R2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>598</v>
+        <v>522</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="150" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="370" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
@@ -8438,116 +8434,118 @@
         <v>Words from Genesis 22</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="K3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="L3" s="15"/>
+      <c r="M3" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="P3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="Q3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="R3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="O3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="U3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="V3" s="1" t="s">
-        <v>598</v>
+        <v>522</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="14">
         <v>191</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.191 Gen2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="25" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="7"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="M4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
+        <v>577</v>
+      </c>
       <c r="N4" s="15"/>
-      <c r="O4" s="14">
+      <c r="O4" s="15"/>
+      <c r="P4" s="14">
         <v>8</v>
       </c>
-      <c r="P4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="15"/>
+      <c r="Q4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="S4" s="15"/>
-      <c r="T4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>558</v>
+      <c r="T4" s="15"/>
+      <c r="U4" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>598</v>
+        <v>522</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="83" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="83" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
@@ -8559,160 +8557,163 @@
       <c r="G5" s="7"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="R5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" s="15"/>
       <c r="S5" s="15"/>
-      <c r="T5" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>558</v>
+      <c r="T5" s="15"/>
+      <c r="U5" s="24" t="s">
+        <v>514</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>598</v>
+        <v>522</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="C6" s="14">
         <v>101</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.101 Gen1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="7"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="15"/>
+      <c r="M6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15" t="s">
+      <c r="T6" s="15"/>
+      <c r="U6" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>598</v>
+        <v>522</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" s="14">
         <v>102</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E7" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.102 RP1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="J7" s="23"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="17"/>
+      <c r="M7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="V7" s="1" t="s">
-        <v>598</v>
+        <v>522</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="135" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -8722,48 +8723,49 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="L8" s="15"/>
       <c r="M8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15" t="s">
-        <v>77</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="O8" s="15"/>
       <c r="P8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="15"/>
+        <v>72</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="7"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>558</v>
+      <c r="T8" s="15"/>
+      <c r="U8" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>598</v>
+        <v>522</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -8777,146 +8779,149 @@
       <c r="I9" s="15"/>
       <c r="J9" s="7"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="7"/>
       <c r="S9" s="15"/>
-      <c r="T9" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>558</v>
+      <c r="T9" s="15"/>
+      <c r="U9" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>598</v>
+        <v>522</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C10" s="14">
         <v>103</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E10" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.103 Exod3</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="R10" s="7"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>559</v>
-      </c>
       <c r="V10" s="1" t="s">
-        <v>598</v>
+        <v>523</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C11" s="14">
         <v>104</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E11" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.104 Exod4</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="N11" s="15"/>
-      <c r="O11" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="O11" s="15"/>
       <c r="P11" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="R11" s="7"/>
       <c r="S11" s="15"/>
-      <c r="T11" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>559</v>
+      <c r="T11" s="15"/>
+      <c r="U11" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>598</v>
+        <v>523</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -8930,32 +8935,33 @@
       <c r="I12" s="15"/>
       <c r="J12" s="7"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="7"/>
       <c r="S12" s="15"/>
-      <c r="T12" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>559</v>
+      <c r="T12" s="15"/>
+      <c r="U12" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>598</v>
+        <v>523</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
@@ -8966,39 +8972,40 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="7"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="M13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="N13" s="15"/>
-      <c r="O13" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="7"/>
       <c r="S13" s="15"/>
-      <c r="T13" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>559</v>
+      <c r="T13" s="15"/>
+      <c r="U13" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>598</v>
+        <v>523</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -9012,199 +9019,203 @@
       <c r="I14" s="15"/>
       <c r="J14" s="7"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="7"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>559</v>
+      <c r="T14" s="15"/>
+      <c r="U14" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>598</v>
+        <v>523</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="90" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="90" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C15" s="14">
         <v>105</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E15" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.105 Exod5</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K15" s="15"/>
-      <c r="L15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="N15" s="15"/>
-      <c r="O15" s="15" t="s">
-        <v>111</v>
-      </c>
+      <c r="O15" s="15"/>
       <c r="P15" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="R15" s="7"/>
       <c r="S15" s="15"/>
-      <c r="T15" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>559</v>
+      <c r="T15" s="15"/>
+      <c r="U15" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>598</v>
+        <v>523</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C16" s="14">
         <v>192</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E16" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.192 Exod6</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K16" s="15"/>
-      <c r="L16" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="M16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15" t="s">
+        <v>578</v>
+      </c>
       <c r="N16" s="15"/>
-      <c r="O16" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="O16" s="15"/>
       <c r="P16" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="R16" s="7"/>
       <c r="S16" s="15"/>
-      <c r="T16" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>559</v>
+      <c r="T16" s="15"/>
+      <c r="U16" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>598</v>
+        <v>523</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C17" s="14">
         <v>151</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E17" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.151 (Unid) [earlier: DDS F.Exod1]</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K17" s="15"/>
-      <c r="L17" s="15" t="s">
-        <v>615</v>
-      </c>
+      <c r="L17" s="15"/>
       <c r="M17" s="15" t="s">
-        <v>125</v>
+        <v>579</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>126</v>
+        <v>603</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="15"/>
+        <v>612</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="7"/>
       <c r="S17" s="15"/>
-      <c r="T17" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>611</v>
+      <c r="T17" s="15"/>
+      <c r="U17" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C18" s="14">
         <v>161</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E18" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -9212,46 +9223,47 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K18" s="15"/>
-      <c r="L18" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="M18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="N18" s="15"/>
-      <c r="O18" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="O18" s="15"/>
       <c r="P18" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="R18" s="7"/>
       <c r="S18" s="15"/>
-      <c r="T18" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>559</v>
+      <c r="T18" s="15"/>
+      <c r="U18" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>598</v>
+        <v>523</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
@@ -9261,87 +9273,89 @@
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="7"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="7"/>
       <c r="S19" s="15"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="1" t="s">
-        <v>560</v>
-      </c>
+      <c r="T19" s="15"/>
+      <c r="U19" s="21"/>
       <c r="V19" s="1" t="s">
-        <v>598</v>
+        <v>524</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C20" s="14">
         <v>152</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E20" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.152 Lev1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K20" s="15"/>
-      <c r="L20" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15" t="s">
-        <v>144</v>
-      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="N20" s="15"/>
       <c r="O20" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="15"/>
+        <v>613</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="7"/>
       <c r="S20" s="15"/>
-      <c r="T20" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>560</v>
+      <c r="T20" s="15"/>
+      <c r="U20" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>598</v>
+        <v>524</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
@@ -9356,37 +9370,38 @@
       <c r="J21" s="7"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="7"/>
       <c r="S21" s="15"/>
-      <c r="T21" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>560</v>
+      <c r="T21" s="15"/>
+      <c r="U21" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>598</v>
+        <v>524</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C22" s="14">
         <v>162</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E22" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -9394,150 +9409,153 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="15"/>
+      <c r="R22" s="7"/>
       <c r="S22" s="15"/>
-      <c r="T22" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>560</v>
+      <c r="T22" s="15"/>
+      <c r="U22" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>598</v>
+        <v>524</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C23" s="14">
         <v>193</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E23" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.193 Lev5</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K23" s="15"/>
-      <c r="L23" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="M23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15" t="s">
+        <v>580</v>
+      </c>
       <c r="N23" s="15"/>
-      <c r="O23" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="O23" s="15"/>
       <c r="P23" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="R23" s="7"/>
       <c r="S23" s="15"/>
-      <c r="T23" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>560</v>
+      <c r="T23" s="15"/>
+      <c r="U23" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>598</v>
+        <v>524</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C24" s="14">
         <v>203</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E24" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.203 Lev6</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="7"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="15" t="s">
-        <v>618</v>
-      </c>
-      <c r="M24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15" t="s">
+        <v>581</v>
+      </c>
       <c r="N24" s="15"/>
-      <c r="O24" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="O24" s="15"/>
       <c r="P24" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="R24" s="7"/>
       <c r="S24" s="15"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="1" t="s">
-        <v>560</v>
-      </c>
+      <c r="T24" s="15"/>
+      <c r="U24" s="21"/>
       <c r="V24" s="1" t="s">
-        <v>598</v>
+        <v>524</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
@@ -9547,54 +9565,57 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>170</v>
+        <v>590</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>171</v>
+        <v>589</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>172</v>
+        <v>605</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="R25" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="S25" s="15"/>
-      <c r="T25" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>560</v>
+      <c r="T25" s="15"/>
+      <c r="U25" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>598</v>
+        <v>524</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
@@ -9604,54 +9625,57 @@
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>170</v>
+        <v>590</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>171</v>
+        <v>589</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>172</v>
+        <v>605</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="R26" s="15"/>
+        <v>166</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="S26" s="15"/>
-      <c r="T26" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>560</v>
+      <c r="T26" s="15"/>
+      <c r="U26" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>598</v>
+        <v>524</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
@@ -9661,46 +9685,49 @@
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="7"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15" t="s">
-        <v>170</v>
+        <v>590</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>171</v>
+        <v>589</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="15"/>
+        <v>605</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="R27" s="7"/>
       <c r="S27" s="15"/>
-      <c r="T27" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>560</v>
+      <c r="T27" s="15"/>
+      <c r="U27" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>598</v>
+        <v>524</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
@@ -9715,31 +9742,32 @@
       <c r="J28" s="7"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="7"/>
       <c r="S28" s="15"/>
-      <c r="T28" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>561</v>
+      <c r="T28" s="15"/>
+      <c r="U28" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>598</v>
+        <v>525</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
@@ -9754,80 +9782,82 @@
       <c r="J29" s="7"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="7"/>
       <c r="S29" s="15"/>
-      <c r="T29" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>561</v>
+      <c r="T29" s="15"/>
+      <c r="U29" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>598</v>
+        <v>525</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="40" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C30" s="14">
         <v>194</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E30" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.194 Num2</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="7"/>
       <c r="K30" s="15"/>
-      <c r="L30" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="M30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15" t="s">
+        <v>582</v>
+      </c>
       <c r="N30" s="15"/>
-      <c r="O30" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="O30" s="15"/>
       <c r="P30" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="R30" s="7"/>
       <c r="S30" s="15"/>
-      <c r="T30" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>561</v>
+      <c r="T30" s="15"/>
+      <c r="U30" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>598</v>
+        <v>525</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
@@ -9842,88 +9872,90 @@
       <c r="J31" s="7"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="7"/>
       <c r="S31" s="15"/>
-      <c r="T31" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>561</v>
+      <c r="T31" s="15"/>
+      <c r="U31" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>598</v>
+        <v>525</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C32" s="14">
         <v>107</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E32" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.107 Num1</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="15"/>
-      <c r="L32" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="N32" s="15"/>
-      <c r="O32" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="O32" s="15"/>
       <c r="P32" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R32" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="S32" s="15"/>
-      <c r="T32" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>561</v>
+      <c r="T32" s="15"/>
+      <c r="U32" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>598</v>
+        <v>525</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
@@ -9938,145 +9970,148 @@
       <c r="J33" s="7"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="7"/>
       <c r="S33" s="15"/>
-      <c r="T33" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U33" s="1" t="s">
+      <c r="T33" s="15"/>
+      <c r="U33" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="W33" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>598</v>
-      </c>
     </row>
-    <row r="34" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C34" s="14">
         <v>108</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E34" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.108 Deut5</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="K34" s="17"/>
-      <c r="L34" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="M34" s="15"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="N34" s="15"/>
-      <c r="O34" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="O34" s="15"/>
       <c r="P34" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R34" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="S34" s="15"/>
-      <c r="T34" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="U34" s="1" t="s">
+      <c r="T34" s="15"/>
+      <c r="U34" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="W34" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>598</v>
-      </c>
     </row>
-    <row r="35" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C35" s="14">
         <v>153</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E35" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.153 Deut1</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="K35" s="15"/>
-      <c r="L35" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="O35" s="14">
+      <c r="L35" s="15"/>
+      <c r="M35" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="P35" s="14">
         <v>7</v>
       </c>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="7"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="U35" s="1" t="s">
+      <c r="T35" s="15"/>
+      <c r="U35" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="W35" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>598</v>
-      </c>
     </row>
-    <row r="36" spans="1:22" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C36" s="14">
         <v>163</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E36" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -10085,51 +10120,52 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="K36" s="17"/>
-      <c r="L36" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="M36" s="15"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="15" t="s">
+        <v>203</v>
+      </c>
       <c r="N36" s="15"/>
-      <c r="O36" s="15" t="s">
-        <v>218</v>
-      </c>
+      <c r="O36" s="15"/>
       <c r="P36" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="15"/>
+        <v>204</v>
+      </c>
+      <c r="Q36" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="R36" s="7"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="U36" s="1" t="s">
+      <c r="T36" s="15"/>
+      <c r="U36" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="W36" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>598</v>
-      </c>
     </row>
-    <row r="37" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C37" s="14">
         <v>164</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E37" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -10137,46 +10173,47 @@
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="K37" s="15"/>
-      <c r="L37" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="M37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15" t="s">
+        <v>203</v>
+      </c>
       <c r="N37" s="15"/>
-      <c r="O37" s="15" t="s">
-        <v>226</v>
-      </c>
+      <c r="O37" s="15"/>
       <c r="P37" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="15"/>
+        <v>212</v>
+      </c>
+      <c r="Q37" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="R37" s="7"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="U37" s="1" t="s">
+      <c r="T37" s="15"/>
+      <c r="U37" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="W37" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>598</v>
-      </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
@@ -10191,31 +10228,32 @@
       <c r="J38" s="7"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="7"/>
       <c r="S38" s="15"/>
-      <c r="T38" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U38" s="1" t="s">
+      <c r="T38" s="15"/>
+      <c r="U38" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="W38" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>598</v>
-      </c>
     </row>
-    <row r="39" spans="1:22" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
@@ -10225,110 +10263,110 @@
 Deut 23:3–4 [Puech?; Charlesworth?]</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>32</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="L39" s="15"/>
       <c r="M39" s="15" t="s">
-        <v>545</v>
+        <v>591</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="R39" s="15"/>
+        <v>511</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="S39" s="15"/>
-      <c r="T39" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="U39" s="1" t="s">
+      <c r="T39" s="15"/>
+      <c r="U39" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="W39" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>598</v>
-      </c>
     </row>
-    <row r="40" spans="1:22" ht="388.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="388.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C40" s="14">
         <v>154</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E40" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.154 Deut2</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="K40" s="15"/>
-      <c r="L40" s="15" t="s">
-        <v>241</v>
-      </c>
+      <c r="L40" s="15"/>
       <c r="M40" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="N40" s="15" t="s">
-        <v>547</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="N40" s="15"/>
       <c r="O40" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="R40" s="19"/>
+        <v>615</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="S40" s="19"/>
-      <c r="T40" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="U40" s="1" t="s">
+      <c r="T40" s="19"/>
+      <c r="U40" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="W40" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>598</v>
-      </c>
     </row>
-    <row r="41" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
@@ -10343,86 +10381,88 @@
       <c r="J41" s="7"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
       <c r="O41" s="15"/>
       <c r="P41" s="15"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="19"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="8"/>
       <c r="S41" s="19"/>
-      <c r="T41" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U41" s="1" t="s">
+      <c r="T41" s="19"/>
+      <c r="U41" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="W41" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>598</v>
-      </c>
     </row>
-    <row r="42" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C42" s="14">
         <v>109</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E42" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.109 Deut6</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="7"/>
       <c r="K42" s="15"/>
-      <c r="L42" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="M42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="N42" s="15"/>
-      <c r="O42" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="O42" s="15"/>
       <c r="P42" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R42" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="Q42" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="S42" s="15"/>
-      <c r="T42" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="U42" s="1" t="s">
+      <c r="T42" s="15"/>
+      <c r="U42" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="W42" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>598</v>
-      </c>
     </row>
-    <row r="43" spans="1:22" ht="50" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="50" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
@@ -10434,46 +10474,47 @@
       <c r="G43" s="7"/>
       <c r="H43" s="15"/>
       <c r="I43" s="15" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="15" t="s">
-        <v>258</v>
-      </c>
+      <c r="O43" s="15"/>
       <c r="P43" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q43" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="R43" s="19"/>
+        <v>240</v>
+      </c>
+      <c r="Q43" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="S43" s="19"/>
-      <c r="T43" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="U43" s="15" t="s">
+      <c r="T43" s="19"/>
+      <c r="U43" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="V43" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="W43" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>599</v>
-      </c>
     </row>
-    <row r="44" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="15"/>
@@ -10483,48 +10524,49 @@
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="9" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>266</v>
+        <v>595</v>
       </c>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="15" t="s">
-        <v>258</v>
-      </c>
+      <c r="O44" s="15"/>
       <c r="P44" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="R44" s="15"/>
+        <v>240</v>
+      </c>
+      <c r="Q44" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="S44" s="15"/>
-      <c r="T44" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="U44" s="15" t="s">
+      <c r="T44" s="15"/>
+      <c r="U44" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="V44" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="W44" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>599</v>
-      </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="15"/>
@@ -10539,31 +10581,32 @@
       <c r="J45" s="7"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="7"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U45" s="15" t="s">
+      <c r="T45" s="15"/>
+      <c r="U45" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V45" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="W45" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>599</v>
-      </c>
     </row>
-    <row r="46" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
@@ -10576,196 +10619,200 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="7" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="15" t="s">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
-      <c r="O46" s="15" t="s">
-        <v>274</v>
-      </c>
+      <c r="O46" s="15"/>
       <c r="P46" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="15"/>
+        <v>254</v>
+      </c>
+      <c r="Q46" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="R46" s="7"/>
       <c r="S46" s="15"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="15" t="s">
+      <c r="T46" s="15"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="W46" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>599</v>
-      </c>
     </row>
-    <row r="47" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C47" s="14">
         <v>120</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="E47" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.120 Ruth1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="7"/>
       <c r="K47" s="15"/>
-      <c r="L47" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="M47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15" t="s">
+        <v>260</v>
+      </c>
       <c r="N47" s="15"/>
-      <c r="O47" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="O47" s="15"/>
       <c r="P47" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R47" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="Q47" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="S47" s="15"/>
-      <c r="T47" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="U47" s="15" t="s">
+      <c r="T47" s="15"/>
+      <c r="U47" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="V47" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="W47" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>600</v>
-      </c>
     </row>
-    <row r="48" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="C48" s="14">
         <v>112</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="E48" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.112 Sam1</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="7"/>
       <c r="K48" s="15"/>
-      <c r="L48" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="M48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="N48" s="15"/>
-      <c r="O48" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="O48" s="15"/>
       <c r="P48" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="R48" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="Q48" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="R48" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="S48" s="19"/>
-      <c r="T48" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="U48" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>599</v>
+      <c r="T48" s="19"/>
+      <c r="U48" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="V48" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C49" s="14">
         <v>113</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E49" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.113 Sam2</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="7"/>
       <c r="K49" s="15"/>
-      <c r="L49" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="M49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="N49" s="15"/>
-      <c r="O49" s="15" t="s">
-        <v>111</v>
-      </c>
+      <c r="O49" s="15"/>
       <c r="P49" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R49" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="Q49" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="S49" s="15"/>
-      <c r="T49" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="U49" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>599</v>
+      <c r="T49" s="15"/>
+      <c r="U49" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="V49" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="15"/>
@@ -10780,94 +10827,96 @@
       <c r="J50" s="7"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
       <c r="O50" s="15"/>
       <c r="P50" s="15"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="7"/>
       <c r="S50" s="15"/>
-      <c r="T50" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U50" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>599</v>
+      <c r="T50" s="15"/>
+      <c r="U50" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V50" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C51" s="14">
         <v>114</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="E51" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.114 Sam3</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="K51" s="15"/>
-      <c r="L51" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="M51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="N51" s="15"/>
-      <c r="O51" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="O51" s="15"/>
       <c r="P51" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R51" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="Q51" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="S51" s="15"/>
-      <c r="T51" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="U51" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>599</v>
+      <c r="T51" s="15"/>
+      <c r="U51" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="V51" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C52" s="14">
         <v>170</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="E52" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -10879,89 +10928,91 @@
       <c r="I52" s="15"/>
       <c r="J52" s="7"/>
       <c r="K52" s="15"/>
-      <c r="L52" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="M52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15" t="s">
+        <v>286</v>
+      </c>
       <c r="N52" s="15"/>
-      <c r="O52" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="O52" s="15"/>
       <c r="P52" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="Q52" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="R52" s="7"/>
       <c r="S52" s="15"/>
-      <c r="T52" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="U52" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>599</v>
+      <c r="T52" s="15"/>
+      <c r="U52" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="V52" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C53" s="14">
         <v>115</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E53" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.115 Kgs1</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="7"/>
       <c r="K53" s="15"/>
-      <c r="L53" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="M53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15" t="s">
+        <v>293</v>
+      </c>
       <c r="N53" s="15"/>
-      <c r="O53" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="O53" s="15"/>
       <c r="P53" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="Q53" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="R53" s="7"/>
       <c r="S53" s="15"/>
-      <c r="T53" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="U53" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>599</v>
+      <c r="T53" s="15"/>
+      <c r="U53" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="V53" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="15"/>
@@ -10976,31 +11027,32 @@
       <c r="J54" s="7"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
       <c r="O54" s="15"/>
       <c r="P54" s="15"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="7"/>
       <c r="S54" s="15"/>
-      <c r="T54" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U54" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>599</v>
+      <c r="T54" s="15"/>
+      <c r="U54" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V54" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="15"/>
@@ -11015,253 +11067,258 @@
       <c r="J55" s="7"/>
       <c r="K55" s="15"/>
       <c r="L55" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
       <c r="O55" s="15"/>
       <c r="P55" s="15"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="7"/>
       <c r="S55" s="15"/>
-      <c r="T55" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U55" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>599</v>
+      <c r="T55" s="15"/>
+      <c r="U55" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V55" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C56" s="14">
         <v>201</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E56" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.201 Neh2</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="7"/>
       <c r="K56" s="15"/>
-      <c r="L56" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="M56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15" t="s">
+        <v>582</v>
+      </c>
       <c r="N56" s="15"/>
-      <c r="O56" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="O56" s="15"/>
       <c r="P56" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="Q56" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="R56" s="7"/>
       <c r="S56" s="15"/>
-      <c r="T56" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="U56" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>600</v>
+      <c r="T56" s="15"/>
+      <c r="U56" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="V56" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C57" s="14">
         <v>122</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="E57" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.122 Neh1</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="25" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="7" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="K57" s="15"/>
-      <c r="L57" s="15" t="s">
-        <v>327</v>
-      </c>
+      <c r="L57" s="15"/>
       <c r="M57" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15" t="s">
-        <v>33</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="O57" s="15"/>
       <c r="P57" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q57" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="R57" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="Q57" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="R57" s="9" t="s">
+        <v>227</v>
+      </c>
       <c r="S57" s="19"/>
-      <c r="T57" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="U57" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>600</v>
+      <c r="T57" s="19"/>
+      <c r="U57" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="V57" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C58" s="14">
         <v>118</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="E58" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.118 Ps2</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="15" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="K58" s="15"/>
-      <c r="L58" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="M58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15" t="s">
+        <v>316</v>
+      </c>
       <c r="N58" s="15"/>
-      <c r="O58" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="O58" s="15"/>
       <c r="P58" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R58" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="Q58" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="R58" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="S58" s="15"/>
-      <c r="T58" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="U58" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>600</v>
+      <c r="T58" s="15"/>
+      <c r="U58" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="V58" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="C59" s="14">
         <v>199</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="E59" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.199 Ps3</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="19" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="L59" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="M59" s="15"/>
+        <v>325</v>
+      </c>
+      <c r="L59" s="19"/>
+      <c r="M59" s="15" t="s">
+        <v>583</v>
+      </c>
       <c r="N59" s="15"/>
-      <c r="O59" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="O59" s="15"/>
       <c r="P59" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="R59" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="S59" s="15"/>
-      <c r="T59" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="U59" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>600</v>
+        <v>29</v>
+      </c>
+      <c r="Q59" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="R59" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S59" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="T59" s="15"/>
+      <c r="U59" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="V59" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="15"/>
@@ -11272,51 +11329,52 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="15" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="L60" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="M60" s="15"/>
+        <v>333</v>
+      </c>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15" t="s">
+        <v>334</v>
+      </c>
       <c r="N60" s="15"/>
-      <c r="O60" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="7"/>
       <c r="S60" s="15"/>
-      <c r="T60" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="U60" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>600</v>
+      <c r="T60" s="15"/>
+      <c r="U60" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="V60" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C61" s="14">
         <v>165</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="E61" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -11324,48 +11382,47 @@
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="15"/>
-      <c r="L61" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="O61" s="15" t="s">
-        <v>258</v>
-      </c>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
       <c r="P61" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="15"/>
+        <v>240</v>
+      </c>
+      <c r="Q61" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="R61" s="7"/>
       <c r="S61" s="15"/>
-      <c r="T61" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="U61" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>600</v>
+      <c r="T61" s="15"/>
+      <c r="U61" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="V61" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="15"/>
@@ -11380,31 +11437,32 @@
       <c r="J62" s="7"/>
       <c r="K62" s="15"/>
       <c r="L62" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
       <c r="O62" s="15"/>
       <c r="P62" s="15"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="7"/>
       <c r="S62" s="15"/>
-      <c r="T62" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U62" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>600</v>
+      <c r="T62" s="15"/>
+      <c r="U62" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V62" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="15"/>
@@ -11415,37 +11473,38 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="15" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="7"/>
       <c r="K63" s="15"/>
       <c r="L63" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
       <c r="O63" s="15"/>
       <c r="P63" s="15"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="7"/>
       <c r="S63" s="15"/>
-      <c r="T63" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="U63" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>600</v>
+      <c r="T63" s="15"/>
+      <c r="U63" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="V63" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="15"/>
@@ -11460,82 +11519,84 @@
       <c r="J64" s="7"/>
       <c r="K64" s="15"/>
       <c r="L64" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
       <c r="P64" s="15"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="7"/>
       <c r="S64" s="15"/>
-      <c r="T64" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U64" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>600</v>
+      <c r="T64" s="15"/>
+      <c r="U64" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V64" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C65" s="14">
         <v>119</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="E65" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.119 Prov1</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="7"/>
       <c r="K65" s="15"/>
-      <c r="L65" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="N65" s="15"/>
-      <c r="O65" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="O65" s="15"/>
       <c r="P65" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="Q65" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="R65" s="7"/>
       <c r="S65" s="15"/>
-      <c r="T65" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="U65" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>600</v>
+      <c r="T65" s="15"/>
+      <c r="U65" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="V65" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="15"/>
@@ -11544,57 +11605,58 @@
         <v>Isa 24:16–17</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="L66" s="15" t="s">
-        <v>32</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="L66" s="15"/>
       <c r="M66" s="15" t="s">
-        <v>548</v>
+        <v>591</v>
       </c>
       <c r="N66" s="15" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="O66" s="15" t="s">
-        <v>111</v>
+        <v>511</v>
       </c>
       <c r="P66" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="R66" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="Q66" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="R66" s="7" t="s">
+        <v>358</v>
+      </c>
       <c r="S66" s="15"/>
-      <c r="T66" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="U66" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>599</v>
+      <c r="T66" s="15"/>
+      <c r="U66" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="V66" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="153" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="15"/>
@@ -11603,57 +11665,58 @@
         <v>Isa 26:19–27:1</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="16" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="I67" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="J67" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="K67" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="L67" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M67" s="15" t="s">
-        <v>549</v>
-      </c>
       <c r="N67" s="15" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="O67" s="15" t="s">
-        <v>97</v>
+        <v>511</v>
       </c>
       <c r="P67" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="R67" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="Q67" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="R67" s="7" t="s">
+        <v>358</v>
+      </c>
       <c r="S67" s="15"/>
-      <c r="T67" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="U67" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>599</v>
+      <c r="T67" s="15"/>
+      <c r="U67" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="V67" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="90" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="90" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="15"/>
@@ -11664,157 +11727,160 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="15" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="7"/>
       <c r="K68" s="15"/>
       <c r="L68" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
-      <c r="O68" s="15" t="s">
-        <v>388</v>
-      </c>
+      <c r="O68" s="15"/>
       <c r="P68" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="15"/>
+        <v>367</v>
+      </c>
+      <c r="Q68" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="R68" s="7"/>
       <c r="S68" s="15"/>
-      <c r="T68" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="U68" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="V68" s="1" t="s">
-        <v>599</v>
+      <c r="T68" s="15"/>
+      <c r="U68" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="V68" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="165" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="165" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="C69" s="14">
         <v>116</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E69" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.116 Jer1</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="K69" s="17"/>
-      <c r="L69" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M69" s="15"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="N69" s="15"/>
-      <c r="O69" s="15" t="s">
-        <v>258</v>
-      </c>
+      <c r="O69" s="15"/>
       <c r="P69" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q69" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R69" s="19"/>
+        <v>240</v>
+      </c>
+      <c r="Q69" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="R69" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="S69" s="19"/>
-      <c r="T69" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="U69" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>599</v>
+      <c r="T69" s="19"/>
+      <c r="U69" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="V69" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="80" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="80" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="C70" s="14">
         <v>195</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="E70" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.195 Jer2</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
       <c r="J70" s="7"/>
       <c r="K70" s="15"/>
-      <c r="L70" s="15" t="s">
-        <v>621</v>
-      </c>
+      <c r="L70" s="15"/>
       <c r="M70" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="R70" s="19"/>
+        <v>584</v>
+      </c>
+      <c r="N70" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="7" t="s">
+        <v>381</v>
+      </c>
       <c r="S70" s="19"/>
-      <c r="T70" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="U70" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="V70" s="1" t="s">
-        <v>599</v>
+      <c r="T70" s="19"/>
+      <c r="U70" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="V70" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="C71" s="14">
         <v>156</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="E71" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -11823,159 +11889,162 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="15" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="L71" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="M71" s="15"/>
+        <v>387</v>
+      </c>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15" t="s">
+        <v>596</v>
+      </c>
       <c r="N71" s="15"/>
-      <c r="O71" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="O71" s="15"/>
       <c r="P71" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q71" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="R71" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="Q71" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="R71" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="S71" s="15"/>
-      <c r="T71" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="U71" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="V71" s="1" t="s">
-        <v>599</v>
+      <c r="T71" s="15"/>
+      <c r="U71" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="V71" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="C72" s="14">
         <v>196</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="E72" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.196 Ezek1</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
       <c r="J72" s="7"/>
       <c r="K72" s="15"/>
-      <c r="L72" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="M72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15" t="s">
+        <v>585</v>
+      </c>
       <c r="N72" s="15"/>
-      <c r="O72" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="R72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="7" t="s">
+        <v>393</v>
+      </c>
       <c r="S72" s="15"/>
-      <c r="T72" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="U72" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="V72" s="1" t="s">
-        <v>599</v>
+      <c r="T72" s="15"/>
+      <c r="U72" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="V72" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="C73" s="14">
         <v>155</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="E73" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.155 Dan1</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="15" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="I73" s="15"/>
       <c r="J73" s="7" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="K73" s="15"/>
-      <c r="L73" s="15" t="s">
-        <v>143</v>
-      </c>
+      <c r="L73" s="15"/>
       <c r="M73" s="15" t="s">
-        <v>423</v>
+        <v>579</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>424</v>
+        <v>607</v>
       </c>
       <c r="O73" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="15"/>
+        <v>616</v>
+      </c>
+      <c r="P73" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="7"/>
       <c r="S73" s="15"/>
-      <c r="T73" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="U73" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>600</v>
+      <c r="T73" s="15"/>
+      <c r="U73" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="V73" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="C74" s="14">
         <v>166</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="E74" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -11984,51 +12053,52 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="K74" s="15"/>
-      <c r="L74" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="M74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="N74" s="15"/>
-      <c r="O74" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="O74" s="15"/>
       <c r="P74" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="Q74" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="R74" s="7"/>
       <c r="S74" s="15"/>
-      <c r="T74" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="U74" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="V74" s="1" t="s">
-        <v>600</v>
+      <c r="T74" s="15"/>
+      <c r="U74" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="V74" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="C75" s="14">
         <v>167</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="E75" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -12037,90 +12107,92 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="7"/>
       <c r="K75" s="15"/>
-      <c r="L75" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="M75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="N75" s="15"/>
-      <c r="O75" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="O75" s="15"/>
       <c r="P75" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="Q75" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="R75" s="7"/>
       <c r="S75" s="15"/>
-      <c r="T75" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="U75" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>600</v>
+      <c r="T75" s="15"/>
+      <c r="U75" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="V75" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C76" s="14">
         <v>200</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="E76" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.200 Dan6</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
       <c r="J76" s="7"/>
       <c r="K76" s="15"/>
-      <c r="L76" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="M76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15" t="s">
+        <v>585</v>
+      </c>
       <c r="N76" s="15"/>
-      <c r="O76" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="R76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="S76" s="15"/>
-      <c r="T76" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="U76" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="V76" s="1" t="s">
-        <v>600</v>
+      <c r="T76" s="15"/>
+      <c r="U76" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="V76" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="15"/>
@@ -12135,31 +12207,32 @@
       <c r="J77" s="7"/>
       <c r="K77" s="15"/>
       <c r="L77" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
       <c r="O77" s="15"/>
       <c r="P77" s="15"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="7"/>
       <c r="S77" s="15"/>
-      <c r="T77" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U77" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="V77" s="1" t="s">
-        <v>600</v>
+      <c r="T77" s="15"/>
+      <c r="U77" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V77" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="50" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="50" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="15"/>
@@ -12174,35 +12247,36 @@
       <c r="J78" s="7"/>
       <c r="K78" s="15"/>
       <c r="L78" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
-      <c r="O78" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="O78" s="15"/>
       <c r="P78" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="Q78" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="R78" s="8"/>
       <c r="S78" s="15"/>
-      <c r="T78" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="U78" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="V78" s="1" t="s">
-        <v>600</v>
+      <c r="T78" s="15"/>
+      <c r="U78" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="V78" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="C79" s="14"/>
       <c r="D79" s="15"/>
@@ -12213,45 +12287,46 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="15" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="8"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="M79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19" t="s">
+        <v>422</v>
+      </c>
       <c r="N79" s="19"/>
-      <c r="O79" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="15"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="7"/>
       <c r="S79" s="15"/>
-      <c r="T79" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="U79" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="V79" s="1" t="s">
-        <v>600</v>
+      <c r="T79" s="15"/>
+      <c r="U79" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="V79" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="C80" s="14">
         <v>181</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="E80" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -12259,44 +12334,45 @@
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="8" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="8"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="M80" s="15"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="15" t="s">
+        <v>427</v>
+      </c>
       <c r="N80" s="15"/>
-      <c r="O80" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="O80" s="15"/>
       <c r="P80" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q80" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="R80" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="Q80" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="R80" s="9" t="s">
+        <v>429</v>
+      </c>
       <c r="S80" s="15"/>
-      <c r="T80" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="U80" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="V80" s="1" t="s">
-        <v>600</v>
+      <c r="T80" s="15"/>
+      <c r="U80" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="V80" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="15"/>
@@ -12310,130 +12386,133 @@
       <c r="I81" s="15"/>
       <c r="J81" s="8"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="15" t="s">
-        <v>457</v>
+      <c r="L81" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="15"/>
       <c r="O81" s="15"/>
       <c r="P81" s="15"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="7"/>
       <c r="S81" s="15"/>
-      <c r="T81" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="U81" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="V81" s="1" t="s">
-        <v>600</v>
+      <c r="T81" s="15"/>
+      <c r="U81" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V81" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="C82" s="14">
         <v>197</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="E82" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.197 Jon1</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
       <c r="J82" s="7"/>
       <c r="K82" s="15"/>
-      <c r="L82" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="M82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15" t="s">
+        <v>585</v>
+      </c>
       <c r="N82" s="15"/>
-      <c r="O82" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="R82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="7" t="s">
+        <v>435</v>
+      </c>
       <c r="S82" s="15"/>
-      <c r="T82" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="U82" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="V82" s="1" t="s">
-        <v>600</v>
+      <c r="T82" s="15"/>
+      <c r="U82" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="V82" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="C83" s="14">
         <v>198</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="E83" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.198 Mic1</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="J83" s="7"/>
       <c r="K83" s="15"/>
-      <c r="L83" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="M83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15" t="s">
+        <v>585</v>
+      </c>
       <c r="N83" s="15"/>
-      <c r="O83" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="R83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="7" t="s">
+        <v>440</v>
+      </c>
       <c r="S83" s="15"/>
-      <c r="T83" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="U83" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="V83" s="1" t="s">
-        <v>600</v>
+      <c r="T83" s="15"/>
+      <c r="U83" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="V83" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="W83" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="15"/>
@@ -12443,315 +12522,321 @@
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
       <c r="J84" s="7"/>
       <c r="K84" s="15"/>
       <c r="L84" s="15" t="s">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="15"/>
-      <c r="O84" s="14">
+      <c r="O84" s="15"/>
+      <c r="P84" s="14">
         <v>4</v>
       </c>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="7"/>
       <c r="S84" s="15"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="V84" s="1" t="s">
-        <v>604</v>
+      <c r="T84" s="15"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="W84" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="C85" s="14">
         <v>123</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="E85" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.123 Tob1</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="15"/>
       <c r="I85" s="15" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="K85" s="19"/>
-      <c r="L85" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="M85" s="15"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="N85" s="15"/>
-      <c r="O85" s="15" t="s">
-        <v>226</v>
-      </c>
+      <c r="O85" s="15"/>
       <c r="P85" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q85" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="R85" s="15"/>
+        <v>212</v>
+      </c>
+      <c r="Q85" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="R85" s="7" t="s">
+        <v>449</v>
+      </c>
       <c r="S85" s="15"/>
-      <c r="T85" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="U85" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="V85" s="1" t="s">
-        <v>604</v>
+      <c r="T85" s="15"/>
+      <c r="U85" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="V85" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="W85" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="80" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="80" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="C86" s="14">
         <v>124</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="E86" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.124 En1</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="15"/>
       <c r="I86" s="15" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="K86" s="15"/>
-      <c r="L86" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="N86" s="15"/>
-      <c r="O86" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="O86" s="15"/>
       <c r="P86" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="Q86" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="R86" s="7"/>
       <c r="S86" s="15"/>
-      <c r="T86" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="U86" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="V86" s="1" t="s">
-        <v>606</v>
+      <c r="T86" s="15"/>
+      <c r="U86" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="V86" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="W86" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>86</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="C87" s="14">
         <v>125</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="E87" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.125 En2</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I87" s="15"/>
       <c r="J87" s="9" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="L87" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="M87" s="15"/>
+        <v>461</v>
+      </c>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15" t="s">
+        <v>597</v>
+      </c>
       <c r="N87" s="15"/>
-      <c r="O87" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="O87" s="15"/>
       <c r="P87" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="Q87" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="R87" s="7"/>
       <c r="S87" s="15"/>
-      <c r="T87" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="U87" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="V87" s="1" t="s">
-        <v>606</v>
+      <c r="T87" s="15"/>
+      <c r="U87" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="V87" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="W87" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>87</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="C88" s="14">
         <v>126</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="E88" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.126 En3</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="9" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="K88" s="15"/>
-      <c r="L88" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15" t="s">
-        <v>497</v>
-      </c>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="N88" s="15"/>
       <c r="O88" s="15" t="s">
-        <v>22</v>
+        <v>617</v>
       </c>
       <c r="P88" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="Q88" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="R88" s="8"/>
       <c r="S88" s="19"/>
-      <c r="T88" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="U88" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="V88" s="1" t="s">
-        <v>606</v>
+      <c r="T88" s="19"/>
+      <c r="U88" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="V88" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="200" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="200" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>88</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="C89" s="14">
         <v>202</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="E89" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.202 Instr1</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="15"/>
       <c r="I89" s="15" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="K89" s="15"/>
-      <c r="L89" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="M89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15" t="s">
+        <v>586</v>
+      </c>
       <c r="N89" s="15"/>
-      <c r="O89" s="15" t="s">
-        <v>111</v>
-      </c>
+      <c r="O89" s="15"/>
       <c r="P89" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q89" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="R89" s="15" t="s">
-        <v>504</v>
+        <v>106</v>
+      </c>
+      <c r="Q89" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="R89" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="S89" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="T89" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="U89" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="V89" s="1" t="s">
-        <v>608</v>
+        <v>475</v>
+      </c>
+      <c r="T89" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="U89" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="V89" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="W89" s="1" t="s">
+        <v>572</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>89</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>602</v>
+        <v>566</v>
       </c>
       <c r="C90" s="14"/>
       <c r="D90" s="15"/>
@@ -12760,7 +12845,7 @@
         <v>Instruction (“4Q418”)</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="15"/>
@@ -12768,31 +12853,32 @@
       <c r="J90" s="7"/>
       <c r="K90" s="15"/>
       <c r="L90" s="15" t="s">
-        <v>508</v>
+        <v>45</v>
       </c>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
       <c r="P90" s="15"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="7"/>
       <c r="S90" s="15"/>
-      <c r="T90" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="U90" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="V90" s="1" t="s">
-        <v>608</v>
+      <c r="T90" s="15"/>
+      <c r="U90" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="V90" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="W90" s="1" t="s">
+        <v>572</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="15"/>
@@ -12804,34 +12890,35 @@
       <c r="G91" s="7"/>
       <c r="H91" s="15"/>
       <c r="I91" s="15" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="15"/>
       <c r="L91" s="15" t="s">
-        <v>512</v>
+        <v>45</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
       <c r="P91" s="15"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="7"/>
       <c r="S91" s="15"/>
-      <c r="T91" s="21"/>
-      <c r="U91" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="V91" s="1" t="s">
-        <v>608</v>
+      <c r="T91" s="15"/>
+      <c r="U91" s="21"/>
+      <c r="V91" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>572</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>91</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="C92" s="14"/>
       <c r="D92" s="15"/>
@@ -12843,85 +12930,87 @@
       <c r="G92" s="7"/>
       <c r="H92" s="15"/>
       <c r="I92" s="15" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="15"/>
       <c r="L92" s="15" t="s">
-        <v>512</v>
+        <v>45</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
-      <c r="P92" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="R92" s="7"/>
       <c r="S92" s="15"/>
-      <c r="T92" s="21"/>
-      <c r="U92" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="V92" s="1" t="s">
-        <v>608</v>
+      <c r="T92" s="15"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="W92" s="1" t="s">
+        <v>572</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>92</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="C93" s="14">
         <v>130</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="E93" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.130 CommGen</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="15"/>
       <c r="I93" s="15" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="15"/>
-      <c r="L93" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="M93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15" t="s">
+        <v>293</v>
+      </c>
       <c r="N93" s="15"/>
-      <c r="O93" s="15" t="s">
-        <v>111</v>
-      </c>
+      <c r="O93" s="15"/>
       <c r="P93" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="Q93" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="R93" s="7"/>
       <c r="S93" s="15"/>
-      <c r="T93" s="21"/>
-      <c r="U93" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="V93" s="1" t="s">
-        <v>608</v>
+      <c r="T93" s="15"/>
+      <c r="U93" s="21"/>
+      <c r="V93" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="W93" s="1" t="s">
+        <v>572</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>93</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="C94" s="14">
         <v>132</v>
@@ -12932,47 +13021,48 @@
         <v xml:space="preserve">DSS F.132 </v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="J94" s="7"/>
       <c r="K94" s="15"/>
-      <c r="L94" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="M94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15" t="s">
+        <v>598</v>
+      </c>
       <c r="N94" s="15"/>
-      <c r="O94" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="O94" s="15"/>
       <c r="P94" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="Q94" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="R94" s="7"/>
       <c r="S94" s="15"/>
-      <c r="T94" s="21"/>
-      <c r="U94" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="V94" s="1" t="s">
-        <v>520</v>
+      <c r="T94" s="15"/>
+      <c r="U94" s="21"/>
+      <c r="V94" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="W94" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>94</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="C95" s="14">
         <v>168</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="E95" s="10" t="str">
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
@@ -12980,44 +13070,45 @@
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="7"/>
       <c r="K95" s="15"/>
-      <c r="L95" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="M95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15" t="s">
+        <v>203</v>
+      </c>
       <c r="N95" s="15"/>
-      <c r="O95" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="O95" s="15"/>
       <c r="P95" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="Q95" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="R95" s="7"/>
       <c r="S95" s="15"/>
-      <c r="T95" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="U95" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="V95" s="1" t="s">
-        <v>520</v>
+      <c r="T95" s="15"/>
+      <c r="U95" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="V95" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="W95" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="56" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" ht="56" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>95</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="15"/>
@@ -13026,43 +13117,44 @@
         <v>Unidentified</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="7"/>
       <c r="K96" s="15"/>
-      <c r="L96" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="M96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15" t="s">
+        <v>497</v>
+      </c>
       <c r="N96" s="15"/>
-      <c r="O96" s="15" t="s">
-        <v>530</v>
-      </c>
+      <c r="O96" s="15"/>
       <c r="P96" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="15"/>
+        <v>498</v>
+      </c>
+      <c r="Q96" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="R96" s="7"/>
       <c r="S96" s="15"/>
-      <c r="T96" s="21"/>
-      <c r="U96" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="V96" s="1" t="s">
-        <v>520</v>
+      <c r="T96" s="15"/>
+      <c r="U96" s="21"/>
+      <c r="V96" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="W96" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="126" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="126" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>96</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="C97" s="14"/>
       <c r="D97" s="15"/>
@@ -13072,36 +13164,37 @@
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="J97" s="7"/>
       <c r="K97" s="15"/>
       <c r="L97" s="15" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
       <c r="P97" s="15"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="7"/>
       <c r="S97" s="15"/>
-      <c r="T97" s="21"/>
-      <c r="U97" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="V97" s="1" t="s">
-        <v>520</v>
+      <c r="T97" s="15"/>
+      <c r="U97" s="21"/>
+      <c r="V97" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="W97" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="126" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" ht="126" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>97</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="15"/>
@@ -13111,36 +13204,37 @@
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7" t="s">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="7"/>
       <c r="K98" s="15"/>
       <c r="L98" s="15" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
       <c r="P98" s="15"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="7"/>
       <c r="S98" s="15"/>
-      <c r="T98" s="21"/>
-      <c r="U98" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="V98" s="1" t="s">
-        <v>520</v>
+      <c r="T98" s="15"/>
+      <c r="U98" s="21"/>
+      <c r="V98" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="W98" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>98</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="15"/>
@@ -13149,37 +13243,38 @@
         <v>Unidentified</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
       <c r="J99" s="7"/>
       <c r="K99" s="15"/>
-      <c r="L99" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="M99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15" t="s">
+        <v>587</v>
+      </c>
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
       <c r="P99" s="15"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="7"/>
       <c r="S99" s="15"/>
-      <c r="T99" s="21"/>
-      <c r="U99" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="V99" s="1" t="s">
-        <v>520</v>
+      <c r="T99" s="15"/>
+      <c r="U99" s="21"/>
+      <c r="V99" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="W99" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>99</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="15"/>
@@ -13188,37 +13283,38 @@
         <v>Unidentified</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
       <c r="J100" s="7"/>
       <c r="K100" s="15"/>
-      <c r="L100" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="M100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15" t="s">
+        <v>588</v>
+      </c>
       <c r="N100" s="15"/>
       <c r="O100" s="15"/>
       <c r="P100" s="15"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="7"/>
       <c r="S100" s="15"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="V100" s="1" t="s">
-        <v>520</v>
+      <c r="T100" s="15"/>
+      <c r="U100" s="21"/>
+      <c r="V100" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="W100" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>100</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="C101" s="14"/>
       <c r="D101" s="15"/>
@@ -13227,37 +13323,38 @@
         <v>Unidentified</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
       <c r="J101" s="7"/>
       <c r="K101" s="15"/>
-      <c r="L101" s="15" t="s">
-        <v>626</v>
-      </c>
-      <c r="M101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15" t="s">
+        <v>588</v>
+      </c>
       <c r="N101" s="15"/>
       <c r="O101" s="15"/>
       <c r="P101" s="15"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="7"/>
       <c r="S101" s="15"/>
-      <c r="T101" s="21"/>
-      <c r="U101" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="V101" s="1" t="s">
-        <v>520</v>
+      <c r="T101" s="15"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="W101" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="C102" s="14"/>
       <c r="D102" s="15"/>
@@ -13267,40 +13364,43 @@
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
       <c r="J102" s="7"/>
       <c r="K102" s="15"/>
       <c r="L102" s="15" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="M102" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="N102" s="15"/>
+        <v>507</v>
+      </c>
+      <c r="N102" s="15" t="s">
+        <v>608</v>
+      </c>
       <c r="O102" s="15"/>
       <c r="P102" s="15"/>
-      <c r="Q102" s="7"/>
-      <c r="R102" s="15"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="7"/>
       <c r="S102" s="15"/>
-      <c r="T102" s="21"/>
-      <c r="U102" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="V102" s="1" t="s">
-        <v>520</v>
+      <c r="T102" s="15"/>
+      <c r="U102" s="21"/>
+      <c r="V102" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="W102" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I59" r:id="rId1" location="v=onepage&amp;q=Sch%C3%B8yen&amp;f=false" display="https://books.google.no/books?id=Cs3RAgAAQBAJ&amp;pg=PA238&amp;lpg=PA238&amp;dq=PSALMS+DEAD+SEA+SCROLL+schoyen&amp;source=bl&amp;ots=9S5NHKbhNy&amp;sig=D1Mzi1d85boxzbk6tQCqiCZeEzw&amp;hl=no&amp;sa=X&amp;ei=7SVGVb-yO8KfsAGa_oHADw&amp;ved=0CFAQ6AEwBw - v=onepage&amp;q=Sch%C3%B8yen&amp;f=false" xr:uid="{151E52F6-AC3D-8948-A541-40365B388144}"/>
-    <hyperlink ref="L79" r:id="rId2" display="https://web.archive.org/web/20131011210336/http:/www.thekjvbible.com:80/onlinegallery/12/Dead+Sea+Scroll+Fragment" xr:uid="{A577A659-34A1-C34E-84ED-B965268DAB71}"/>
+    <hyperlink ref="M79" r:id="rId2" display="https://web.archive.org/web/20131011210336/http:/www.thekjvbible.com:80/onlinegallery/12/Dead+Sea+Scroll+Fragment" xr:uid="{A577A659-34A1-C34E-84ED-B965268DAB71}"/>
     <hyperlink ref="G80" r:id="rId3" display="http://web.archive.org/web/20131229042349/http:/www.laniertheologicallibrary.org/original-dead-sea-scrolls-fragment-on-display/" xr:uid="{795B567B-2EAD-F743-B40F-F257B05A4EA7}"/>
-    <hyperlink ref="Q40" r:id="rId4" display="http://shomron0.tripod.com/2008/julyaugust.html" xr:uid="{1A0A489E-7295-B84B-BE6A-04624A263796}"/>
-    <hyperlink ref="Q43" r:id="rId5" location="metadata_info_tab_contents" display="Émile Puech, &quot;Notes sur le manuscrit des Juges 4Q50a,&quot; RevQ 21.2 (2003): 315–19" xr:uid="{C08DF31B-0D56-4381-B0A3-C8253DD349AA}"/>
+    <hyperlink ref="R40" r:id="rId4" display="http://shomron0.tripod.com/2008/julyaugust.html" xr:uid="{1A0A489E-7295-B84B-BE6A-04624A263796}"/>
+    <hyperlink ref="R43" r:id="rId5" location="metadata_info_tab_contents" display="Émile Puech, &quot;Notes sur le manuscrit des Juges 4Q50a,&quot; RevQ 21.2 (2003): 315–19" xr:uid="{C08DF31B-0D56-4381-B0A3-C8253DD349AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/data/post2002DB-v2.xlsx
+++ b/data/post2002DB-v2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hildad/Documents/GitHub/lyingpendatabases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3513BAE4-9CAA-5542-9489-18C37414B4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B35830-4197-F442-BC53-F8FED5FE25C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{CB7DAB00-11D3-3A4F-BDDA-5DEC01C2CC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Database of Post-2002 Fragments" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_GoBack" localSheetId="0">'Database of Post-2002 Fragments'!$G$10</definedName>
+    <definedName name="_GoBack" localSheetId="0">'Database of Post-2002 Fragments'!$H$10</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -94,7 +94,7 @@
     Har jeg eller du den?</t>
       </text>
     </comment>
-    <comment ref="H8" authorId="4" shapeId="0" xr:uid="{063009AE-1C47-5A44-9964-20755F5B4EFA}">
+    <comment ref="I8" authorId="4" shapeId="0" xr:uid="{063009AE-1C47-5A44-9964-20755F5B4EFA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -104,7 +104,7 @@
     Ja. Det bør inn :)</t>
       </text>
     </comment>
-    <comment ref="I8" authorId="5" shapeId="0" xr:uid="{6D446EEB-A84E-1D4E-9690-7BBD845E700E}">
+    <comment ref="J8" authorId="5" shapeId="0" xr:uid="{6D446EEB-A84E-1D4E-9690-7BBD845E700E}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,7 +128,7 @@
     Kilde </t>
       </text>
     </comment>
-    <comment ref="I10" authorId="8" shapeId="0" xr:uid="{31C85DC9-8535-E64A-9D2C-8875E7AA0864}">
+    <comment ref="J10" authorId="8" shapeId="0" xr:uid="{31C85DC9-8535-E64A-9D2C-8875E7AA0864}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -168,7 +168,7 @@
     Er NOVA-referansen riktig?</t>
       </text>
     </comment>
-    <comment ref="H80" authorId="13" shapeId="0" xr:uid="{2DF247D5-F5AB-0F43-BB23-04B9F21B7B37}">
+    <comment ref="I80" authorId="13" shapeId="0" xr:uid="{2DF247D5-F5AB-0F43-BB23-04B9F21B7B37}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="623">
   <si>
     <t>No.</t>
   </si>
@@ -6812,6 +6812,15 @@
   </si>
   <si>
     <t>Bibliography</t>
+  </si>
+  <si>
+    <t>Museum of the Bible</t>
+  </si>
+  <si>
+    <t>Schøyen Collection</t>
+  </si>
+  <si>
+    <t>Azusa Pacific University</t>
   </si>
 </sst>
 </file>
@@ -7109,7 +7118,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Aleo Light"/>
         <scheme val="none"/>
       </font>
@@ -7146,6 +7155,488 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Aleo Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo Light"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aleo"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -7193,300 +7684,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Aleo Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Aleo Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
         <sz val="10"/>
         <color theme="1"/>
         <name val="Aleo Light"/>
@@ -7530,7 +7727,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -7553,18 +7750,19 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Aleo Light"/>
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -7573,197 +7771,8 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Aleo Light"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -7860,29 +7869,29 @@
   </sortState>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{4EFD41BC-5BFD-4E46-A5F1-7E906C6102C5}" name="No." dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{F93B8E3F-E2A9-9C46-8798-E2857A037AA3}" name="Content" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{4DDC7D22-B286-AD43-9DF0-FC7A4BACEAA9}" name="DSS F. No." dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{46E1AC7F-0FC2-3041-B3E2-F0809B37FB08}" name="DSS F. Name" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{AE8ADACF-00B6-7649-B9A0-10958EB147C4}" name="Name" dataDxfId="2">
+    <tableColumn id="15" xr3:uid="{F93B8E3F-E2A9-9C46-8798-E2857A037AA3}" name="Content" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{4DDC7D22-B286-AD43-9DF0-FC7A4BACEAA9}" name="DSS F. No." dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{46E1AC7F-0FC2-3041-B3E2-F0809B37FB08}" name="DSS F. Name" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{AE8ADACF-00B6-7649-B9A0-10958EB147C4}" name="Name" dataDxfId="18">
       <calculatedColumnFormula>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{142CBA6D-F3C5-874F-9A10-B4D0D370D4AD}" name="Collection No." dataDxfId="19"/>
-    <tableColumn id="32" xr3:uid="{9E02593A-E84E-124C-84CB-F3EC28D64481}" name="Name or Description" dataDxfId="18"/>
-    <tableColumn id="35" xr3:uid="{C459176B-7CFF-7741-81F6-696F6DDA7AC2}" name="Alleged Provenance" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{11BD8FB7-E8BA-EE49-B0FE-64041D98EB57}" name="False Identifications" dataDxfId="16"/>
-    <tableColumn id="28" xr3:uid="{7CFA9B31-34B3-1249-944A-FE370EC2B25E}" name="Siglum (Name) in Tov, Revised Lists (2010)" dataDxfId="15"/>
-    <tableColumn id="29" xr3:uid="{F6F3730C-3E78-9640-BD99-2AABB1F5151F}" name="Siglum and Fragment Number in Accordance" dataDxfId="14"/>
     <tableColumn id="19" xr3:uid="{F6AC96E7-4BB0-A14A-9245-5E3480975FD9}" name="Current Owner" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{E85C9271-D71B-2347-AC6C-CB969F40EC18}" name="Sale (➤), Donation (➢), and Collaboration (→)" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{B3E9F172-B29F-F14F-9417-580D64DFAF47}" name="Asking Price" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{91E1017E-7A63-B64C-B629-BFE8CFEC540C}" name="Purchase Price_x000a_Dealer/Seller ➤ Collector/Buyer" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{652C307D-EFC9-A44D-B6B7-7E5415A0E08F}" name="Lines" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{0B1022CB-F629-D54B-ACE5-24014EED6254}" name="Measurements_x000a_(in cm)" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{4665D607-2EED-974F-8F27-60FF09978FC3}" name="First Edition" dataDxfId="8"/>
-    <tableColumn id="30" xr3:uid="{AA398F82-26DF-A14A-BFA3-776AC4A147A7}" name="Edition 2" dataDxfId="7"/>
-    <tableColumn id="33" xr3:uid="{147BF4CF-F264-6B48-AC69-D7AEB150B2A1}" name="Frg. Part of a Ms Edition" dataDxfId="6"/>
-    <tableColumn id="34" xr3:uid="{516E9851-23BA-4E51-9FAE-45E15B80C08C}" name="Bibliography" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{BA6B59E9-7DD8-3F41-B53D-D836BA825549}" name="Content group" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{142CBA6D-F3C5-874F-9A10-B4D0D370D4AD}" name="Collection No." dataDxfId="17"/>
+    <tableColumn id="32" xr3:uid="{9E02593A-E84E-124C-84CB-F3EC28D64481}" name="Name or Description" dataDxfId="16"/>
+    <tableColumn id="35" xr3:uid="{C459176B-7CFF-7741-81F6-696F6DDA7AC2}" name="Alleged Provenance" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{11BD8FB7-E8BA-EE49-B0FE-64041D98EB57}" name="False Identifications" dataDxfId="14"/>
+    <tableColumn id="28" xr3:uid="{7CFA9B31-34B3-1249-944A-FE370EC2B25E}" name="Siglum (Name) in Tov, Revised Lists (2010)" dataDxfId="13"/>
+    <tableColumn id="29" xr3:uid="{F6F3730C-3E78-9640-BD99-2AABB1F5151F}" name="Siglum and Fragment Number in Accordance" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{E85C9271-D71B-2347-AC6C-CB969F40EC18}" name="Sale (➤), Donation (➢), and Collaboration (→)" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{B3E9F172-B29F-F14F-9417-580D64DFAF47}" name="Asking Price" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{91E1017E-7A63-B64C-B629-BFE8CFEC540C}" name="Purchase Price_x000a_Dealer/Seller ➤ Collector/Buyer" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{652C307D-EFC9-A44D-B6B7-7E5415A0E08F}" name="Lines" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{0B1022CB-F629-D54B-ACE5-24014EED6254}" name="Measurements_x000a_(in cm)" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{4665D607-2EED-974F-8F27-60FF09978FC3}" name="First Edition" dataDxfId="6"/>
+    <tableColumn id="30" xr3:uid="{AA398F82-26DF-A14A-BFA3-776AC4A147A7}" name="Edition 2" dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{147BF4CF-F264-6B48-AC69-D7AEB150B2A1}" name="Frg. Part of a Ms Edition" dataDxfId="4"/>
+    <tableColumn id="34" xr3:uid="{516E9851-23BA-4E51-9FAE-45E15B80C08C}" name="Bibliography" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{BA6B59E9-7DD8-3F41-B53D-D836BA825549}" name="Content group" dataDxfId="2"/>
     <tableColumn id="17" xr3:uid="{9B268625-BF17-7245-969F-CCAF877DBC86}" name="Canonical group" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8204,13 +8213,13 @@
   <threadedComment ref="U4" dT="2022-03-22T07:53:41.44" personId="{796E7543-8504-405A-8D6B-3A3CDE0CC86F}" id="{E2951F1D-27B5-461F-B0A9-FDE00BE0715F}" parentId="{32913907-D534-014C-A2B7-E0958F6ED919}">
     <text>Har jeg eller du den?</text>
   </threadedComment>
-  <threadedComment ref="H8" dT="2021-02-20T20:26:59.56" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{063009AE-1C47-5A44-9964-20755F5B4EFA}">
+  <threadedComment ref="I8" dT="2021-02-20T20:26:59.56" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{063009AE-1C47-5A44-9964-20755F5B4EFA}">
     <text xml:space="preserve">Ludvik, vi må vurdere om vi skal ta inn Fields’ røverhistorier fra YouTube-forelesningen sin. </text>
   </threadedComment>
-  <threadedComment ref="H8" dT="2021-02-26T15:28:02.79" personId="{796E7543-8504-405A-8D6B-3A3CDE0CC86F}" id="{471E5202-2BFC-41DC-A843-8872D836EE22}" parentId="{063009AE-1C47-5A44-9964-20755F5B4EFA}">
+  <threadedComment ref="I8" dT="2021-02-26T15:28:02.79" personId="{796E7543-8504-405A-8D6B-3A3CDE0CC86F}" id="{471E5202-2BFC-41DC-A843-8872D836EE22}" parentId="{063009AE-1C47-5A44-9964-20755F5B4EFA}">
     <text>Ja. Det bør inn :)</text>
   </threadedComment>
-  <threadedComment ref="I8" dT="2021-03-02T20:18:22.58" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{6D446EEB-A84E-1D4E-9690-7BBD845E700E}">
+  <threadedComment ref="J8" dT="2021-03-02T20:18:22.58" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{6D446EEB-A84E-1D4E-9690-7BBD845E700E}">
     <text xml:space="preserve">Dette tror jeg at jeg har fra et privat dokument fra Fields til Schøyen. Bør nok ut før vi publiserer. </text>
   </threadedComment>
   <threadedComment ref="N8" dT="2021-02-19T09:08:31.88" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{B44D4F9E-62F4-CD4B-9A98-270C94C38314}">
@@ -8219,7 +8228,7 @@
   <threadedComment ref="Q8" dT="2021-02-19T09:10:29.32" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{6E557DC4-AD42-5247-8DD6-3E02255DDE54}">
     <text xml:space="preserve">Kilde </text>
   </threadedComment>
-  <threadedComment ref="I10" dT="2021-02-19T09:26:50.87" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{31C85DC9-8535-E64A-9D2C-8875E7AA0864}">
+  <threadedComment ref="J10" dT="2021-02-19T09:26:50.87" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{31C85DC9-8535-E64A-9D2C-8875E7AA0864}">
     <text>Sjekk lange</text>
   </threadedComment>
   <threadedComment ref="U10" dT="2021-04-19T09:22:50.36" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{821C7E93-B4E4-1847-850F-757E6089B046}">
@@ -8234,7 +8243,7 @@
   <threadedComment ref="U78" dT="2022-03-22T07:03:48.73" personId="{8876FAA3-BF0D-9247-B3AB-636F8762BE46}" id="{F37999FA-2FA5-1648-A58C-71FF2FEE16A1}">
     <text>Er NOVA-referansen riktig?</text>
   </threadedComment>
-  <threadedComment ref="H80" dT="2022-03-22T16:47:12.52" personId="{8876FAA3-BF0D-9247-B3AB-636F8762BE46}" id="{2DF247D5-F5AB-0F43-BB23-04B9F21B7B37}">
+  <threadedComment ref="I80" dT="2022-03-22T16:47:12.52" personId="{8876FAA3-BF0D-9247-B3AB-636F8762BE46}" id="{2DF247D5-F5AB-0F43-BB23-04B9F21B7B37}">
     <text>Legg inn quotes fra Tovs artikkel</text>
   </threadedComment>
   <threadedComment ref="U90" dT="2021-03-02T11:52:46.61" personId="{B27B2B84-CF82-ED4C-9691-AFC35911EFDC}" id="{F55427C9-A137-474F-BE0B-CB9064F94C63}">
@@ -8250,9 +8259,9 @@
   </sheetPr>
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="220" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8262,35 +8271,38 @@
     <col min="3" max="3" width="15.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="52.3984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="43.796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.19921875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="31.796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="65.3984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.3984375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="54.59765625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.19921875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="25" style="1" customWidth="1"/>
-    <col min="19" max="19" width="30.3984375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="65.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="94" style="1" customWidth="1"/>
-    <col min="22" max="22" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="65.59765625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="35.59765625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="38.796875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="30" style="1" customWidth="1"/>
-    <col min="27" max="27" width="32.3984375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="31.3984375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="31.19921875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="28" style="1" customWidth="1"/>
-    <col min="31" max="31" width="37" style="1" customWidth="1"/>
-    <col min="32" max="32" width="40" style="1" customWidth="1"/>
-    <col min="33" max="33" width="30.3984375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="40.19921875" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="11" style="1"/>
+    <col min="6" max="6" width="31.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="52.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
+    <col min="12" max="12" width="37.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="64" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.19921875" customWidth="1"/>
+    <col min="15" max="15" width="65.3984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.3984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="54.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.19921875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="30.3984375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="40.796875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="94" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="65.59765625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="35.59765625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="38.796875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="30" style="1" customWidth="1"/>
+    <col min="29" max="29" width="32.3984375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="31.3984375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="31.19921875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="28" style="1" customWidth="1"/>
+    <col min="33" max="33" width="37" style="1" customWidth="1"/>
+    <col min="34" max="34" width="40" style="1" customWidth="1"/>
+    <col min="35" max="35" width="30.3984375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="40.19921875" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="73" customHeight="1" x14ac:dyDescent="0.2">
@@ -8310,25 +8322,25 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>576</v>
@@ -8377,21 +8389,21 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Gen 13:1–3</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="13"/>
       <c r="M2" s="12" t="s">
         <v>17</v>
       </c>
@@ -8420,7 +8432,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="370" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -8433,25 +8445,25 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Words from Genesis 22</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="15"/>
       <c r="M3" s="15" t="s">
         <v>609</v>
       </c>
@@ -8503,16 +8515,18 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.191 Gen2</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="25" t="s">
         <v>509</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
         <v>577</v>
@@ -8540,7 +8554,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="83" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="183" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -8553,22 +8567,22 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Gen 33:19–34:2</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15" t="s">
@@ -8609,18 +8623,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.101 Gen1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15" t="s">
         <v>52</v>
@@ -8667,18 +8683,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.102 RP1</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="17"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="17"/>
       <c r="M7" s="15" t="s">
         <v>62</v>
@@ -8708,7 +8726,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="135" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="210" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -8721,22 +8739,22 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Gen 37:26–38</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="15"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="M8" s="15"/>
       <c r="N8" s="15" t="s">
         <v>602</v>
       </c>
@@ -8760,7 +8778,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -8773,16 +8791,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Gen 47:4–5</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="15"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
@@ -8817,23 +8835,25 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.103 Exod3</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="L10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="15"/>
       <c r="M10" s="15" t="s">
         <v>84</v>
       </c>
@@ -8875,23 +8895,25 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.104 Exod4</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="L11" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="15"/>
       <c r="M11" s="15" t="s">
         <v>84</v>
       </c>
@@ -8916,7 +8938,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -8929,16 +8951,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Exod 6:11–12, 26–29</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="15"/>
-      <c r="M12" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
@@ -8956,7 +8978,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="160" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -8969,14 +8991,14 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Exod 12:3–5</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15" t="s">
         <v>98</v>
@@ -9000,7 +9022,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -9013,16 +9035,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Exod 12:25–27</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="15"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -9040,7 +9062,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="90" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="110" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -9057,20 +9079,22 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.105 Exod5</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="J15" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15" t="s">
         <v>84</v>
@@ -9113,16 +9137,18 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.192 Exod6</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="15"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15" t="s">
         <v>578</v>
@@ -9165,18 +9191,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.151 (Unid) [earlier: DDS F.Exod1]</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="7"/>
+      <c r="I17" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15" t="s">
         <v>579</v>
@@ -9221,18 +9249,18 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.161 Exod2</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15" t="s">
         <v>127</v>
@@ -9271,17 +9299,17 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Lev 1:2–5</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="15"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
@@ -9315,16 +9343,18 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.152 Lev1</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="15"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="15"/>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15" t="s">
         <v>579</v>
@@ -9350,7 +9380,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -9363,15 +9393,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Lev 16:16–20</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="15"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
@@ -9407,20 +9437,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.162 Lev2</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="I22" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="J22" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="15" t="s">
         <v>127</v>
@@ -9450,7 +9480,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -9467,16 +9497,18 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.193 Lev5</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="15"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="15"/>
+      <c r="K23" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15" t="s">
         <v>580</v>
@@ -9519,14 +9551,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.203 Lev6</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15" t="s">
         <v>581</v>
@@ -9550,7 +9584,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -9563,22 +9597,22 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Lev 23:38–39</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
+      <c r="F25" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="I25" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="15"/>
+      <c r="K25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="L25" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>590</v>
       </c>
       <c r="M25" s="15" t="s">
         <v>589</v>
@@ -9610,7 +9644,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="60" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -9623,22 +9657,22 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Lev 23:40–44, 24:16–19</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="I26" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="15"/>
+      <c r="K26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="L26" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>590</v>
       </c>
       <c r="M26" s="15" t="s">
         <v>589</v>
@@ -9670,7 +9704,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -9683,19 +9717,19 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Cluster of miniscule pieces</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="I27" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15" t="s">
-        <v>590</v>
-      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="15"/>
       <c r="M27" s="15" t="s">
         <v>589</v>
       </c>
@@ -9722,7 +9756,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -9735,15 +9769,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Num 1:15–16</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="15"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="15"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
@@ -9762,7 +9796,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -9775,15 +9809,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Num 8:2–3</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="15"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="15"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
@@ -9802,7 +9836,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="110" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -9819,14 +9853,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.194 Num2</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="15"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15" t="s">
         <v>582</v>
@@ -9852,7 +9888,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -9865,15 +9901,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Num 8:15–17</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="15"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="15"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
@@ -9909,20 +9945,22 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.107 Num1</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="I32" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="J32" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="15"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="15"/>
       <c r="M32" s="15" t="s">
         <v>52</v>
@@ -9950,7 +9988,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -9963,15 +10001,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Deut 4:47–5:5</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="15"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="15"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="15"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
@@ -9990,7 +10028,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="80" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -10007,20 +10045,22 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.108 Deut5</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="15"/>
+      <c r="J34" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="K34" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="K34" s="17"/>
       <c r="L34" s="17"/>
       <c r="M34" s="15" t="s">
         <v>192</v>
@@ -10048,7 +10088,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="130" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -10065,16 +10105,18 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.153 Deut1</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="15"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="15"/>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="15"/>
+      <c r="K35" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15" t="s">
         <v>199</v>
@@ -10117,18 +10159,18 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.163 Deut3</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="7"/>
+      <c r="I36" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="J36" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K36" s="17"/>
       <c r="L36" s="17"/>
       <c r="M36" s="15" t="s">
         <v>203</v>
@@ -10171,18 +10213,18 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.164 Deut4</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
+      <c r="F37" s="15"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="I37" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="15"/>
+      <c r="K37" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15" t="s">
         <v>203</v>
@@ -10208,7 +10250,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -10221,15 +10263,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Deut 16:1–3</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="15"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="15"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J38" s="15"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="15"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
@@ -10262,21 +10304,21 @@
         <v>Deut 19:13–15 [Eshel and Eshel 2007]
 Deut 23:3–4 [Puech?; Charlesworth?]</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15" t="s">
+      <c r="H39" s="7"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="K39" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="L39" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="L39" s="15"/>
       <c r="M39" s="15" t="s">
         <v>591</v>
       </c>
@@ -10322,18 +10364,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.154 Deut2</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H40" s="15"/>
       <c r="I40" s="15"/>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="15"/>
+      <c r="K40" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15" t="s">
         <v>592</v>
@@ -10374,15 +10418,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Deut 31:12–13</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G41" s="7"/>
-      <c r="H41" s="15"/>
+      <c r="H41" s="7"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J41" s="15"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
       <c r="O41" s="15"/>
@@ -10418,18 +10462,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.109 Deut6</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="I42" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="7"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15" t="s">
         <v>52</v>
@@ -10457,7 +10503,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="50" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="90" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -10470,20 +10516,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Judg 1:10–12</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G43" s="7"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15" t="s">
+      <c r="H43" s="7"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="K43" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K43" s="15" t="s">
+      <c r="L43" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
@@ -10509,7 +10555,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="70" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -10522,20 +10568,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Judg 4:6–8</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
+      <c r="F44" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H44" s="15"/>
       <c r="I44" s="15"/>
-      <c r="J44" s="9" t="s">
+      <c r="J44" s="15"/>
+      <c r="K44" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="L44" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>595</v>
       </c>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
@@ -10561,7 +10607,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -10574,15 +10620,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Judg 8:3–6</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="15"/>
+      <c r="H45" s="7"/>
       <c r="I45" s="15"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J45" s="15"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="15"/>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
@@ -10601,7 +10647,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="57" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -10614,17 +10660,17 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Judg 19:10–13, 23–28</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G46" s="7"/>
-      <c r="H46" s="15"/>
+      <c r="H46" s="7"/>
       <c r="I46" s="15"/>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="15"/>
+      <c r="K46" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="L46" s="15"/>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
@@ -10662,16 +10708,18 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.120 Ruth1</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H47" s="15"/>
       <c r="I47" s="15"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="15"/>
       <c r="M47" s="15" t="s">
         <v>260</v>
@@ -10716,14 +10764,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.112 Sam1</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="15"/>
+      <c r="H48" s="7"/>
       <c r="I48" s="15"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="7"/>
       <c r="L48" s="15"/>
       <c r="M48" s="15" t="s">
         <v>266</v>
@@ -10768,18 +10818,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.113 Sam2</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="I49" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="15"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="7"/>
       <c r="L49" s="15"/>
       <c r="M49" s="15" t="s">
         <v>266</v>
@@ -10807,7 +10859,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -10820,15 +10872,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>2(?)Sam 5:10–12</v>
       </c>
-      <c r="F50" s="7"/>
+      <c r="F50" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="15"/>
+      <c r="H50" s="7"/>
       <c r="I50" s="15"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J50" s="15"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="15"/>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
       <c r="O50" s="15"/>
@@ -10847,7 +10899,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="80" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -10864,20 +10916,22 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.114 Sam3</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="15"/>
+      <c r="J51" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="K51" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K51" s="15"/>
       <c r="L51" s="15"/>
       <c r="M51" s="15" t="s">
         <v>192</v>
@@ -10905,7 +10959,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -10922,12 +10976,12 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.170 Kings</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="15"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="15"/>
+      <c r="H52" s="7"/>
       <c r="I52" s="15"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="15"/>
       <c r="M52" s="15" t="s">
         <v>286</v>
@@ -10970,18 +11024,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.115 Kgs1</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="I53" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="I53" s="15"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="7"/>
       <c r="L53" s="15"/>
       <c r="M53" s="15" t="s">
         <v>293</v>
@@ -11007,7 +11063,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -11020,15 +11076,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>1(?) Kgs 18:8–10</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G54" s="7"/>
-      <c r="H54" s="15"/>
+      <c r="H54" s="7"/>
       <c r="I54" s="15"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J54" s="15"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="15"/>
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
       <c r="O54" s="15"/>
@@ -11060,15 +11116,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>2(?) Kgs 11:17–18</v>
       </c>
-      <c r="F55" s="7"/>
+      <c r="F55" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G55" s="7"/>
-      <c r="H55" s="15"/>
+      <c r="H55" s="7"/>
       <c r="I55" s="15"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J55" s="15"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="15"/>
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
       <c r="O55" s="15"/>
@@ -11087,7 +11143,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="60" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="160" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -11104,14 +11160,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.201 Neh2</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="15"/>
+      <c r="H56" s="7"/>
       <c r="I56" s="15"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="7"/>
       <c r="L56" s="15"/>
       <c r="M56" s="15" t="s">
         <v>582</v>
@@ -11154,18 +11212,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.122 Neh1</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="25" t="s">
+      <c r="H57" s="7"/>
+      <c r="I57" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="I57" s="15"/>
-      <c r="J57" s="7" t="s">
+      <c r="J57" s="15"/>
+      <c r="K57" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K57" s="15"/>
       <c r="L57" s="15"/>
       <c r="M57" s="15" t="s">
         <v>307</v>
@@ -11212,18 +11272,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.118 Ps2</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H58" s="15"/>
       <c r="I58" s="15"/>
-      <c r="J58" s="15" t="s">
+      <c r="J58" s="15"/>
+      <c r="K58" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="K58" s="15"/>
       <c r="L58" s="15"/>
       <c r="M58" s="15" t="s">
         <v>316</v>
@@ -11268,23 +11330,25 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.199 Ps3</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="19" t="s">
+      <c r="I59" s="15"/>
+      <c r="J59" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="K59" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="K59" s="19" t="s">
+      <c r="L59" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="L59" s="19"/>
       <c r="M59" s="15" t="s">
         <v>583</v>
       </c>
@@ -11326,21 +11390,21 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Ps 11:1–3</v>
       </c>
-      <c r="F60" s="7"/>
+      <c r="F60" s="15"/>
       <c r="G60" s="7"/>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="7"/>
+      <c r="I60" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="I60" s="15" t="s">
+      <c r="J60" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="J60" s="8" t="s">
+      <c r="K60" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="K60" s="15" t="s">
+      <c r="L60" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="L60" s="15"/>
       <c r="M60" s="15" t="s">
         <v>334</v>
       </c>
@@ -11380,18 +11444,18 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.165 Ps1</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7" t="s">
+      <c r="F61" s="15"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="I61" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I61" s="15" t="s">
+      <c r="J61" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="J61" s="7"/>
-      <c r="K61" s="15"/>
+      <c r="K61" s="7"/>
       <c r="L61" s="15"/>
       <c r="M61" s="15" t="s">
         <v>551</v>
@@ -11417,7 +11481,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -11430,15 +11494,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Ps 119:17, 28</v>
       </c>
-      <c r="F62" s="7"/>
+      <c r="F62" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G62" s="7"/>
-      <c r="H62" s="15"/>
+      <c r="H62" s="7"/>
       <c r="I62" s="15"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J62" s="15"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="15"/>
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
       <c r="O62" s="15"/>
@@ -11457,7 +11521,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="90" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -11470,17 +11534,17 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Ps 119:40–44</v>
       </c>
-      <c r="F63" s="7"/>
+      <c r="F63" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G63" s="7"/>
-      <c r="H63" s="15" t="s">
+      <c r="H63" s="7"/>
+      <c r="I63" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="I63" s="15"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J63" s="15"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="15"/>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
       <c r="O63" s="15"/>
@@ -11512,15 +11576,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Ps 119:61–64</v>
       </c>
-      <c r="F64" s="7"/>
+      <c r="F64" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G64" s="7"/>
-      <c r="H64" s="15"/>
+      <c r="H64" s="7"/>
       <c r="I64" s="15"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J64" s="15"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="15"/>
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
@@ -11539,7 +11603,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="80" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -11556,16 +11620,18 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.119 Prov1</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H65" s="15"/>
       <c r="I65" s="15"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="7"/>
       <c r="L65" s="15"/>
       <c r="M65" s="15" t="s">
         <v>52</v>
@@ -11604,23 +11670,23 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Isa 24:16–17</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="15"/>
+      <c r="G66" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="16" t="s">
+      <c r="H66" s="7"/>
+      <c r="I66" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I66" s="15" t="s">
+      <c r="J66" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="K66" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K66" s="15" t="s">
+      <c r="L66" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="L66" s="15"/>
       <c r="M66" s="15" t="s">
         <v>591</v>
       </c>
@@ -11651,7 +11717,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -11664,23 +11730,23 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Isa 26:19–27:1</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="15"/>
+      <c r="G67" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="16" t="s">
+      <c r="H67" s="7"/>
+      <c r="I67" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="I67" s="15" t="s">
+      <c r="J67" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="K67" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K67" s="15" t="s">
+      <c r="L67" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="L67" s="15"/>
       <c r="M67" s="15" t="s">
         <v>591</v>
       </c>
@@ -11724,17 +11790,17 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Isa 28:23–29</v>
       </c>
-      <c r="F68" s="7"/>
+      <c r="F68" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G68" s="7"/>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="7"/>
+      <c r="I68" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="I68" s="15"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J68" s="15"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="15"/>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
@@ -11757,7 +11823,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="165" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="290" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -11774,22 +11840,24 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.116 Jer1</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="H69" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="I69" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="I69" s="15" t="s">
+      <c r="J69" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="K69" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K69" s="17"/>
       <c r="L69" s="17"/>
       <c r="M69" s="15" t="s">
         <v>52</v>
@@ -11817,7 +11885,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="236" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -11834,14 +11902,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.195 Jer2</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="15"/>
+      <c r="H70" s="7"/>
       <c r="I70" s="15"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="7"/>
       <c r="L70" s="15"/>
       <c r="M70" s="15" t="s">
         <v>584</v>
@@ -11886,21 +11956,21 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.156 Jer3</v>
       </c>
-      <c r="F71" s="7"/>
+      <c r="F71" s="15"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="7"/>
+      <c r="I71" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="I71" s="15" t="s">
+      <c r="J71" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="K71" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K71" s="15" t="s">
+      <c r="L71" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="L71" s="15"/>
       <c r="M71" s="15" t="s">
         <v>596</v>
       </c>
@@ -11927,7 +11997,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="70" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -11944,14 +12014,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.196 Ezek1</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="15"/>
+      <c r="H72" s="7"/>
       <c r="I72" s="15"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="7"/>
       <c r="L72" s="15"/>
       <c r="M72" s="15" t="s">
         <v>585</v>
@@ -11994,18 +12066,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.155 Dan1</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="7"/>
+      <c r="I73" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="I73" s="15"/>
-      <c r="J73" s="7" t="s">
+      <c r="J73" s="15"/>
+      <c r="K73" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K73" s="15"/>
       <c r="L73" s="15"/>
       <c r="M73" s="15" t="s">
         <v>579</v>
@@ -12050,18 +12124,18 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.166 Dan2</v>
       </c>
-      <c r="F74" s="7"/>
+      <c r="F74" s="15"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="15" t="s">
+      <c r="H74" s="7"/>
+      <c r="I74" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I74" s="15" t="s">
+      <c r="J74" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="K74" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K74" s="15"/>
       <c r="L74" s="15"/>
       <c r="M74" s="15" t="s">
         <v>127</v>
@@ -12104,14 +12178,14 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.167 Dan3</v>
       </c>
-      <c r="F75" s="7"/>
+      <c r="F75" s="15"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="15" t="s">
+      <c r="H75" s="7"/>
+      <c r="I75" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I75" s="15"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="7"/>
       <c r="L75" s="15"/>
       <c r="M75" s="15" t="s">
         <v>127</v>
@@ -12137,7 +12211,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="70" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -12154,14 +12228,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.200 Dan6</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="15"/>
+      <c r="H76" s="7"/>
       <c r="I76" s="15"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="7"/>
       <c r="L76" s="15"/>
       <c r="M76" s="15" t="s">
         <v>585</v>
@@ -12187,7 +12263,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -12200,15 +12276,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Joel 2:23–26</v>
       </c>
-      <c r="F77" s="7"/>
+      <c r="F77" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G77" s="7"/>
-      <c r="H77" s="15"/>
+      <c r="H77" s="7"/>
       <c r="I77" s="15"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J77" s="15"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="15"/>
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
       <c r="O77" s="15"/>
@@ -12227,7 +12303,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="50" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="120" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -12240,15 +12316,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Joel 4:9–10</v>
       </c>
-      <c r="F78" s="7"/>
+      <c r="F78" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G78" s="7"/>
-      <c r="H78" s="15"/>
+      <c r="H78" s="7"/>
       <c r="I78" s="15"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J78" s="15"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="15"/>
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
       <c r="O78" s="15"/>
@@ -12284,14 +12360,14 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Amos 3:4–5</v>
       </c>
-      <c r="F79" s="7"/>
+      <c r="F79" s="19"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="15" t="s">
+      <c r="H79" s="7"/>
+      <c r="I79" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="I79" s="15"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="19"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="8"/>
       <c r="L79" s="19"/>
       <c r="M79" s="19" t="s">
         <v>422</v>
@@ -12332,14 +12408,14 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.181 Amos1</v>
       </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="8" t="s">
+      <c r="F80" s="19"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="H80" s="15"/>
       <c r="I80" s="15"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="19"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="8"/>
       <c r="L80" s="19"/>
       <c r="M80" s="15" t="s">
         <v>427</v>
@@ -12367,7 +12443,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -12380,15 +12456,15 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Obadiah 2:15, 16–18</v>
       </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="15"/>
+      <c r="F81" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="8"/>
       <c r="I81" s="15"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19" t="s">
-        <v>45</v>
-      </c>
+      <c r="J81" s="15"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="19"/>
       <c r="M81" s="15"/>
       <c r="N81" s="15"/>
       <c r="O81" s="15"/>
@@ -12407,7 +12483,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="80" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -12424,14 +12500,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.197 Jon1</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="15"/>
+      <c r="H82" s="7"/>
       <c r="I82" s="15"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="7"/>
       <c r="L82" s="15"/>
       <c r="M82" s="15" t="s">
         <v>585</v>
@@ -12457,7 +12535,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="80" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -12474,14 +12552,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.198 Mic1</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="15"/>
+      <c r="H83" s="7"/>
       <c r="I83" s="15"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="7"/>
       <c r="L83" s="15"/>
       <c r="M83" s="15" t="s">
         <v>585</v>
@@ -12520,17 +12600,17 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Tob 7:1–3</v>
       </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7" t="s">
+      <c r="F84" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="H84" s="15"/>
       <c r="I84" s="15"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J84" s="15"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="15"/>
       <c r="M84" s="15"/>
       <c r="N84" s="15"/>
       <c r="O84" s="15"/>
@@ -12566,18 +12646,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.123 Tob1</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15" t="s">
+      <c r="H85" s="7"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="J85" s="9" t="s">
+      <c r="K85" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="K85" s="19"/>
       <c r="L85" s="19"/>
       <c r="M85" s="15" t="s">
         <v>192</v>
@@ -12605,7 +12687,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="190" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -12622,18 +12704,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.124 En1</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15" t="s">
+      <c r="H86" s="7"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="K86" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="K86" s="15"/>
       <c r="L86" s="15"/>
       <c r="M86" s="15" t="s">
         <v>52</v>
@@ -12676,23 +12760,25 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.125 En2</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="G87" s="15" t="s">
+      <c r="H87" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="H87" s="16" t="s">
+      <c r="I87" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I87" s="15"/>
-      <c r="J87" s="9" t="s">
+      <c r="J87" s="15"/>
+      <c r="K87" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="K87" s="15" t="s">
+      <c r="L87" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="L87" s="15"/>
       <c r="M87" s="15" t="s">
         <v>597</v>
       </c>
@@ -12717,7 +12803,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -12734,16 +12820,18 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.126 En3</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="15"/>
+      <c r="H88" s="7"/>
       <c r="I88" s="15"/>
-      <c r="J88" s="9" t="s">
+      <c r="J88" s="15"/>
+      <c r="K88" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="K88" s="15"/>
       <c r="L88" s="15"/>
       <c r="M88" s="15" t="s">
         <v>468</v>
@@ -12771,7 +12859,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="200" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -12788,18 +12876,20 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.202 Instr1</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="G89" s="7"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15" t="s">
+      <c r="H89" s="7"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="K89" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="K89" s="15"/>
       <c r="L89" s="15"/>
       <c r="M89" s="15" t="s">
         <v>586</v>
@@ -12844,17 +12934,17 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Instruction (“4Q418”)</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="15"/>
+      <c r="H90" s="7"/>
       <c r="I90" s="15"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="J90" s="15"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="15"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
@@ -12886,17 +12976,17 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Fragment with text from the Temple Scroll</v>
       </c>
-      <c r="F91" s="7"/>
+      <c r="F91" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G91" s="7"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15" t="s">
+      <c r="H91" s="7"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="J91" s="7"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="K91" s="7"/>
+      <c r="L91" s="15"/>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
@@ -12926,17 +13016,17 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Fragment with text from the Temple Scroll</v>
       </c>
-      <c r="F92" s="7"/>
+      <c r="F92" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="G92" s="7"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15" t="s">
+      <c r="H92" s="7"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="J92" s="7"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="K92" s="7"/>
+      <c r="L92" s="15"/>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
       <c r="O92" s="15"/>
@@ -12972,16 +13062,18 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.130 CommGen</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15" t="s">
+      <c r="H93" s="7"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="J93" s="7"/>
-      <c r="K93" s="15"/>
+      <c r="K93" s="7"/>
       <c r="L93" s="15"/>
       <c r="M93" s="15" t="s">
         <v>293</v>
@@ -13020,14 +13112,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v xml:space="preserve">DSS F.132 </v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="15"/>
+      <c r="H94" s="7"/>
       <c r="I94" s="15"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="7"/>
       <c r="L94" s="15"/>
       <c r="M94" s="15" t="s">
         <v>598</v>
@@ -13068,16 +13162,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>DSS F.168 Text1</v>
       </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7" t="s">
+      <c r="F95" s="15"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="H95" s="15" t="s">
+      <c r="I95" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I95" s="15"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="7"/>
       <c r="L95" s="15"/>
       <c r="M95" s="15" t="s">
         <v>203</v>
@@ -13116,16 +13210,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Unidentified</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="15"/>
+      <c r="G96" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="H96" s="15"/>
       <c r="I96" s="15"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="7"/>
       <c r="L96" s="15"/>
       <c r="M96" s="15" t="s">
         <v>497</v>
@@ -13162,17 +13256,17 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Unidentified</v>
       </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7" t="s">
+      <c r="F97" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="H97" s="15"/>
       <c r="I97" s="15"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15" t="s">
-        <v>599</v>
-      </c>
+      <c r="J97" s="15"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="15"/>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
@@ -13202,17 +13296,17 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Unidentified</v>
       </c>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7" t="s">
+      <c r="F98" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="H98" s="15"/>
       <c r="I98" s="15"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15" t="s">
-        <v>600</v>
-      </c>
+      <c r="J98" s="15"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="15"/>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
@@ -13229,7 +13323,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -13242,14 +13336,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Unidentified</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="G99" s="7"/>
-      <c r="H99" s="15"/>
+      <c r="H99" s="7"/>
       <c r="I99" s="15"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="7"/>
       <c r="L99" s="15"/>
       <c r="M99" s="15" t="s">
         <v>587</v>
@@ -13269,7 +13365,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -13282,14 +13378,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Unidentified</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="G100" s="7"/>
-      <c r="H100" s="15"/>
+      <c r="H100" s="7"/>
       <c r="I100" s="15"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="7"/>
       <c r="L100" s="15"/>
       <c r="M100" s="15" t="s">
         <v>588</v>
@@ -13309,7 +13407,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -13322,14 +13420,16 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Unidentified</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="15"/>
+      <c r="H101" s="7"/>
       <c r="I101" s="15"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="7"/>
       <c r="L101" s="15"/>
       <c r="M101" s="15" t="s">
         <v>588</v>
@@ -13349,7 +13449,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="45" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>504</v>
       </c>
@@ -13362,17 +13462,17 @@
         <f>IF(ISNUMBER(Post_2002_Fragments[[#This Row],[No.]]),_xlfn.CONCAT(IF(Post_2002_Fragments[[#This Row],[DSS F. No.]]="",IF(ISNUMBER(SEARCH("Unidentified",Post_2002_Fragments[[#This Row],[Content]])),"Unidentified",Post_2002_Fragments[[#This Row],[Content]]),_xlfn.CONCAT("DSS F.",Post_2002_Fragments[[#This Row],[DSS F. No.]]," ",Post_2002_Fragments[[#This Row],[DSS F. Name]]))),Post_2002_Fragments[[#This Row],[No.]])</f>
         <v>Scraps</v>
       </c>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7" t="s">
+      <c r="F102" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="H102" s="15"/>
       <c r="I102" s="15"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15" t="s">
-        <v>601</v>
-      </c>
+      <c r="J102" s="15"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="15"/>
       <c r="M102" s="15" t="s">
         <v>507</v>
       </c>
@@ -13396,9 +13496,9 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I59" r:id="rId1" location="v=onepage&amp;q=Sch%C3%B8yen&amp;f=false" display="https://books.google.no/books?id=Cs3RAgAAQBAJ&amp;pg=PA238&amp;lpg=PA238&amp;dq=PSALMS+DEAD+SEA+SCROLL+schoyen&amp;source=bl&amp;ots=9S5NHKbhNy&amp;sig=D1Mzi1d85boxzbk6tQCqiCZeEzw&amp;hl=no&amp;sa=X&amp;ei=7SVGVb-yO8KfsAGa_oHADw&amp;ved=0CFAQ6AEwBw - v=onepage&amp;q=Sch%C3%B8yen&amp;f=false" xr:uid="{151E52F6-AC3D-8948-A541-40365B388144}"/>
+    <hyperlink ref="J59" r:id="rId1" location="v=onepage&amp;q=Sch%C3%B8yen&amp;f=false" display="https://books.google.no/books?id=Cs3RAgAAQBAJ&amp;pg=PA238&amp;lpg=PA238&amp;dq=PSALMS+DEAD+SEA+SCROLL+schoyen&amp;source=bl&amp;ots=9S5NHKbhNy&amp;sig=D1Mzi1d85boxzbk6tQCqiCZeEzw&amp;hl=no&amp;sa=X&amp;ei=7SVGVb-yO8KfsAGa_oHADw&amp;ved=0CFAQ6AEwBw - v=onepage&amp;q=Sch%C3%B8yen&amp;f=false" xr:uid="{151E52F6-AC3D-8948-A541-40365B388144}"/>
     <hyperlink ref="M79" r:id="rId2" display="https://web.archive.org/web/20131011210336/http:/www.thekjvbible.com:80/onlinegallery/12/Dead+Sea+Scroll+Fragment" xr:uid="{A577A659-34A1-C34E-84ED-B965268DAB71}"/>
-    <hyperlink ref="G80" r:id="rId3" display="http://web.archive.org/web/20131229042349/http:/www.laniertheologicallibrary.org/original-dead-sea-scrolls-fragment-on-display/" xr:uid="{795B567B-2EAD-F743-B40F-F257B05A4EA7}"/>
+    <hyperlink ref="H80" r:id="rId3" display="http://web.archive.org/web/20131229042349/http:/www.laniertheologicallibrary.org/original-dead-sea-scrolls-fragment-on-display/" xr:uid="{795B567B-2EAD-F743-B40F-F257B05A4EA7}"/>
     <hyperlink ref="R40" r:id="rId4" display="http://shomron0.tripod.com/2008/julyaugust.html" xr:uid="{1A0A489E-7295-B84B-BE6A-04624A263796}"/>
     <hyperlink ref="R43" r:id="rId5" location="metadata_info_tab_contents" display="Émile Puech, &quot;Notes sur le manuscrit des Juges 4Q50a,&quot; RevQ 21.2 (2003): 315–19" xr:uid="{C08DF31B-0D56-4381-B0A3-C8253DD349AA}"/>
   </hyperlinks>
